--- a/Aia/Lang/Derotic/Derotic.xlsx
+++ b/Aia/Lang/Derotic/Derotic.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="META" sheetId="8" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="Pronouns" sheetId="5" r:id="rId8"/>
     <sheet name="Prepositions" sheetId="6" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="264">
   <si>
     <t>1.Sounds</t>
   </si>
@@ -446,12 +446,6 @@
     <t>/n/</t>
   </si>
   <si>
-    <t>Clustering</t>
-  </si>
-  <si>
-    <t>Sonority hierarchy doesnt matter</t>
-  </si>
-  <si>
     <t>Vowels</t>
   </si>
   <si>
@@ -470,9 +464,6 @@
     <t>Stops (e.g. Affricates)</t>
   </si>
   <si>
-    <t xml:space="preserve">this structure can also look like this </t>
-  </si>
-  <si>
     <t>Syllabus</t>
   </si>
   <si>
@@ -627,13 +618,374 @@
   </si>
   <si>
     <t>svenska-</t>
+  </si>
+  <si>
+    <t>Sonority</t>
+  </si>
+  <si>
+    <t>Rules of Clustering</t>
+  </si>
+  <si>
+    <t>1.</t>
+  </si>
+  <si>
+    <t>2.</t>
+  </si>
+  <si>
+    <t>R-sounds that are stuck together are seperated by glutalstops</t>
+  </si>
+  <si>
+    <t>except for /h/</t>
+  </si>
+  <si>
+    <t>Diphthoungs</t>
+  </si>
+  <si>
+    <t>Monovowels</t>
+  </si>
+  <si>
+    <t>ø</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>ʉ</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>ɑ</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dam</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ra</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ra</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ä</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ra</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ö</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>gla</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dla</t>
+    </r>
+  </si>
+  <si>
+    <t>åka</t>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rvid</t>
+    </r>
+  </si>
+  <si>
+    <t>Onset - everything</t>
+  </si>
+  <si>
+    <t>Coda - everything but /h/</t>
+  </si>
+  <si>
+    <t>Nucleus - all vowels and diphthongs + some r's and /n/</t>
+  </si>
+  <si>
+    <t>3.</t>
+  </si>
+  <si>
+    <t>4.</t>
+  </si>
+  <si>
+    <t>5.</t>
+  </si>
+  <si>
+    <t>aɛ</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t</t>
+    </r>
+  </si>
+  <si>
+    <t>eʉ</t>
+  </si>
+  <si>
+    <t>eø</t>
+  </si>
+  <si>
+    <t>ei</t>
+  </si>
+  <si>
+    <t>iø</t>
+  </si>
+  <si>
+    <t>øy</t>
+  </si>
+  <si>
+    <t>run</t>
+  </si>
+  <si>
+    <t>røyr</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>defin</t>
+  </si>
+  <si>
+    <t>just the noun</t>
+  </si>
+  <si>
+    <t>places related to this</t>
+  </si>
+  <si>
+    <t xml:space="preserve">something related to a collection of this </t>
+  </si>
+  <si>
+    <t xml:space="preserve">related tool </t>
+  </si>
+  <si>
+    <t>related animal</t>
+  </si>
+  <si>
+    <t>using the noun as an adjective</t>
+  </si>
+  <si>
+    <t>metaforer</t>
+  </si>
+  <si>
+    <t>something small in size related to this</t>
+  </si>
+  <si>
+    <t>acting as agent or cause</t>
+  </si>
+  <si>
+    <t>böjning</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>suffix - /a/</t>
+  </si>
+  <si>
+    <t>/iør/ suffix</t>
+  </si>
+  <si>
+    <t>/iar/ suffix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">there are 4 noun classes </t>
+  </si>
+  <si>
+    <t>other ending with vowel</t>
+  </si>
+  <si>
+    <t>other ending with consonant</t>
+  </si>
+  <si>
+    <t>suffix - /it/</t>
+  </si>
+  <si>
+    <t>suffix - /ɻ/</t>
+  </si>
+  <si>
+    <t>suffix - /r/</t>
+  </si>
+  <si>
+    <t>prefix - /a/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">persone </t>
+  </si>
+  <si>
+    <t>temporal</t>
+  </si>
+  <si>
+    <t>/ʔ/ after first vowel</t>
+  </si>
+  <si>
+    <t>suffix - /ɣ/</t>
+  </si>
+  <si>
+    <t>nvm</t>
+  </si>
+  <si>
+    <t>singular</t>
+  </si>
+  <si>
+    <t>dualar</t>
+  </si>
+  <si>
+    <t>plural</t>
+  </si>
+  <si>
+    <t>te</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="2" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="2" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nte</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -710,6 +1062,29 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="2" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -937,7 +1312,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1000,6 +1375,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1012,44 +1425,9 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlänk" xfId="1" builtinId="8"/>
@@ -1330,7 +1708,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6A6B8AA-9AAB-4C0A-8965-6D4C61188A96}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1370,11 +1748,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62E6BC66-842F-4CC9-9B4C-0CEB35E774AE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="G1:V46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView tabSelected="1" topLeftCell="D14" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1392,66 +1770,66 @@
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
       <c r="L3" s="9"/>
-      <c r="N3" s="30" t="s">
+      <c r="N3" s="35" t="s">
         <v>34</v>
       </c>
       <c r="O3" s="37"/>
       <c r="P3" s="37"/>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="26" t="s">
+      <c r="Q3" s="36"/>
+      <c r="R3" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="S3" s="27"/>
-      <c r="T3" s="26" t="s">
+      <c r="S3" s="41"/>
+      <c r="T3" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="U3" s="27"/>
+      <c r="U3" s="41"/>
       <c r="V3" s="9"/>
     </row>
     <row r="4" spans="7:22" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G4" s="35" t="s">
+      <c r="G4" s="33" t="s">
         <v>9</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="35" t="s">
+      <c r="I4" s="33" t="s">
         <v>12</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="35" t="s">
+      <c r="K4" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="35" t="s">
+      <c r="L4" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="N4" s="30" t="s">
+      <c r="N4" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="O4" s="31"/>
-      <c r="P4" s="30" t="s">
+      <c r="O4" s="36"/>
+      <c r="P4" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="Q4" s="31"/>
-      <c r="R4" s="28"/>
-      <c r="S4" s="29"/>
-      <c r="T4" s="28"/>
-      <c r="U4" s="29"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="42"/>
+      <c r="S4" s="43"/>
+      <c r="T4" s="42"/>
+      <c r="U4" s="43"/>
       <c r="V4" s="11"/>
     </row>
     <row r="5" spans="7:22" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G5" s="36"/>
+      <c r="G5" s="34"/>
       <c r="H5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="36"/>
+      <c r="I5" s="34"/>
       <c r="J5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
       <c r="N5" s="6" t="s">
         <v>39</v>
       </c>
@@ -1479,10 +1857,10 @@
       <c r="V5" s="11"/>
     </row>
     <row r="6" spans="7:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G6" s="30" t="s">
+      <c r="G6" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="31"/>
+      <c r="H6" s="36"/>
       <c r="I6" s="2" t="s">
         <v>6</v>
       </c>
@@ -1518,7 +1896,7 @@
       </c>
     </row>
     <row r="7" spans="7:22" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G7" s="35" t="s">
+      <c r="G7" s="33" t="s">
         <v>18</v>
       </c>
       <c r="H7" s="6" t="s">
@@ -1535,19 +1913,19 @@
       <c r="N7" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="O7" s="32" t="s">
+      <c r="O7" s="30" t="s">
         <v>50</v>
       </c>
       <c r="P7" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="Q7" s="32" t="s">
+      <c r="Q7" s="30" t="s">
         <v>52</v>
       </c>
       <c r="R7" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="S7" s="32" t="s">
+      <c r="S7" s="30" t="s">
         <v>54</v>
       </c>
       <c r="T7" s="3"/>
@@ -1557,28 +1935,28 @@
       </c>
     </row>
     <row r="8" spans="7:22" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G8" s="36"/>
+      <c r="G8" s="34"/>
       <c r="H8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I8" s="40" t="s">
+      <c r="I8" s="28" t="s">
         <v>23</v>
       </c>
       <c r="J8" s="3"/>
-      <c r="K8" s="40" t="s">
+      <c r="K8" s="28" t="s">
         <v>24</v>
       </c>
       <c r="L8" s="3"/>
       <c r="N8" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="O8" s="33"/>
+      <c r="O8" s="32"/>
       <c r="P8" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="Q8" s="33"/>
+      <c r="Q8" s="32"/>
       <c r="R8" s="3"/>
-      <c r="S8" s="33"/>
+      <c r="S8" s="32"/>
       <c r="T8" s="3"/>
       <c r="U8" s="3" t="s">
         <v>57</v>
@@ -1586,16 +1964,16 @@
       <c r="V8" s="3"/>
     </row>
     <row r="9" spans="7:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G9" s="30" t="s">
+      <c r="G9" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="H9" s="31"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="40" t="s">
+      <c r="H9" s="36"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="K9" s="41"/>
-      <c r="L9" s="32" t="s">
+      <c r="K9" s="29"/>
+      <c r="L9" s="30" t="s">
         <v>27</v>
       </c>
       <c r="N9" s="6" t="s">
@@ -1615,19 +1993,19 @@
       </c>
     </row>
     <row r="10" spans="7:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G10" s="35" t="s">
+      <c r="G10" s="33" t="s">
         <v>28</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>22</v>
       </c>
       <c r="I10" s="3"/>
-      <c r="J10" s="41"/>
+      <c r="J10" s="29"/>
       <c r="K10" s="3"/>
-      <c r="L10" s="34"/>
+      <c r="L10" s="31"/>
     </row>
     <row r="11" spans="7:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G11" s="36"/>
+      <c r="G11" s="34"/>
       <c r="H11" s="6" t="s">
         <v>19</v>
       </c>
@@ -1638,26 +2016,26 @@
       <c r="K11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L11" s="34"/>
+      <c r="L11" s="31"/>
     </row>
     <row r="12" spans="7:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G12" s="30" t="s">
+      <c r="G12" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="H12" s="31"/>
+      <c r="H12" s="36"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
-      <c r="L12" s="33"/>
+      <c r="L12" s="32"/>
       <c r="O12" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="13" spans="7:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G13" s="30" t="s">
+      <c r="G13" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="H13" s="31"/>
+      <c r="H13" s="36"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="2" t="s">
@@ -1665,15 +2043,15 @@
       </c>
       <c r="L13" s="3"/>
       <c r="O13" t="s">
-        <v>195</v>
+        <v>200</v>
+      </c>
+      <c r="T13" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="14" spans="7:22" x14ac:dyDescent="0.25">
       <c r="O14" t="s">
-        <v>57</v>
-      </c>
-      <c r="P14" t="s">
-        <v>53</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="7:22" x14ac:dyDescent="0.25">
@@ -1681,10 +2059,13 @@
         <v>67</v>
       </c>
       <c r="O15" t="s">
-        <v>51</v>
-      </c>
-      <c r="P15" t="s">
-        <v>48</v>
+        <v>57</v>
+      </c>
+      <c r="P15" s="45" t="s">
+        <v>214</v>
+      </c>
+      <c r="T15" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="16" spans="7:22" x14ac:dyDescent="0.25">
@@ -1698,13 +2079,16 @@
         <v>69</v>
       </c>
       <c r="O16" t="s">
-        <v>60</v>
+        <v>205</v>
       </c>
       <c r="P16" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="7:16" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+      <c r="T16" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="17" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G17" t="s">
         <v>6</v>
       </c>
@@ -1718,13 +2102,16 @@
         <v>68</v>
       </c>
       <c r="O17" t="s">
-        <v>45</v>
+        <v>206</v>
       </c>
       <c r="P17" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="7:16" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+      <c r="T17" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="18" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G18" t="s">
         <v>7</v>
       </c>
@@ -1738,13 +2125,16 @@
         <v>27</v>
       </c>
       <c r="O18" t="s">
-        <v>50</v>
+        <v>207</v>
       </c>
       <c r="P18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="7:16" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+      <c r="T18" s="46" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="19" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G19" t="s">
         <v>26</v>
       </c>
@@ -1757,8 +2147,17 @@
       <c r="L19" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="20" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="O19" t="s">
+        <v>50</v>
+      </c>
+      <c r="P19" s="45" t="s">
+        <v>211</v>
+      </c>
+      <c r="T19" s="46" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="20" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G20" t="s">
         <v>27</v>
       </c>
@@ -1771,8 +2170,17 @@
       <c r="L20" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="21" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="O20" t="s">
+        <v>201</v>
+      </c>
+      <c r="P20" s="45" t="s">
+        <v>212</v>
+      </c>
+      <c r="T20" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="21" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G21" t="s">
         <v>20</v>
       </c>
@@ -1785,8 +2193,14 @@
       <c r="L21" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="22" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="O21" t="s">
+        <v>202</v>
+      </c>
+      <c r="P21" s="45" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="22" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G22" t="s">
         <v>21</v>
       </c>
@@ -1796,18 +2210,36 @@
       <c r="L22" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="23" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="O22" t="s">
+        <v>59</v>
+      </c>
+      <c r="P22" s="45" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="23" spans="7:20" x14ac:dyDescent="0.25">
       <c r="L23" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="24" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="O23" t="s">
+        <v>203</v>
+      </c>
+      <c r="P23" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="24" spans="7:20" x14ac:dyDescent="0.25">
       <c r="L24" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="26" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="O24" s="46" t="s">
+        <v>204</v>
+      </c>
+      <c r="P24" s="46" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="26" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G26" t="s">
         <v>118</v>
       </c>
@@ -1815,7 +2247,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="27" spans="7:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G27" t="s">
         <v>119</v>
       </c>
@@ -2072,11 +2504,13 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="L9:L12"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="T3:U4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="S7:S8"/>
+    <mergeCell ref="R3:S4"/>
     <mergeCell ref="N3:Q3"/>
     <mergeCell ref="O9:P9"/>
     <mergeCell ref="Q9:R9"/>
@@ -2089,97 +2523,95 @@
     <mergeCell ref="I8:I9"/>
     <mergeCell ref="K8:K9"/>
     <mergeCell ref="G9:H9"/>
-    <mergeCell ref="T3:U4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="S7:S8"/>
-    <mergeCell ref="R3:S4"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="L9:L12"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="G4" r:id="rId1" tooltip="Bilabial consonant" display="https://en.wikipedia.org/wiki/Bilabial_consonant" xr:uid="{2F067C0C-56DA-4866-A188-BE570854ABC1}"/>
-    <hyperlink ref="H4" r:id="rId2" tooltip="Labiodental consonant" display="https://en.wikipedia.org/wiki/Labiodental_consonant" xr:uid="{87093B33-E3E9-4BCC-8C97-5A2FE5E5699D}"/>
-    <hyperlink ref="H5" r:id="rId3" tooltip="Labiodental consonant" display="https://en.wikipedia.org/wiki/Labiodental_consonant" xr:uid="{2C9D8C4F-8FBE-4288-8E68-F168851E4777}"/>
-    <hyperlink ref="I4" r:id="rId4" tooltip="Dental consonant" display="https://en.wikipedia.org/wiki/Dental_consonant" xr:uid="{FD836AFF-0116-44FB-8A6B-FF59EE4835E6}"/>
-    <hyperlink ref="J4" r:id="rId5" tooltip="Retroflex consonant" display="https://en.wikipedia.org/wiki/Retroflex_consonant" xr:uid="{D0DE922B-8BF2-4DE9-9E0B-8915A542AD78}"/>
-    <hyperlink ref="J5" r:id="rId6" tooltip="Alveolar consonant" display="https://en.wikipedia.org/wiki/Alveolar_consonant" xr:uid="{902D2DFF-5402-4089-B7EA-A09FE6938FEF}"/>
-    <hyperlink ref="K4" r:id="rId7" tooltip="Palatal consonant" display="https://en.wikipedia.org/wiki/Palatal_consonant" xr:uid="{3792A094-33D4-46CD-847E-6F6A1CC4B99E}"/>
-    <hyperlink ref="L4" r:id="rId8" tooltip="Velar consonant" display="https://en.wikipedia.org/wiki/Velar_consonant" xr:uid="{994C5D0D-F0B5-442E-B306-BC8FA2CECE4A}"/>
-    <hyperlink ref="G6" r:id="rId9" tooltip="Nasal consonant" display="https://en.wikipedia.org/wiki/Nasal_consonant" xr:uid="{C4C8B47F-E384-4A10-AD05-613BBEBCC4C7}"/>
-    <hyperlink ref="I6" r:id="rId10" tooltip="Bilabial nasal" display="https://en.wikipedia.org/wiki/Bilabial_nasal" xr:uid="{375A40A5-A96E-42C1-A211-F69790DA8047}"/>
-    <hyperlink ref="K6" r:id="rId11" location="Dental_or_denti-alveolar" tooltip="Dental, alveolar and postalveolar nasals" display="Dental_or_denti-alveolar" xr:uid="{A8F61766-41D0-4D02-B305-E3F847043905}"/>
-    <hyperlink ref="G7" r:id="rId12" tooltip="Stop consonant" display="https://en.wikipedia.org/wiki/Stop_consonant" xr:uid="{2D779544-05DF-4EE7-8971-4ADA423F7C60}"/>
-    <hyperlink ref="H7" r:id="rId13" tooltip="Voicelessness" display="https://en.wikipedia.org/wiki/Voicelessness" xr:uid="{89CDCE58-2F68-4655-A48C-6ED8A34DA6C2}"/>
-    <hyperlink ref="I7" r:id="rId14" tooltip="Voiceless bilabial stop" display="https://en.wikipedia.org/wiki/Voiceless_bilabial_stop" xr:uid="{B7DF981D-39C0-4C4A-85E0-4F0EF9C46A49}"/>
-    <hyperlink ref="K7" r:id="rId15" location="Dental_or_denti-alveolar" tooltip="Voiceless dental and alveolar stops" display="https://en.wikipedia.org/wiki/Voiceless_dental_and_alveolar_stops - Dental_or_denti-alveolar" xr:uid="{8BDED1E0-D760-43BD-AFF6-DFDDADFAAD18}"/>
-    <hyperlink ref="H8" r:id="rId16" tooltip="Voice (phonetics)" display="https://en.wikipedia.org/wiki/Voice_(phonetics)" xr:uid="{C32E8514-6F54-448B-BED6-94B62A3891C2}"/>
-    <hyperlink ref="I8" r:id="rId17" tooltip="Voiced bilabial stop" display="https://en.wikipedia.org/wiki/Voiced_bilabial_stop" xr:uid="{89214C1F-7CD1-4AB1-9FA7-C8893D3841BE}"/>
-    <hyperlink ref="K8" r:id="rId18" location="Dental_or_denti-alveolar" tooltip="Voiced dental and alveolar stops" display="https://en.wikipedia.org/wiki/Voiced_dental_and_alveolar_stops - Dental_or_denti-alveolar" xr:uid="{CC1EEAED-7D98-4203-BDF6-A959D9783D3E}"/>
-    <hyperlink ref="G9" r:id="rId19" tooltip="Approximant consonant" display="https://en.wikipedia.org/wiki/Approximant_consonant" xr:uid="{162793FB-1F8C-460D-BD82-52D36B25C357}"/>
-    <hyperlink ref="J9" r:id="rId20" tooltip="Voiced labiodental fricative" display="https://en.wikipedia.org/wiki/Voiced_labiodental_fricative" xr:uid="{7234A107-F623-407B-A357-E632210C28B4}"/>
-    <hyperlink ref="G10" r:id="rId21" tooltip="Fricative consonant" display="https://en.wikipedia.org/wiki/Fricative_consonant" xr:uid="{767C261E-C300-4E84-A5DD-DD9B7075CE45}"/>
-    <hyperlink ref="H10" r:id="rId22" tooltip="Voice (phonetics)" display="https://en.wikipedia.org/wiki/Voice_(phonetics)" xr:uid="{81684D46-A1AC-4DF5-814C-580D1D811F72}"/>
-    <hyperlink ref="H11" r:id="rId23" tooltip="Voicelessness" display="https://en.wikipedia.org/wiki/Voicelessness" xr:uid="{E8DADBCB-CE9F-4ED7-99BF-801AA79A8B1B}"/>
-    <hyperlink ref="J11" r:id="rId24" tooltip="Voiceless labiodental fricative" display="https://en.wikipedia.org/wiki/Voiceless_labiodental_fricative" xr:uid="{36A7E132-4848-44A1-A20A-B964705FFC7C}"/>
-    <hyperlink ref="K11" r:id="rId25" location="Voiceless_dental_sibilant" tooltip="Voiceless alveolar fricative" display="https://en.wikipedia.org/wiki/Voiceless_alveolar_fricative - Voiceless_dental_sibilant" xr:uid="{175F3080-AEB0-4F22-94C2-A53AD3E25EFF}"/>
-    <hyperlink ref="G12" r:id="rId26" tooltip="Trill consonant" display="https://en.wikipedia.org/wiki/Trill_consonant" xr:uid="{C8924BDA-0BC2-468D-8D3F-DD5462F4B3A1}"/>
-    <hyperlink ref="G13" r:id="rId27" tooltip="Lateral consonant" display="https://en.wikipedia.org/wiki/Lateral_consonant" xr:uid="{1B2AA91A-503C-4D26-91F5-341C7DB3C214}"/>
-    <hyperlink ref="K13" r:id="rId28" location="Dental_or_denti-alveolar" tooltip="Dental, alveolar and postalveolar lateral approximants" display="https://en.wikipedia.org/wiki/Dental,_alveolar_and_postalveolar_lateral_approximants - Dental_or_denti-alveolar" xr:uid="{3C3A102B-873C-4882-B433-9EE920377CF0}"/>
-    <hyperlink ref="N3" r:id="rId29" tooltip="Front vowel" display="https://en.wikipedia.org/wiki/Front_vowel" xr:uid="{1B60C9F3-19E9-4B2B-B5BE-9E145B81FD43}"/>
-    <hyperlink ref="R3" r:id="rId30" tooltip="Central vowel" display="https://en.wikipedia.org/wiki/Central_vowel" xr:uid="{109AC66B-4843-49B5-A0C6-85DE87EDE179}"/>
-    <hyperlink ref="T3" r:id="rId31" tooltip="Back vowel" display="https://en.wikipedia.org/wiki/Back_vowel" xr:uid="{64C89CA7-3616-4EE3-A4D0-8899CC9BA54D}"/>
-    <hyperlink ref="N4" r:id="rId32" tooltip="Roundedness" display="https://en.wikipedia.org/wiki/Roundedness" xr:uid="{CB255CEC-8555-4A3C-8269-DD598B094FAB}"/>
-    <hyperlink ref="P4" r:id="rId33" tooltip="Roundedness" display="https://en.wikipedia.org/wiki/Roundedness" xr:uid="{D49D03C7-2912-4B8D-95C5-8782BF896431}"/>
-    <hyperlink ref="N5" r:id="rId34" tooltip="Short vowel" display="https://en.wikipedia.org/wiki/Short_vowel" xr:uid="{CF63CC39-B4F6-48A8-A40A-80D74CEACEC7}"/>
-    <hyperlink ref="O5" r:id="rId35" tooltip="Long vowel" display="https://en.wikipedia.org/wiki/Long_vowel" xr:uid="{32AB5E5F-FAE5-445C-BC8E-DFB02E3708BF}"/>
-    <hyperlink ref="N6" r:id="rId36" tooltip="Close vowel" display="https://en.wikipedia.org/wiki/Close_vowel" xr:uid="{783F9C4B-752F-4601-B779-1EF3ED6AE471}"/>
-    <hyperlink ref="N7" r:id="rId37" tooltip="Close-mid vowel" display="https://en.wikipedia.org/wiki/Close-mid_vowel" xr:uid="{EA1FED8F-A57A-413C-B09F-3F3124394981}"/>
-    <hyperlink ref="N8" r:id="rId38" tooltip="Open-mid vowel" display="https://en.wikipedia.org/wiki/Open-mid_vowel" xr:uid="{AB172E01-4A39-4D2B-9B09-BA26DEF94771}"/>
-    <hyperlink ref="N9" r:id="rId39" tooltip="Open vowel" display="https://en.wikipedia.org/wiki/Open_vowel" xr:uid="{27120315-700D-4113-9EDB-F363860CBBE1}"/>
+    <hyperlink ref="G4" r:id="rId1" tooltip="Bilabial consonant" display="https://en.wikipedia.org/wiki/Bilabial_consonant"/>
+    <hyperlink ref="H4" r:id="rId2" tooltip="Labiodental consonant" display="https://en.wikipedia.org/wiki/Labiodental_consonant"/>
+    <hyperlink ref="H5" r:id="rId3" tooltip="Labiodental consonant" display="https://en.wikipedia.org/wiki/Labiodental_consonant"/>
+    <hyperlink ref="I4" r:id="rId4" tooltip="Dental consonant" display="https://en.wikipedia.org/wiki/Dental_consonant"/>
+    <hyperlink ref="J4" r:id="rId5" tooltip="Retroflex consonant" display="https://en.wikipedia.org/wiki/Retroflex_consonant"/>
+    <hyperlink ref="J5" r:id="rId6" tooltip="Alveolar consonant" display="https://en.wikipedia.org/wiki/Alveolar_consonant"/>
+    <hyperlink ref="K4" r:id="rId7" tooltip="Palatal consonant" display="https://en.wikipedia.org/wiki/Palatal_consonant"/>
+    <hyperlink ref="L4" r:id="rId8" tooltip="Velar consonant" display="https://en.wikipedia.org/wiki/Velar_consonant"/>
+    <hyperlink ref="G6" r:id="rId9" tooltip="Nasal consonant" display="https://en.wikipedia.org/wiki/Nasal_consonant"/>
+    <hyperlink ref="I6" r:id="rId10" tooltip="Bilabial nasal" display="https://en.wikipedia.org/wiki/Bilabial_nasal"/>
+    <hyperlink ref="K6" r:id="rId11" location="Dental_or_denti-alveolar" tooltip="Dental, alveolar and postalveolar nasals" display="Dental_or_denti-alveolar"/>
+    <hyperlink ref="G7" r:id="rId12" tooltip="Stop consonant" display="https://en.wikipedia.org/wiki/Stop_consonant"/>
+    <hyperlink ref="H7" r:id="rId13" tooltip="Voicelessness" display="https://en.wikipedia.org/wiki/Voicelessness"/>
+    <hyperlink ref="I7" r:id="rId14" tooltip="Voiceless bilabial stop" display="https://en.wikipedia.org/wiki/Voiceless_bilabial_stop"/>
+    <hyperlink ref="K7" r:id="rId15" location="Dental_or_denti-alveolar" tooltip="Voiceless dental and alveolar stops" display="https://en.wikipedia.org/wiki/Voiceless_dental_and_alveolar_stops - Dental_or_denti-alveolar"/>
+    <hyperlink ref="H8" r:id="rId16" tooltip="Voice (phonetics)" display="https://en.wikipedia.org/wiki/Voice_(phonetics)"/>
+    <hyperlink ref="I8" r:id="rId17" tooltip="Voiced bilabial stop" display="https://en.wikipedia.org/wiki/Voiced_bilabial_stop"/>
+    <hyperlink ref="K8" r:id="rId18" location="Dental_or_denti-alveolar" tooltip="Voiced dental and alveolar stops" display="https://en.wikipedia.org/wiki/Voiced_dental_and_alveolar_stops - Dental_or_denti-alveolar"/>
+    <hyperlink ref="G9" r:id="rId19" tooltip="Approximant consonant" display="https://en.wikipedia.org/wiki/Approximant_consonant"/>
+    <hyperlink ref="J9" r:id="rId20" tooltip="Voiced labiodental fricative" display="https://en.wikipedia.org/wiki/Voiced_labiodental_fricative"/>
+    <hyperlink ref="G10" r:id="rId21" tooltip="Fricative consonant" display="https://en.wikipedia.org/wiki/Fricative_consonant"/>
+    <hyperlink ref="H10" r:id="rId22" tooltip="Voice (phonetics)" display="https://en.wikipedia.org/wiki/Voice_(phonetics)"/>
+    <hyperlink ref="H11" r:id="rId23" tooltip="Voicelessness" display="https://en.wikipedia.org/wiki/Voicelessness"/>
+    <hyperlink ref="J11" r:id="rId24" tooltip="Voiceless labiodental fricative" display="https://en.wikipedia.org/wiki/Voiceless_labiodental_fricative"/>
+    <hyperlink ref="K11" r:id="rId25" location="Voiceless_dental_sibilant" tooltip="Voiceless alveolar fricative" display="https://en.wikipedia.org/wiki/Voiceless_alveolar_fricative - Voiceless_dental_sibilant"/>
+    <hyperlink ref="G12" r:id="rId26" tooltip="Trill consonant" display="https://en.wikipedia.org/wiki/Trill_consonant"/>
+    <hyperlink ref="G13" r:id="rId27" tooltip="Lateral consonant" display="https://en.wikipedia.org/wiki/Lateral_consonant"/>
+    <hyperlink ref="K13" r:id="rId28" location="Dental_or_denti-alveolar" tooltip="Dental, alveolar and postalveolar lateral approximants" display="https://en.wikipedia.org/wiki/Dental,_alveolar_and_postalveolar_lateral_approximants - Dental_or_denti-alveolar"/>
+    <hyperlink ref="N3" r:id="rId29" tooltip="Front vowel" display="https://en.wikipedia.org/wiki/Front_vowel"/>
+    <hyperlink ref="R3" r:id="rId30" tooltip="Central vowel" display="https://en.wikipedia.org/wiki/Central_vowel"/>
+    <hyperlink ref="T3" r:id="rId31" tooltip="Back vowel" display="https://en.wikipedia.org/wiki/Back_vowel"/>
+    <hyperlink ref="N4" r:id="rId32" tooltip="Roundedness" display="https://en.wikipedia.org/wiki/Roundedness"/>
+    <hyperlink ref="P4" r:id="rId33" tooltip="Roundedness" display="https://en.wikipedia.org/wiki/Roundedness"/>
+    <hyperlink ref="N5" r:id="rId34" tooltip="Short vowel" display="https://en.wikipedia.org/wiki/Short_vowel"/>
+    <hyperlink ref="O5" r:id="rId35" tooltip="Long vowel" display="https://en.wikipedia.org/wiki/Long_vowel"/>
+    <hyperlink ref="N6" r:id="rId36" tooltip="Close vowel" display="https://en.wikipedia.org/wiki/Close_vowel"/>
+    <hyperlink ref="N7" r:id="rId37" tooltip="Close-mid vowel" display="https://en.wikipedia.org/wiki/Close-mid_vowel"/>
+    <hyperlink ref="N8" r:id="rId38" tooltip="Open-mid vowel" display="https://en.wikipedia.org/wiki/Open-mid_vowel"/>
+    <hyperlink ref="N9" r:id="rId39" tooltip="Open vowel" display="https://en.wikipedia.org/wiki/Open_vowel"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76210728-4CBE-408B-AC2E-77503356AEA2}">
-  <dimension ref="B1:X31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:R72"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="23"/>
     </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="I7" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="V7" t="s">
+      <c r="P7" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="8" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="I8" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="V8" s="22" t="s">
+      <c r="P8" s="22" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="I9" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="V9" s="22" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="P9" s="22" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>132</v>
       </c>
@@ -2194,20 +2626,17 @@
       <c r="K10" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="N10" t="s">
-        <v>143</v>
-      </c>
-      <c r="T10" s="22" t="s">
+      <c r="N10" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="V10" s="22" t="s">
+      <c r="P10" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="X10" s="22" t="s">
+      <c r="R10" s="22" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="11" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="G11" s="22" t="s">
         <v>126</v>
       </c>
@@ -2219,381 +2648,651 @@
       <c r="K11" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="T11" s="22" t="s">
+      <c r="N11" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="O11" s="24"/>
+      <c r="P11" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="R11" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="U11" s="24"/>
-      <c r="V11" s="22" t="s">
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="O12" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="P12" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q12" s="25" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="G13" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="O13" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="P13" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q13" s="22" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="P16" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="X11" s="22" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="U12" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="V12" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="W12" s="25" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="13" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="G13" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="I13" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="U13" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="V13" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="W13" s="22" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="14" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="I14" s="22" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="I15" s="22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="16" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="I16" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="V16" s="22" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="17" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="I17" s="22" t="s">
+    </row>
+    <row r="17" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="22" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+    </row>
+    <row r="22" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
+        <v>193</v>
+      </c>
+      <c r="G22" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="23" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="G23" t="s">
         <v>136</v>
       </c>
-      <c r="G22" t="s">
+    </row>
+    <row r="24" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="G24" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="23" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="G23" t="s">
+    <row r="25" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="G25" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="24" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="G24" t="s">
+    <row r="26" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="G26" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="25" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="G25" t="s">
+    <row r="27" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="G27" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="26" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="G26" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="27" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="G27" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="31" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C31" t="s">
-        <v>135</v>
+    <row r="34" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C34" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D34" s="44"/>
+    </row>
+    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>195</v>
+      </c>
+      <c r="E38" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>196</v>
+      </c>
+      <c r="E39" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>219</v>
+      </c>
+      <c r="E40" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>220</v>
+      </c>
+      <c r="E41" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>221</v>
+      </c>
+      <c r="E42" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="59" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="G59" s="44"/>
+    </row>
+    <row r="60" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D60" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="63" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D63" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="66" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D66" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="69" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D69" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="72" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D72" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D5:H56"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D5:Q84"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F5" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F6" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F8" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F9" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="13" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="19" spans="4:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="19" spans="4:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D19" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="23" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D23" s="43"/>
-      <c r="F23" s="42" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="23" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="K23" s="26" t="s">
+        <v>231</v>
+      </c>
+      <c r="M23" s="26" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q23" s="26" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="24" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>148</v>
+      </c>
+      <c r="G24" s="46" t="s">
+        <v>247</v>
+      </c>
+      <c r="K24" t="s">
+        <v>148</v>
+      </c>
+      <c r="M24" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="25" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="24" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D24" t="s">
+      <c r="G25" s="46" t="s">
+        <v>245</v>
+      </c>
+      <c r="K25" t="s">
+        <v>150</v>
+      </c>
+      <c r="M25" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="26" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="25" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D25" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="26" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D26" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="27" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G26" s="46" t="s">
+        <v>246</v>
+      </c>
+      <c r="K26" t="s">
+        <v>151</v>
+      </c>
+      <c r="M26" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="27" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
+        <v>182</v>
+      </c>
+      <c r="G27" s="46" t="s">
+        <v>248</v>
+      </c>
+      <c r="K27" t="s">
+        <v>182</v>
+      </c>
+      <c r="M27" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="28" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>149</v>
+      </c>
+      <c r="G28" s="46" t="s">
+        <v>249</v>
+      </c>
+      <c r="K28" t="s">
+        <v>149</v>
+      </c>
+      <c r="M28" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="29" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>183</v>
+      </c>
+      <c r="G29" s="46" t="s">
+        <v>258</v>
+      </c>
+      <c r="K29" t="s">
+        <v>183</v>
+      </c>
+      <c r="M29" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="30" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>184</v>
+      </c>
+      <c r="K30" t="s">
+        <v>184</v>
+      </c>
+      <c r="M30" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="31" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="28" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D28" t="s">
+      <c r="K31" t="s">
+        <v>185</v>
+      </c>
+      <c r="M31" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="32" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="29" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D29" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="30" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D30" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="31" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D31" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="32" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D32" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="35" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D35" s="43"/>
-      <c r="F35" s="42" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="36" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D36" t="s">
-        <v>151</v>
-      </c>
-      <c r="F36" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="37" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="K32" t="s">
+        <v>152</v>
+      </c>
+      <c r="M32" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="37" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
-        <v>153</v>
-      </c>
-      <c r="F37" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="38" spans="4:8" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+      <c r="E37" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="38" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
-        <v>154</v>
-      </c>
-      <c r="F38" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="39" spans="4:8" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+      <c r="E38" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="39" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
-        <v>185</v>
-      </c>
-      <c r="F39" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="40" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D40" t="s">
-        <v>152</v>
-      </c>
-      <c r="F40" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="41" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D41" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="42" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D42" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="43" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D43" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="44" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D44" t="s">
-        <v>155</v>
-      </c>
-      <c r="F44" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="47" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="F47" s="42" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="48" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D48" t="s">
-        <v>151</v>
-      </c>
-      <c r="F48" t="s">
-        <v>164</v>
-      </c>
-      <c r="H48" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="49" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D49" t="s">
-        <v>153</v>
-      </c>
-      <c r="F49" t="s">
-        <v>165</v>
-      </c>
-      <c r="H49" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="50" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D50" t="s">
-        <v>154</v>
-      </c>
-      <c r="F50" t="s">
-        <v>183</v>
+        <v>261</v>
       </c>
     </row>
     <row r="51" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D51" t="s">
-        <v>185</v>
+      <c r="D51" s="27"/>
+      <c r="F51" s="26" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="52" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D52" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F52" t="s">
-        <v>182</v>
-      </c>
-      <c r="H52" t="s">
-        <v>190</v>
+        <v>157</v>
       </c>
     </row>
     <row r="53" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D53" t="s">
-        <v>186</v>
+        <v>150</v>
+      </c>
+      <c r="F53" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="54" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D54" t="s">
-        <v>187</v>
+        <v>151</v>
+      </c>
+      <c r="F54" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="55" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D55" t="s">
+        <v>182</v>
+      </c>
+      <c r="F55" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="56" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D56" t="s">
-        <v>155</v>
+        <v>149</v>
+      </c>
+      <c r="F56" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="57" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D57" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="58" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D58" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="59" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D59" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="60" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D60" t="s">
+        <v>152</v>
+      </c>
+      <c r="F60" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="63" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="F63" s="26" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="64" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D64" t="s">
+        <v>148</v>
+      </c>
+      <c r="F64" t="s">
+        <v>161</v>
+      </c>
+      <c r="H64" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="65" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D65" t="s">
+        <v>150</v>
+      </c>
+      <c r="F65" t="s">
+        <v>162</v>
+      </c>
+      <c r="H65" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="66" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D66" t="s">
+        <v>151</v>
+      </c>
+      <c r="F66" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="67" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D67" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="68" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D68" t="s">
+        <v>149</v>
+      </c>
+      <c r="F68" t="s">
+        <v>179</v>
+      </c>
+      <c r="H68" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="69" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D69" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="70" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D70" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="71" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D71" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="72" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D72" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="75" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="F75" s="26" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="76" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D76" t="s">
+        <v>148</v>
+      </c>
+      <c r="F76" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="77" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D77" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="78" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D78" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="79" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D79" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="80" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D80" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="81" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D81" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="82" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D82" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="83" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D83" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="84" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D84" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -2603,19 +3302,38 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B00DC97-7C47-420D-81D4-C35D211ADA2B}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D6:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="6" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="7" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>255</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{394F8BAD-2545-493B-8DD2-1C3C434D5905}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2627,7 +3345,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C23DD9D-B7F6-4903-AECA-EFBF6DBE76C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2641,7 +3359,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CB717B3-E9AA-433B-B58E-A050F0E102AD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2652,18 +3370,18 @@
   <sheetData>
     <row r="7" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E8" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -2672,7 +3390,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4F4DF0E-FB01-4ABF-A538-A47EE770426E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Aia/Lang/Derotic/Derotic.xlsx
+++ b/Aia/Lang/Derotic/Derotic.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D0858D4-9FB5-4421-B763-1DD76811384B}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="META" sheetId="8" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="266">
   <si>
     <t>1.Sounds</t>
   </si>
@@ -441,9 +442,6 @@
   </si>
   <si>
     <t>All diphthongs</t>
-  </si>
-  <si>
-    <t>/n/</t>
   </si>
   <si>
     <t>Vowels</t>
@@ -803,16 +801,10 @@
     <t>Coda - everything but /h/</t>
   </si>
   <si>
-    <t>Nucleus - all vowels and diphthongs + some r's and /n/</t>
-  </si>
-  <si>
     <t>3.</t>
   </si>
   <si>
     <t>4.</t>
-  </si>
-  <si>
-    <t>5.</t>
   </si>
   <si>
     <t>aɛ</t>
@@ -958,11 +950,13 @@
     <t>te</t>
   </si>
   <si>
+    <t>Strapped down</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <u/>
         <sz val="11"/>
-        <color theme="2" tint="-0.249977111117893"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -972,7 +966,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="2" tint="-0.249977111117893"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -980,12 +973,24 @@
       <t>nte</t>
     </r>
   </si>
+  <si>
+    <t>(5.)</t>
+  </si>
+  <si>
+    <t>(2C)(v)(3C)</t>
+  </si>
+  <si>
+    <t>Nucleus - all vowels and diphthongs + some r's and /n/ + /m/</t>
+  </si>
+  <si>
+    <t>/n/ + /m/</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1082,9 +1087,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color theme="2" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1312,7 +1322,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1377,42 +1387,9 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1425,9 +1402,44 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlänk" xfId="1" builtinId="8"/>
@@ -1708,7 +1720,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D7:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1748,11 +1760,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="G1:V46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="G1:V66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D14" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+    <sheetView topLeftCell="D50" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L56" sqref="L56:L63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1773,36 +1785,36 @@
       <c r="N3" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
       <c r="Q3" s="36"/>
-      <c r="R3" s="40" t="s">
+      <c r="R3" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="S3" s="41"/>
-      <c r="T3" s="40" t="s">
+      <c r="S3" s="32"/>
+      <c r="T3" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="U3" s="41"/>
+      <c r="U3" s="32"/>
       <c r="V3" s="9"/>
     </row>
     <row r="4" spans="7:22" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G4" s="33" t="s">
+      <c r="G4" s="42" t="s">
         <v>9</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="33" t="s">
+      <c r="I4" s="42" t="s">
         <v>12</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="33" t="s">
+      <c r="K4" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="33" t="s">
+      <c r="L4" s="42" t="s">
         <v>16</v>
       </c>
       <c r="N4" s="35" t="s">
@@ -1813,23 +1825,23 @@
         <v>38</v>
       </c>
       <c r="Q4" s="36"/>
-      <c r="R4" s="42"/>
-      <c r="S4" s="43"/>
-      <c r="T4" s="42"/>
-      <c r="U4" s="43"/>
+      <c r="R4" s="33"/>
+      <c r="S4" s="34"/>
+      <c r="T4" s="33"/>
+      <c r="U4" s="34"/>
       <c r="V4" s="11"/>
     </row>
     <row r="5" spans="7:22" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G5" s="34"/>
+      <c r="G5" s="43"/>
       <c r="H5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="34"/>
+      <c r="I5" s="43"/>
       <c r="J5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
       <c r="N5" s="6" t="s">
         <v>39</v>
       </c>
@@ -1896,7 +1908,7 @@
       </c>
     </row>
     <row r="7" spans="7:22" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G7" s="33" t="s">
+      <c r="G7" s="42" t="s">
         <v>18</v>
       </c>
       <c r="H7" s="6" t="s">
@@ -1913,19 +1925,19 @@
       <c r="N7" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="O7" s="30" t="s">
+      <c r="O7" s="37" t="s">
         <v>50</v>
       </c>
       <c r="P7" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="Q7" s="30" t="s">
+      <c r="Q7" s="37" t="s">
         <v>52</v>
       </c>
       <c r="R7" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="S7" s="30" t="s">
+      <c r="S7" s="37" t="s">
         <v>54</v>
       </c>
       <c r="T7" s="3"/>
@@ -1935,28 +1947,28 @@
       </c>
     </row>
     <row r="8" spans="7:22" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G8" s="34"/>
+      <c r="G8" s="43"/>
       <c r="H8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I8" s="28" t="s">
+      <c r="I8" s="44" t="s">
         <v>23</v>
       </c>
       <c r="J8" s="3"/>
-      <c r="K8" s="28" t="s">
+      <c r="K8" s="44" t="s">
         <v>24</v>
       </c>
       <c r="L8" s="3"/>
       <c r="N8" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="O8" s="32"/>
+      <c r="O8" s="38"/>
       <c r="P8" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="Q8" s="32"/>
+      <c r="Q8" s="38"/>
       <c r="R8" s="3"/>
-      <c r="S8" s="32"/>
+      <c r="S8" s="38"/>
       <c r="T8" s="3"/>
       <c r="U8" s="3" t="s">
         <v>57</v>
@@ -1968,21 +1980,21 @@
         <v>25</v>
       </c>
       <c r="H9" s="36"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="28" t="s">
+      <c r="I9" s="45"/>
+      <c r="J9" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="K9" s="29"/>
-      <c r="L9" s="30" t="s">
+      <c r="K9" s="45"/>
+      <c r="L9" s="37" t="s">
         <v>27</v>
       </c>
       <c r="N9" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="O9" s="38"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="38"/>
-      <c r="R9" s="39"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="41"/>
+      <c r="Q9" s="40"/>
+      <c r="R9" s="41"/>
       <c r="S9" s="3" t="s">
         <v>59</v>
       </c>
@@ -1993,19 +2005,19 @@
       </c>
     </row>
     <row r="10" spans="7:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G10" s="33" t="s">
+      <c r="G10" s="42" t="s">
         <v>28</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>22</v>
       </c>
       <c r="I10" s="3"/>
-      <c r="J10" s="29"/>
+      <c r="J10" s="45"/>
       <c r="K10" s="3"/>
-      <c r="L10" s="31"/>
+      <c r="L10" s="46"/>
     </row>
     <row r="11" spans="7:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G11" s="34"/>
+      <c r="G11" s="43"/>
       <c r="H11" s="6" t="s">
         <v>19</v>
       </c>
@@ -2016,7 +2028,7 @@
       <c r="K11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L11" s="31"/>
+      <c r="L11" s="46"/>
     </row>
     <row r="12" spans="7:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G12" s="35" t="s">
@@ -2026,9 +2038,9 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
-      <c r="L12" s="32"/>
+      <c r="L12" s="38"/>
       <c r="O12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="13" spans="7:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2043,15 +2055,15 @@
       </c>
       <c r="L13" s="3"/>
       <c r="O13" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="T13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="14" spans="7:22" x14ac:dyDescent="0.25">
       <c r="O14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="7:22" x14ac:dyDescent="0.25">
@@ -2061,11 +2073,11 @@
       <c r="O15" t="s">
         <v>57</v>
       </c>
-      <c r="P15" s="45" t="s">
-        <v>214</v>
+      <c r="P15" s="29" t="s">
+        <v>213</v>
       </c>
       <c r="T15" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="16" spans="7:22" x14ac:dyDescent="0.25">
@@ -2079,13 +2091,13 @@
         <v>69</v>
       </c>
       <c r="O16" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T16" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="17" spans="7:20" x14ac:dyDescent="0.25">
@@ -2102,13 +2114,13 @@
         <v>68</v>
       </c>
       <c r="O17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="P17" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="T17" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="18" spans="7:20" x14ac:dyDescent="0.25">
@@ -2125,13 +2137,13 @@
         <v>27</v>
       </c>
       <c r="O18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="P18" t="s">
-        <v>209</v>
-      </c>
-      <c r="T18" s="46" t="s">
-        <v>226</v>
+        <v>208</v>
+      </c>
+      <c r="T18" s="47" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="19" spans="7:20" x14ac:dyDescent="0.25">
@@ -2150,11 +2162,11 @@
       <c r="O19" t="s">
         <v>50</v>
       </c>
-      <c r="P19" s="45" t="s">
-        <v>211</v>
-      </c>
-      <c r="T19" s="46" t="s">
-        <v>227</v>
+      <c r="P19" s="29" t="s">
+        <v>210</v>
+      </c>
+      <c r="T19" s="47" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="20" spans="7:20" x14ac:dyDescent="0.25">
@@ -2171,13 +2183,13 @@
         <v>71</v>
       </c>
       <c r="O20" t="s">
-        <v>201</v>
-      </c>
-      <c r="P20" s="45" t="s">
-        <v>212</v>
+        <v>200</v>
+      </c>
+      <c r="P20" s="29" t="s">
+        <v>211</v>
       </c>
       <c r="T20" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="21" spans="7:20" x14ac:dyDescent="0.25">
@@ -2194,10 +2206,10 @@
         <v>72</v>
       </c>
       <c r="O21" t="s">
-        <v>202</v>
-      </c>
-      <c r="P21" s="45" t="s">
-        <v>213</v>
+        <v>201</v>
+      </c>
+      <c r="P21" s="29" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="22" spans="7:20" x14ac:dyDescent="0.25">
@@ -2213,8 +2225,8 @@
       <c r="O22" t="s">
         <v>59</v>
       </c>
-      <c r="P22" s="45" t="s">
-        <v>215</v>
+      <c r="P22" s="29" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="23" spans="7:20" x14ac:dyDescent="0.25">
@@ -2222,21 +2234,21 @@
         <v>117</v>
       </c>
       <c r="O23" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="P23" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="24" spans="7:20" x14ac:dyDescent="0.25">
       <c r="L24" t="s">
         <v>108</v>
       </c>
-      <c r="O24" s="46" t="s">
-        <v>204</v>
-      </c>
-      <c r="P24" s="46" t="s">
-        <v>263</v>
+      <c r="O24" s="47" t="s">
+        <v>203</v>
+      </c>
+      <c r="P24" s="47" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="26" spans="7:20" x14ac:dyDescent="0.25">
@@ -2502,16 +2514,220 @@
       <c r="Q46" s="18"/>
       <c r="R46" s="20"/>
     </row>
+    <row r="52" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G52" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="54" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G54" t="s">
+        <v>67</v>
+      </c>
+      <c r="N54" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="55" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G55" t="s">
+        <v>62</v>
+      </c>
+      <c r="J55" t="s">
+        <v>63</v>
+      </c>
+      <c r="L55" t="s">
+        <v>69</v>
+      </c>
+      <c r="N55" t="s">
+        <v>199</v>
+      </c>
+      <c r="S55" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="56" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G56" t="s">
+        <v>6</v>
+      </c>
+      <c r="J56" t="s">
+        <v>61</v>
+      </c>
+      <c r="L56" t="s">
+        <v>68</v>
+      </c>
+      <c r="N56" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="57" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G57" t="s">
+        <v>7</v>
+      </c>
+      <c r="H57" t="s">
+        <v>29</v>
+      </c>
+      <c r="J57" t="s">
+        <v>65</v>
+      </c>
+      <c r="L57" t="s">
+        <v>27</v>
+      </c>
+      <c r="N57" t="s">
+        <v>57</v>
+      </c>
+      <c r="O57" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="S57" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="58" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G58" t="s">
+        <v>26</v>
+      </c>
+      <c r="J58" t="s">
+        <v>66</v>
+      </c>
+      <c r="L58" t="s">
+        <v>70</v>
+      </c>
+      <c r="N58" t="s">
+        <v>204</v>
+      </c>
+      <c r="O58" t="s">
+        <v>209</v>
+      </c>
+      <c r="S58" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="59" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="H59" t="s">
+        <v>33</v>
+      </c>
+      <c r="J59" t="s">
+        <v>73</v>
+      </c>
+      <c r="L59" t="s">
+        <v>71</v>
+      </c>
+      <c r="N59" t="s">
+        <v>205</v>
+      </c>
+      <c r="O59" t="s">
+        <v>207</v>
+      </c>
+      <c r="S59" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="60" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G60" t="s">
+        <v>20</v>
+      </c>
+      <c r="H60" t="s">
+        <v>23</v>
+      </c>
+      <c r="J60" t="s">
+        <v>115</v>
+      </c>
+      <c r="L60" t="s">
+        <v>72</v>
+      </c>
+      <c r="N60" t="s">
+        <v>206</v>
+      </c>
+      <c r="O60" t="s">
+        <v>208</v>
+      </c>
+      <c r="S60" s="47" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="61" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G61" t="s">
+        <v>21</v>
+      </c>
+      <c r="J61" t="s">
+        <v>116</v>
+      </c>
+      <c r="L61" t="s">
+        <v>74</v>
+      </c>
+      <c r="N61" t="s">
+        <v>50</v>
+      </c>
+      <c r="O61" s="29" t="s">
+        <v>210</v>
+      </c>
+      <c r="S61" s="47" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="62" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="L62" t="s">
+        <v>117</v>
+      </c>
+      <c r="N62" t="s">
+        <v>200</v>
+      </c>
+      <c r="O62" s="29" t="s">
+        <v>211</v>
+      </c>
+      <c r="S62" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="63" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="L63" t="s">
+        <v>108</v>
+      </c>
+      <c r="N63" t="s">
+        <v>201</v>
+      </c>
+      <c r="O63" s="29" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="64" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="N64" t="s">
+        <v>59</v>
+      </c>
+      <c r="O64" s="29" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="65" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G65" t="s">
+        <v>118</v>
+      </c>
+      <c r="H65" t="s">
+        <v>120</v>
+      </c>
+      <c r="N65" t="s">
+        <v>202</v>
+      </c>
+      <c r="O65" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="66" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G66" t="s">
+        <v>119</v>
+      </c>
+      <c r="H66" t="s">
+        <v>121</v>
+      </c>
+      <c r="N66" s="47" t="s">
+        <v>203</v>
+      </c>
+      <c r="O66" s="47" t="s">
+        <v>261</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="T3:U4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="S7:S8"/>
-    <mergeCell ref="R3:S4"/>
-    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="G13:H13"/>
     <mergeCell ref="O9:P9"/>
     <mergeCell ref="Q9:R9"/>
     <mergeCell ref="G4:G5"/>
@@ -2527,59 +2743,66 @@
     <mergeCell ref="L9:L12"/>
     <mergeCell ref="G10:G11"/>
     <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="T3:U4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="S7:S8"/>
+    <mergeCell ref="R3:S4"/>
+    <mergeCell ref="N3:Q3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="G4" r:id="rId1" tooltip="Bilabial consonant" display="https://en.wikipedia.org/wiki/Bilabial_consonant"/>
-    <hyperlink ref="H4" r:id="rId2" tooltip="Labiodental consonant" display="https://en.wikipedia.org/wiki/Labiodental_consonant"/>
-    <hyperlink ref="H5" r:id="rId3" tooltip="Labiodental consonant" display="https://en.wikipedia.org/wiki/Labiodental_consonant"/>
-    <hyperlink ref="I4" r:id="rId4" tooltip="Dental consonant" display="https://en.wikipedia.org/wiki/Dental_consonant"/>
-    <hyperlink ref="J4" r:id="rId5" tooltip="Retroflex consonant" display="https://en.wikipedia.org/wiki/Retroflex_consonant"/>
-    <hyperlink ref="J5" r:id="rId6" tooltip="Alveolar consonant" display="https://en.wikipedia.org/wiki/Alveolar_consonant"/>
-    <hyperlink ref="K4" r:id="rId7" tooltip="Palatal consonant" display="https://en.wikipedia.org/wiki/Palatal_consonant"/>
-    <hyperlink ref="L4" r:id="rId8" tooltip="Velar consonant" display="https://en.wikipedia.org/wiki/Velar_consonant"/>
-    <hyperlink ref="G6" r:id="rId9" tooltip="Nasal consonant" display="https://en.wikipedia.org/wiki/Nasal_consonant"/>
-    <hyperlink ref="I6" r:id="rId10" tooltip="Bilabial nasal" display="https://en.wikipedia.org/wiki/Bilabial_nasal"/>
-    <hyperlink ref="K6" r:id="rId11" location="Dental_or_denti-alveolar" tooltip="Dental, alveolar and postalveolar nasals" display="Dental_or_denti-alveolar"/>
-    <hyperlink ref="G7" r:id="rId12" tooltip="Stop consonant" display="https://en.wikipedia.org/wiki/Stop_consonant"/>
-    <hyperlink ref="H7" r:id="rId13" tooltip="Voicelessness" display="https://en.wikipedia.org/wiki/Voicelessness"/>
-    <hyperlink ref="I7" r:id="rId14" tooltip="Voiceless bilabial stop" display="https://en.wikipedia.org/wiki/Voiceless_bilabial_stop"/>
-    <hyperlink ref="K7" r:id="rId15" location="Dental_or_denti-alveolar" tooltip="Voiceless dental and alveolar stops" display="https://en.wikipedia.org/wiki/Voiceless_dental_and_alveolar_stops - Dental_or_denti-alveolar"/>
-    <hyperlink ref="H8" r:id="rId16" tooltip="Voice (phonetics)" display="https://en.wikipedia.org/wiki/Voice_(phonetics)"/>
-    <hyperlink ref="I8" r:id="rId17" tooltip="Voiced bilabial stop" display="https://en.wikipedia.org/wiki/Voiced_bilabial_stop"/>
-    <hyperlink ref="K8" r:id="rId18" location="Dental_or_denti-alveolar" tooltip="Voiced dental and alveolar stops" display="https://en.wikipedia.org/wiki/Voiced_dental_and_alveolar_stops - Dental_or_denti-alveolar"/>
-    <hyperlink ref="G9" r:id="rId19" tooltip="Approximant consonant" display="https://en.wikipedia.org/wiki/Approximant_consonant"/>
-    <hyperlink ref="J9" r:id="rId20" tooltip="Voiced labiodental fricative" display="https://en.wikipedia.org/wiki/Voiced_labiodental_fricative"/>
-    <hyperlink ref="G10" r:id="rId21" tooltip="Fricative consonant" display="https://en.wikipedia.org/wiki/Fricative_consonant"/>
-    <hyperlink ref="H10" r:id="rId22" tooltip="Voice (phonetics)" display="https://en.wikipedia.org/wiki/Voice_(phonetics)"/>
-    <hyperlink ref="H11" r:id="rId23" tooltip="Voicelessness" display="https://en.wikipedia.org/wiki/Voicelessness"/>
-    <hyperlink ref="J11" r:id="rId24" tooltip="Voiceless labiodental fricative" display="https://en.wikipedia.org/wiki/Voiceless_labiodental_fricative"/>
-    <hyperlink ref="K11" r:id="rId25" location="Voiceless_dental_sibilant" tooltip="Voiceless alveolar fricative" display="https://en.wikipedia.org/wiki/Voiceless_alveolar_fricative - Voiceless_dental_sibilant"/>
-    <hyperlink ref="G12" r:id="rId26" tooltip="Trill consonant" display="https://en.wikipedia.org/wiki/Trill_consonant"/>
-    <hyperlink ref="G13" r:id="rId27" tooltip="Lateral consonant" display="https://en.wikipedia.org/wiki/Lateral_consonant"/>
-    <hyperlink ref="K13" r:id="rId28" location="Dental_or_denti-alveolar" tooltip="Dental, alveolar and postalveolar lateral approximants" display="https://en.wikipedia.org/wiki/Dental,_alveolar_and_postalveolar_lateral_approximants - Dental_or_denti-alveolar"/>
-    <hyperlink ref="N3" r:id="rId29" tooltip="Front vowel" display="https://en.wikipedia.org/wiki/Front_vowel"/>
-    <hyperlink ref="R3" r:id="rId30" tooltip="Central vowel" display="https://en.wikipedia.org/wiki/Central_vowel"/>
-    <hyperlink ref="T3" r:id="rId31" tooltip="Back vowel" display="https://en.wikipedia.org/wiki/Back_vowel"/>
-    <hyperlink ref="N4" r:id="rId32" tooltip="Roundedness" display="https://en.wikipedia.org/wiki/Roundedness"/>
-    <hyperlink ref="P4" r:id="rId33" tooltip="Roundedness" display="https://en.wikipedia.org/wiki/Roundedness"/>
-    <hyperlink ref="N5" r:id="rId34" tooltip="Short vowel" display="https://en.wikipedia.org/wiki/Short_vowel"/>
-    <hyperlink ref="O5" r:id="rId35" tooltip="Long vowel" display="https://en.wikipedia.org/wiki/Long_vowel"/>
-    <hyperlink ref="N6" r:id="rId36" tooltip="Close vowel" display="https://en.wikipedia.org/wiki/Close_vowel"/>
-    <hyperlink ref="N7" r:id="rId37" tooltip="Close-mid vowel" display="https://en.wikipedia.org/wiki/Close-mid_vowel"/>
-    <hyperlink ref="N8" r:id="rId38" tooltip="Open-mid vowel" display="https://en.wikipedia.org/wiki/Open-mid_vowel"/>
-    <hyperlink ref="N9" r:id="rId39" tooltip="Open vowel" display="https://en.wikipedia.org/wiki/Open_vowel"/>
+    <hyperlink ref="G4" r:id="rId1" tooltip="Bilabial consonant" display="https://en.wikipedia.org/wiki/Bilabial_consonant" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="H4" r:id="rId2" tooltip="Labiodental consonant" display="https://en.wikipedia.org/wiki/Labiodental_consonant" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="H5" r:id="rId3" tooltip="Labiodental consonant" display="https://en.wikipedia.org/wiki/Labiodental_consonant" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="I4" r:id="rId4" tooltip="Dental consonant" display="https://en.wikipedia.org/wiki/Dental_consonant" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="J4" r:id="rId5" tooltip="Retroflex consonant" display="https://en.wikipedia.org/wiki/Retroflex_consonant" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="J5" r:id="rId6" tooltip="Alveolar consonant" display="https://en.wikipedia.org/wiki/Alveolar_consonant" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="K4" r:id="rId7" tooltip="Palatal consonant" display="https://en.wikipedia.org/wiki/Palatal_consonant" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="L4" r:id="rId8" tooltip="Velar consonant" display="https://en.wikipedia.org/wiki/Velar_consonant" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="G6" r:id="rId9" tooltip="Nasal consonant" display="https://en.wikipedia.org/wiki/Nasal_consonant" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="I6" r:id="rId10" tooltip="Bilabial nasal" display="https://en.wikipedia.org/wiki/Bilabial_nasal" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="K6" r:id="rId11" location="Dental_or_denti-alveolar" tooltip="Dental, alveolar and postalveolar nasals" display="Dental_or_denti-alveolar" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="G7" r:id="rId12" tooltip="Stop consonant" display="https://en.wikipedia.org/wiki/Stop_consonant" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="H7" r:id="rId13" tooltip="Voicelessness" display="https://en.wikipedia.org/wiki/Voicelessness" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="I7" r:id="rId14" tooltip="Voiceless bilabial stop" display="https://en.wikipedia.org/wiki/Voiceless_bilabial_stop" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="K7" r:id="rId15" location="Dental_or_denti-alveolar" tooltip="Voiceless dental and alveolar stops" display="https://en.wikipedia.org/wiki/Voiceless_dental_and_alveolar_stops - Dental_or_denti-alveolar" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="H8" r:id="rId16" tooltip="Voice (phonetics)" display="https://en.wikipedia.org/wiki/Voice_(phonetics)" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="I8" r:id="rId17" tooltip="Voiced bilabial stop" display="https://en.wikipedia.org/wiki/Voiced_bilabial_stop" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="K8" r:id="rId18" location="Dental_or_denti-alveolar" tooltip="Voiced dental and alveolar stops" display="https://en.wikipedia.org/wiki/Voiced_dental_and_alveolar_stops - Dental_or_denti-alveolar" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="G9" r:id="rId19" tooltip="Approximant consonant" display="https://en.wikipedia.org/wiki/Approximant_consonant" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
+    <hyperlink ref="J9" r:id="rId20" tooltip="Voiced labiodental fricative" display="https://en.wikipedia.org/wiki/Voiced_labiodental_fricative" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
+    <hyperlink ref="G10" r:id="rId21" tooltip="Fricative consonant" display="https://en.wikipedia.org/wiki/Fricative_consonant" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
+    <hyperlink ref="H10" r:id="rId22" tooltip="Voice (phonetics)" display="https://en.wikipedia.org/wiki/Voice_(phonetics)" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
+    <hyperlink ref="H11" r:id="rId23" tooltip="Voicelessness" display="https://en.wikipedia.org/wiki/Voicelessness" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
+    <hyperlink ref="J11" r:id="rId24" tooltip="Voiceless labiodental fricative" display="https://en.wikipedia.org/wiki/Voiceless_labiodental_fricative" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
+    <hyperlink ref="K11" r:id="rId25" location="Voiceless_dental_sibilant" tooltip="Voiceless alveolar fricative" display="https://en.wikipedia.org/wiki/Voiceless_alveolar_fricative - Voiceless_dental_sibilant" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
+    <hyperlink ref="G12" r:id="rId26" tooltip="Trill consonant" display="https://en.wikipedia.org/wiki/Trill_consonant" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
+    <hyperlink ref="G13" r:id="rId27" tooltip="Lateral consonant" display="https://en.wikipedia.org/wiki/Lateral_consonant" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
+    <hyperlink ref="K13" r:id="rId28" location="Dental_or_denti-alveolar" tooltip="Dental, alveolar and postalveolar lateral approximants" display="https://en.wikipedia.org/wiki/Dental,_alveolar_and_postalveolar_lateral_approximants - Dental_or_denti-alveolar" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
+    <hyperlink ref="N3" r:id="rId29" tooltip="Front vowel" display="https://en.wikipedia.org/wiki/Front_vowel" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
+    <hyperlink ref="R3" r:id="rId30" tooltip="Central vowel" display="https://en.wikipedia.org/wiki/Central_vowel" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
+    <hyperlink ref="T3" r:id="rId31" tooltip="Back vowel" display="https://en.wikipedia.org/wiki/Back_vowel" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
+    <hyperlink ref="N4" r:id="rId32" tooltip="Roundedness" display="https://en.wikipedia.org/wiki/Roundedness" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
+    <hyperlink ref="P4" r:id="rId33" tooltip="Roundedness" display="https://en.wikipedia.org/wiki/Roundedness" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
+    <hyperlink ref="N5" r:id="rId34" tooltip="Short vowel" display="https://en.wikipedia.org/wiki/Short_vowel" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
+    <hyperlink ref="O5" r:id="rId35" tooltip="Long vowel" display="https://en.wikipedia.org/wiki/Long_vowel" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
+    <hyperlink ref="N6" r:id="rId36" tooltip="Close vowel" display="https://en.wikipedia.org/wiki/Close_vowel" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
+    <hyperlink ref="N7" r:id="rId37" tooltip="Close-mid vowel" display="https://en.wikipedia.org/wiki/Close-mid_vowel" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
+    <hyperlink ref="N8" r:id="rId38" tooltip="Open-mid vowel" display="https://en.wikipedia.org/wiki/Open-mid_vowel" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
+    <hyperlink ref="N9" r:id="rId39" tooltip="Open vowel" display="https://en.wikipedia.org/wiki/Open_vowel" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:R72"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="B1:R81"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="G60" sqref="G60"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I81" sqref="I81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2608,7 +2831,7 @@
         <v>123</v>
       </c>
       <c r="P9" s="22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
@@ -2649,14 +2872,14 @@
         <v>128</v>
       </c>
       <c r="N11" s="22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O11" s="24"/>
       <c r="P11" s="22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="R11" s="22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
@@ -2683,7 +2906,7 @@
         <v>129</v>
       </c>
       <c r="O13" s="22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P13" s="22" t="s">
         <v>127</v>
@@ -2700,7 +2923,7 @@
       </c>
       <c r="J14" s="25"/>
       <c r="K14" s="25" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
@@ -2721,123 +2944,219 @@
       <c r="J16" s="25"/>
       <c r="K16" s="25"/>
       <c r="P16" s="22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="3:11" x14ac:dyDescent="0.25">
       <c r="G17" s="25"/>
       <c r="H17" s="25"/>
       <c r="I17" s="25" t="s">
-        <v>134</v>
+        <v>265</v>
       </c>
       <c r="J17" s="25"/>
       <c r="K17" s="25"/>
     </row>
     <row r="22" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="3:11" x14ac:dyDescent="0.25">
       <c r="G23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="3:11" x14ac:dyDescent="0.25">
       <c r="G24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25" spans="3:11" x14ac:dyDescent="0.25">
       <c r="G25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="26" spans="3:11" x14ac:dyDescent="0.25">
       <c r="G26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="27" spans="3:11" x14ac:dyDescent="0.25">
       <c r="G27" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="34" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C34" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D34" s="44"/>
+        <v>193</v>
+      </c>
+      <c r="D34" s="28"/>
     </row>
     <row r="38" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E38" t="s">
-        <v>132</v>
+        <v>263</v>
       </c>
     </row>
     <row r="39" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E39" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="40" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E40" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="41" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D41" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E41" t="s">
-        <v>218</v>
+        <v>264</v>
       </c>
     </row>
     <row r="42" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
-        <v>221</v>
+        <v>262</v>
       </c>
       <c r="E42" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="59" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="G59" s="44"/>
-    </row>
-    <row r="60" spans="4:7" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="59" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="G59" s="48"/>
+    </row>
+    <row r="60" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D60" t="s">
+        <v>135</v>
+      </c>
+      <c r="H60" t="s">
+        <v>6</v>
+      </c>
+      <c r="I60" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="61" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="H61" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="H62" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="63" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D63" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="63" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D63" t="s">
+      <c r="H63" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="H64" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="65" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="H65" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="66" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D66" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D66" t="s">
+      <c r="H66" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="67" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="H67" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="68" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="H68" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="69" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D69" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="69" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D69" t="s">
+      <c r="H69" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="70" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="H70" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="72" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D72" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="72" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D72" t="s">
-        <v>140</v>
+      <c r="H72" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="74" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="H74" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="75" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="H75" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="76" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="H76" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="77" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="H77" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="78" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="H78" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="79" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="H79" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="80" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="H80" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="81" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H81" t="s">
+        <v>108</v>
+      </c>
+      <c r="I81" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -2847,7 +3166,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="D5:Q84"/>
   <sheetViews>
     <sheetView topLeftCell="A32" workbookViewId="0">
@@ -2861,438 +3180,438 @@
   <sheetData>
     <row r="5" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
+        <v>172</v>
+      </c>
+      <c r="F10" t="s">
         <v>173</v>
-      </c>
-      <c r="F10" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="11" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19" spans="4:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D19" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D23" s="27"/>
       <c r="F23" s="27"/>
       <c r="K23" s="26" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="M23" s="26" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="Q23" s="26" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="24" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
-        <v>148</v>
-      </c>
-      <c r="G24" s="46" t="s">
-        <v>247</v>
+        <v>147</v>
+      </c>
+      <c r="G24" s="30" t="s">
+        <v>244</v>
       </c>
       <c r="K24" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M24" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="Q24" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="25" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
-        <v>150</v>
-      </c>
-      <c r="G25" s="46" t="s">
-        <v>245</v>
+        <v>149</v>
+      </c>
+      <c r="G25" s="30" t="s">
+        <v>242</v>
       </c>
       <c r="K25" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M25" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="Q25" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="26" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
-        <v>151</v>
-      </c>
-      <c r="G26" s="46" t="s">
-        <v>246</v>
+        <v>150</v>
+      </c>
+      <c r="G26" s="30" t="s">
+        <v>243</v>
       </c>
       <c r="K26" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M26" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="Q26" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="27" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
-        <v>182</v>
-      </c>
-      <c r="G27" s="46" t="s">
+        <v>181</v>
+      </c>
+      <c r="G27" s="30" t="s">
+        <v>245</v>
+      </c>
+      <c r="K27" t="s">
+        <v>181</v>
+      </c>
+      <c r="M27" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q27" t="s">
         <v>248</v>
-      </c>
-      <c r="K27" t="s">
-        <v>182</v>
-      </c>
-      <c r="M27" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="28" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
-        <v>149</v>
-      </c>
-      <c r="G28" s="46" t="s">
-        <v>249</v>
+        <v>148</v>
+      </c>
+      <c r="G28" s="30" t="s">
+        <v>246</v>
       </c>
       <c r="K28" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M28" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="Q28" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="29" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
-        <v>183</v>
-      </c>
-      <c r="G29" s="46" t="s">
-        <v>258</v>
+        <v>182</v>
+      </c>
+      <c r="G29" s="30" t="s">
+        <v>255</v>
       </c>
       <c r="K29" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M29" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="Q29" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="30" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K30" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M30" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="Q30" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="31" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K31" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M31" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="32" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K32" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M32" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="Q32" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="37" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E37" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="38" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E38" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="39" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="51" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D51" s="27"/>
       <c r="F51" s="26" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="52" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D52" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F52" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="53" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D53" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F53" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="54" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D54" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F54" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="55" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D55" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F55" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="56" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D56" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F56" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="57" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D57" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="58" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D58" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="59" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D59" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="60" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D60" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F60" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="63" spans="4:8" x14ac:dyDescent="0.25">
       <c r="F63" s="26" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="64" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D64" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F64" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H64" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="65" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D65" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F65" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H65" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="66" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D66" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F66" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="67" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D67" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="68" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D68" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F68" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H68" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="69" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D69" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="70" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D70" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="71" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D71" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="72" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D72" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="75" spans="4:8" x14ac:dyDescent="0.25">
       <c r="F75" s="26" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="76" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D76" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F76" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="77" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D77" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="78" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D78" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="79" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D79" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="80" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D80" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="81" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D81" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="82" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D82" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="83" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D83" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="84" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D84" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -3302,7 +3621,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="D6:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3316,7 +3635,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="7" spans="4:5" x14ac:dyDescent="0.25">
@@ -3324,7 +3643,7 @@
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -3333,7 +3652,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3345,7 +3664,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3359,7 +3678,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="D7:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3370,18 +3689,18 @@
   <sheetData>
     <row r="7" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -3390,7 +3709,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Aia/Lang/Derotic/Derotic.xlsx
+++ b/Aia/Lang/Derotic/Derotic.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D0858D4-9FB5-4421-B763-1DD76811384B}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9AA0CE9-538C-4976-832B-A175F9504156}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="META" sheetId="8" r:id="rId1"/>
@@ -13,10 +13,11 @@
     <sheet name="Phonotactics" sheetId="9" r:id="rId3"/>
     <sheet name="Nouns" sheetId="1" r:id="rId4"/>
     <sheet name="Verbs" sheetId="2" r:id="rId5"/>
-    <sheet name="Adjectives" sheetId="3" r:id="rId6"/>
-    <sheet name="Adverbs" sheetId="4" r:id="rId7"/>
-    <sheet name="Pronouns" sheetId="5" r:id="rId8"/>
-    <sheet name="Prepositions" sheetId="6" r:id="rId9"/>
+    <sheet name="Correlative" sheetId="10" r:id="rId6"/>
+    <sheet name="Adjectives" sheetId="3" r:id="rId7"/>
+    <sheet name="Adverbs" sheetId="4" r:id="rId8"/>
+    <sheet name="Pronouns" sheetId="5" r:id="rId9"/>
+    <sheet name="Prepositions" sheetId="6" r:id="rId10"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="289">
   <si>
     <t>1.Sounds</t>
   </si>
@@ -985,12 +986,81 @@
   <si>
     <t>/n/ + /m/</t>
   </si>
+  <si>
+    <t>Correlative words</t>
+  </si>
+  <si>
+    <t>INDEFINITE</t>
+  </si>
+  <si>
+    <t>DEFFINITE</t>
+  </si>
+  <si>
+    <t>QUESTIONEING/RELATIVE</t>
+  </si>
+  <si>
+    <t>INCLUSIVE</t>
+  </si>
+  <si>
+    <t>NEGATIVE</t>
+  </si>
+  <si>
+    <t>QUALITY</t>
+  </si>
+  <si>
+    <t>MOTIVE</t>
+  </si>
+  <si>
+    <t>TIME</t>
+  </si>
+  <si>
+    <t>PLACE</t>
+  </si>
+  <si>
+    <t>MANNER</t>
+  </si>
+  <si>
+    <t>POSSESSION</t>
+  </si>
+  <si>
+    <t>THING</t>
+  </si>
+  <si>
+    <t>QUANTITY</t>
+  </si>
+  <si>
+    <t>INDIVIDUALITY</t>
+  </si>
+  <si>
+    <t>Some/any</t>
+  </si>
+  <si>
+    <t>What/Which</t>
+  </si>
+  <si>
+    <t>http://aea.esperanto.org.au/ftp-uploads/esperanto-pocket-textbook-20160205.pdf</t>
+  </si>
+  <si>
+    <t>That</t>
+  </si>
+  <si>
+    <t>Each/every/all</t>
+  </si>
+  <si>
+    <t>No/none</t>
+  </si>
+  <si>
+    <t>Kind of</t>
+  </si>
+  <si>
+    <t>Reason/purpose</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1099,6 +1169,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1132,7 +1210,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -1317,12 +1395,252 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1390,31 +1708,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1435,11 +1734,54 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlänk" xfId="1" builtinId="8"/>
@@ -1759,6 +2101,18 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="G1:V66"/>
@@ -1782,66 +2136,66 @@
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
       <c r="L3" s="9"/>
-      <c r="N3" s="35" t="s">
+      <c r="N3" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="36"/>
-      <c r="R3" s="31" t="s">
+      <c r="O3" s="48"/>
+      <c r="P3" s="48"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="S3" s="32"/>
-      <c r="T3" s="31" t="s">
+      <c r="S3" s="45"/>
+      <c r="T3" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="U3" s="32"/>
+      <c r="U3" s="45"/>
       <c r="V3" s="9"/>
     </row>
     <row r="4" spans="7:22" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G4" s="42" t="s">
+      <c r="G4" s="37" t="s">
         <v>9</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="42" t="s">
+      <c r="I4" s="37" t="s">
         <v>12</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="42" t="s">
+      <c r="K4" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="42" t="s">
+      <c r="L4" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="N4" s="35" t="s">
+      <c r="N4" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="O4" s="36"/>
-      <c r="P4" s="35" t="s">
+      <c r="O4" s="34"/>
+      <c r="P4" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="33"/>
-      <c r="S4" s="34"/>
-      <c r="T4" s="33"/>
-      <c r="U4" s="34"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="46"/>
+      <c r="S4" s="47"/>
+      <c r="T4" s="46"/>
+      <c r="U4" s="47"/>
       <c r="V4" s="11"/>
     </row>
     <row r="5" spans="7:22" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G5" s="43"/>
+      <c r="G5" s="38"/>
       <c r="H5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="43"/>
+      <c r="I5" s="38"/>
       <c r="J5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
       <c r="N5" s="6" t="s">
         <v>39</v>
       </c>
@@ -1869,10 +2223,10 @@
       <c r="V5" s="11"/>
     </row>
     <row r="6" spans="7:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G6" s="35" t="s">
+      <c r="G6" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="36"/>
+      <c r="H6" s="34"/>
       <c r="I6" s="2" t="s">
         <v>6</v>
       </c>
@@ -1908,7 +2262,7 @@
       </c>
     </row>
     <row r="7" spans="7:22" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G7" s="42" t="s">
+      <c r="G7" s="37" t="s">
         <v>18</v>
       </c>
       <c r="H7" s="6" t="s">
@@ -1925,19 +2279,19 @@
       <c r="N7" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="O7" s="37" t="s">
+      <c r="O7" s="41" t="s">
         <v>50</v>
       </c>
       <c r="P7" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="Q7" s="37" t="s">
+      <c r="Q7" s="41" t="s">
         <v>52</v>
       </c>
       <c r="R7" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="S7" s="37" t="s">
+      <c r="S7" s="41" t="s">
         <v>54</v>
       </c>
       <c r="T7" s="3"/>
@@ -1947,28 +2301,28 @@
       </c>
     </row>
     <row r="8" spans="7:22" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G8" s="43"/>
+      <c r="G8" s="38"/>
       <c r="H8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I8" s="44" t="s">
+      <c r="I8" s="39" t="s">
         <v>23</v>
       </c>
       <c r="J8" s="3"/>
-      <c r="K8" s="44" t="s">
+      <c r="K8" s="39" t="s">
         <v>24</v>
       </c>
       <c r="L8" s="3"/>
       <c r="N8" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="O8" s="38"/>
+      <c r="O8" s="43"/>
       <c r="P8" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="Q8" s="38"/>
+      <c r="Q8" s="43"/>
       <c r="R8" s="3"/>
-      <c r="S8" s="38"/>
+      <c r="S8" s="43"/>
       <c r="T8" s="3"/>
       <c r="U8" s="3" t="s">
         <v>57</v>
@@ -1976,25 +2330,25 @@
       <c r="V8" s="3"/>
     </row>
     <row r="9" spans="7:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G9" s="35" t="s">
+      <c r="G9" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="H9" s="36"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="44" t="s">
+      <c r="H9" s="34"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="K9" s="45"/>
-      <c r="L9" s="37" t="s">
+      <c r="K9" s="40"/>
+      <c r="L9" s="41" t="s">
         <v>27</v>
       </c>
       <c r="N9" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="O9" s="40"/>
-      <c r="P9" s="41"/>
-      <c r="Q9" s="40"/>
-      <c r="R9" s="41"/>
+      <c r="O9" s="35"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="35"/>
+      <c r="R9" s="36"/>
       <c r="S9" s="3" t="s">
         <v>59</v>
       </c>
@@ -2005,19 +2359,19 @@
       </c>
     </row>
     <row r="10" spans="7:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G10" s="42" t="s">
+      <c r="G10" s="37" t="s">
         <v>28</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>22</v>
       </c>
       <c r="I10" s="3"/>
-      <c r="J10" s="45"/>
+      <c r="J10" s="40"/>
       <c r="K10" s="3"/>
-      <c r="L10" s="46"/>
+      <c r="L10" s="42"/>
     </row>
     <row r="11" spans="7:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G11" s="43"/>
+      <c r="G11" s="38"/>
       <c r="H11" s="6" t="s">
         <v>19</v>
       </c>
@@ -2028,26 +2382,26 @@
       <c r="K11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L11" s="46"/>
+      <c r="L11" s="42"/>
     </row>
     <row r="12" spans="7:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G12" s="35" t="s">
+      <c r="G12" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="H12" s="36"/>
+      <c r="H12" s="34"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
-      <c r="L12" s="38"/>
+      <c r="L12" s="43"/>
       <c r="O12" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="13" spans="7:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G13" s="35" t="s">
+      <c r="G13" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="H13" s="36"/>
+      <c r="H13" s="34"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="2" t="s">
@@ -2142,7 +2496,7 @@
       <c r="P18" t="s">
         <v>208</v>
       </c>
-      <c r="T18" s="47" t="s">
+      <c r="T18" s="31" t="s">
         <v>223</v>
       </c>
     </row>
@@ -2165,7 +2519,7 @@
       <c r="P19" s="29" t="s">
         <v>210</v>
       </c>
-      <c r="T19" s="47" t="s">
+      <c r="T19" s="31" t="s">
         <v>224</v>
       </c>
     </row>
@@ -2244,10 +2598,10 @@
       <c r="L24" t="s">
         <v>108</v>
       </c>
-      <c r="O24" s="47" t="s">
+      <c r="O24" s="31" t="s">
         <v>203</v>
       </c>
-      <c r="P24" s="47" t="s">
+      <c r="P24" s="31" t="s">
         <v>261</v>
       </c>
     </row>
@@ -2640,7 +2994,7 @@
       <c r="O60" t="s">
         <v>208</v>
       </c>
-      <c r="S60" s="47" t="s">
+      <c r="S60" s="31" t="s">
         <v>223</v>
       </c>
     </row>
@@ -2660,7 +3014,7 @@
       <c r="O61" s="29" t="s">
         <v>210</v>
       </c>
-      <c r="S61" s="47" t="s">
+      <c r="S61" s="31" t="s">
         <v>224</v>
       </c>
     </row>
@@ -2718,15 +3072,23 @@
       <c r="H66" t="s">
         <v>121</v>
       </c>
-      <c r="N66" s="47" t="s">
+      <c r="N66" s="31" t="s">
         <v>203</v>
       </c>
-      <c r="O66" s="47" t="s">
+      <c r="O66" s="31" t="s">
         <v>261</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="T3:U4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="S7:S8"/>
+    <mergeCell ref="R3:S4"/>
+    <mergeCell ref="N3:Q3"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="O9:P9"/>
     <mergeCell ref="Q9:R9"/>
@@ -2743,14 +3105,6 @@
     <mergeCell ref="L9:L12"/>
     <mergeCell ref="G10:G11"/>
     <mergeCell ref="G12:H12"/>
-    <mergeCell ref="T3:U4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="S7:S8"/>
-    <mergeCell ref="R3:S4"/>
-    <mergeCell ref="N3:Q3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G4" r:id="rId1" tooltip="Bilabial consonant" display="https://en.wikipedia.org/wiki/Bilabial_consonant" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
@@ -2801,8 +3155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:R81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I81" sqref="I81"/>
+    <sheetView topLeftCell="A51" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N74" sqref="N74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3036,7 +3390,7 @@
       </c>
     </row>
     <row r="59" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="G59" s="48"/>
+      <c r="G59" s="32"/>
     </row>
     <row r="60" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D60" t="s">
@@ -3169,8 +3523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="D5:Q84"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="G63" sqref="G63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3652,6 +4006,233 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{932B0660-2246-4D4C-9BE4-CA313175CC43}">
+  <dimension ref="B5:O27"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="5" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="6" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="16" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
+        <v>281</v>
+      </c>
+      <c r="H16" t="s">
+        <v>282</v>
+      </c>
+      <c r="J16" t="s">
+        <v>284</v>
+      </c>
+      <c r="L16" t="s">
+        <v>285</v>
+      </c>
+      <c r="N16" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="F17" s="55" t="s">
+        <v>267</v>
+      </c>
+      <c r="G17" s="56"/>
+      <c r="H17" s="55" t="s">
+        <v>269</v>
+      </c>
+      <c r="I17" s="56"/>
+      <c r="J17" s="55" t="s">
+        <v>268</v>
+      </c>
+      <c r="K17" s="56"/>
+      <c r="L17" s="55" t="s">
+        <v>270</v>
+      </c>
+      <c r="M17" s="56"/>
+      <c r="N17" s="55" t="s">
+        <v>271</v>
+      </c>
+      <c r="O17" s="56"/>
+    </row>
+    <row r="18" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F18" s="51"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="52"/>
+      <c r="N18" s="60"/>
+      <c r="O18" s="52"/>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>287</v>
+      </c>
+      <c r="D19" s="53" t="s">
+        <v>272</v>
+      </c>
+      <c r="E19" s="58"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="62"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="63"/>
+      <c r="N19" s="64"/>
+      <c r="O19" s="65"/>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>288</v>
+      </c>
+      <c r="D20" s="53" t="s">
+        <v>273</v>
+      </c>
+      <c r="E20" s="58"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="57"/>
+      <c r="M20" s="57"/>
+      <c r="N20" s="49"/>
+      <c r="O20" s="67"/>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D21" s="53" t="s">
+        <v>274</v>
+      </c>
+      <c r="E21" s="58"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="57"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="57"/>
+      <c r="M21" s="57"/>
+      <c r="N21" s="49"/>
+      <c r="O21" s="67"/>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D22" s="53" t="s">
+        <v>275</v>
+      </c>
+      <c r="E22" s="58"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="57"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="57"/>
+      <c r="M22" s="57"/>
+      <c r="N22" s="49"/>
+      <c r="O22" s="67"/>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D23" s="53" t="s">
+        <v>276</v>
+      </c>
+      <c r="E23" s="58"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="57"/>
+      <c r="K23" s="50"/>
+      <c r="L23" s="57"/>
+      <c r="M23" s="57"/>
+      <c r="N23" s="49"/>
+      <c r="O23" s="67"/>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D24" s="53" t="s">
+        <v>277</v>
+      </c>
+      <c r="E24" s="58"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="50"/>
+      <c r="J24" s="57"/>
+      <c r="K24" s="50"/>
+      <c r="L24" s="57"/>
+      <c r="M24" s="57"/>
+      <c r="N24" s="49"/>
+      <c r="O24" s="67"/>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D25" s="53" t="s">
+        <v>278</v>
+      </c>
+      <c r="E25" s="58"/>
+      <c r="F25" s="66"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="57"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="57"/>
+      <c r="M25" s="57"/>
+      <c r="N25" s="49"/>
+      <c r="O25" s="67"/>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D26" s="53" t="s">
+        <v>279</v>
+      </c>
+      <c r="E26" s="58"/>
+      <c r="F26" s="66"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="57"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="57"/>
+      <c r="K26" s="50"/>
+      <c r="L26" s="57"/>
+      <c r="M26" s="57"/>
+      <c r="N26" s="49"/>
+      <c r="O26" s="67"/>
+    </row>
+    <row r="27" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D27" s="54" t="s">
+        <v>280</v>
+      </c>
+      <c r="E27" s="59"/>
+      <c r="F27" s="68"/>
+      <c r="G27" s="69"/>
+      <c r="H27" s="70"/>
+      <c r="I27" s="69"/>
+      <c r="J27" s="70"/>
+      <c r="K27" s="69"/>
+      <c r="L27" s="70"/>
+      <c r="M27" s="70"/>
+      <c r="N27" s="71"/>
+      <c r="O27" s="72"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -3663,7 +4244,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -3677,7 +4258,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="D7:E8"/>
   <sheetViews>
@@ -3706,16 +4287,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Aia/Lang/Derotic/Derotic.xlsx
+++ b/Aia/Lang/Derotic/Derotic.xlsx
@@ -3,23 +3,24 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9AA0CE9-538C-4976-832B-A175F9504156}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FAD059D-317A-477F-9325-A7151CE77CAA}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="META" sheetId="8" r:id="rId1"/>
     <sheet name="Sounds" sheetId="7" r:id="rId2"/>
     <sheet name="Phonotactics" sheetId="9" r:id="rId3"/>
-    <sheet name="Nouns" sheetId="1" r:id="rId4"/>
-    <sheet name="Verbs" sheetId="2" r:id="rId5"/>
-    <sheet name="Correlative" sheetId="10" r:id="rId6"/>
-    <sheet name="Adjectives" sheetId="3" r:id="rId7"/>
-    <sheet name="Adverbs" sheetId="4" r:id="rId8"/>
-    <sheet name="Pronouns" sheetId="5" r:id="rId9"/>
-    <sheet name="Prepositions" sheetId="6" r:id="rId10"/>
+    <sheet name="Orthography" sheetId="11" r:id="rId4"/>
+    <sheet name="Nouns" sheetId="1" r:id="rId5"/>
+    <sheet name="Verbs" sheetId="2" r:id="rId6"/>
+    <sheet name="Correlative" sheetId="10" r:id="rId7"/>
+    <sheet name="Adjectives" sheetId="3" r:id="rId8"/>
+    <sheet name="Adverbs" sheetId="4" r:id="rId9"/>
+    <sheet name="Pronouns" sheetId="5" r:id="rId10"/>
+    <sheet name="Prepositions" sheetId="6" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="354">
   <si>
     <t>1.Sounds</t>
   </si>
@@ -502,21 +503,12 @@
     <t>Jag</t>
   </si>
   <si>
-    <t>ra</t>
-  </si>
-  <si>
     <t>he, she, it</t>
   </si>
   <si>
     <t>θe</t>
   </si>
   <si>
-    <t>nam</t>
-  </si>
-  <si>
-    <t>namit</t>
-  </si>
-  <si>
     <t>namr</t>
   </si>
   <si>
@@ -574,12 +566,6 @@
     <t>disifix</t>
   </si>
   <si>
-    <t>nama</t>
-  </si>
-  <si>
-    <t>rʀrr</t>
-  </si>
-  <si>
     <t>rʀrit</t>
   </si>
   <si>
@@ -602,9 +588,6 @@
   </si>
   <si>
     <t>Ghost</t>
-  </si>
-  <si>
-    <t>namɻ</t>
   </si>
   <si>
     <t>LEXICON</t>
@@ -849,9 +832,6 @@
     <t>øy</t>
   </si>
   <si>
-    <t>run</t>
-  </si>
-  <si>
     <t>røyr</t>
   </si>
   <si>
@@ -915,15 +895,9 @@
     <t>suffix - /it/</t>
   </si>
   <si>
-    <t>suffix - /ɻ/</t>
-  </si>
-  <si>
     <t>suffix - /r/</t>
   </si>
   <si>
-    <t>prefix - /a/</t>
-  </si>
-  <si>
     <t xml:space="preserve">persone </t>
   </si>
   <si>
@@ -946,9 +920,6 @@
   </si>
   <si>
     <t>plural</t>
-  </si>
-  <si>
-    <t>te</t>
   </si>
   <si>
     <t>Strapped down</t>
@@ -1055,12 +1026,249 @@
   <si>
     <t>Reason/purpose</t>
   </si>
+  <si>
+    <t>ਨ</t>
+  </si>
+  <si>
+    <t>ey</t>
+  </si>
+  <si>
+    <t>yø</t>
+  </si>
+  <si>
+    <t>(all diphthoungs and triphthounges are allowed)</t>
+  </si>
+  <si>
+    <r>
+      <t>å</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ka</t>
+    </r>
+  </si>
+  <si>
+    <t>augustlillaröda_fromsuckinginyourlipstoexploding_bilabialextremeplosive.wav</t>
+  </si>
+  <si>
+    <t>Glutal stops</t>
+  </si>
+  <si>
+    <t>Clicks</t>
+  </si>
+  <si>
+    <t>ONSET</t>
+  </si>
+  <si>
+    <t>CODA</t>
+  </si>
+  <si>
+    <t>suffix - //</t>
+  </si>
+  <si>
+    <t>prefix - /ɾi:/</t>
+  </si>
+  <si>
+    <t>river</t>
+  </si>
+  <si>
+    <t>riverbank</t>
+  </si>
+  <si>
+    <t>rune</t>
+  </si>
+  <si>
+    <t>namra</t>
+  </si>
+  <si>
+    <t>namrit</t>
+  </si>
+  <si>
+    <t>aw namr</t>
+  </si>
+  <si>
+    <t>Just words</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Derotic</t>
+  </si>
+  <si>
+    <t>a˩˥</t>
+  </si>
+  <si>
+    <t>ɑ˥˩</t>
+  </si>
+  <si>
+    <t>nɑ:θ</t>
+  </si>
+  <si>
+    <t>nomonative</t>
+  </si>
+  <si>
+    <t>accusative</t>
+  </si>
+  <si>
+    <t>dative</t>
+  </si>
+  <si>
+    <t>ʉB</t>
+  </si>
+  <si>
+    <t>past</t>
+  </si>
+  <si>
+    <t>ugt</t>
+  </si>
+  <si>
+    <t>presens</t>
+  </si>
+  <si>
+    <t>future</t>
+  </si>
+  <si>
+    <t>should have</t>
+  </si>
+  <si>
+    <t>agt</t>
+  </si>
+  <si>
+    <t>iwe</t>
+  </si>
+  <si>
+    <t>θɾuЋ</t>
+  </si>
+  <si>
+    <t>soul</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>ɾɔt</t>
+  </si>
+  <si>
+    <t>god</t>
+  </si>
+  <si>
+    <t>human</t>
+  </si>
+  <si>
+    <t>dwarf</t>
+  </si>
+  <si>
+    <t>Ra</t>
+  </si>
+  <si>
+    <t>Bit</t>
+  </si>
+  <si>
+    <t>present</t>
+  </si>
+  <si>
+    <t>indicative</t>
+  </si>
+  <si>
+    <t>active participle</t>
+  </si>
+  <si>
+    <t>passive participle</t>
+  </si>
+  <si>
+    <t>infinitive</t>
+  </si>
+  <si>
+    <t>jussive (volitive)</t>
+  </si>
+  <si>
+    <t>Conditional</t>
+  </si>
+  <si>
+    <t>aθ</t>
+  </si>
+  <si>
+    <t>aw rRr</t>
+  </si>
+  <si>
+    <t>rʀrʔr</t>
+  </si>
+  <si>
+    <t>Magi</t>
+  </si>
+  <si>
+    <t>℞</t>
+  </si>
+  <si>
+    <t>bidentalandtoungueretractionBUTwithathrillorflap.wav</t>
+  </si>
+  <si>
+    <t>˥</t>
+  </si>
+  <si>
+    <t>˩</t>
+  </si>
+  <si>
+    <t>˧˥</t>
+  </si>
+  <si>
+    <t>˨˩˦</t>
+  </si>
+  <si>
+    <t>˥˩</t>
+  </si>
+  <si>
+    <t>the chinese contour tones</t>
+  </si>
+  <si>
+    <t>my contour tones</t>
+  </si>
+  <si>
+    <t>˨˩˨</t>
+  </si>
+  <si>
+    <t>˧˥˨</t>
+  </si>
+  <si>
+    <t>˩˧</t>
+  </si>
+  <si>
+    <t>θ℞eiɾ</t>
+  </si>
+  <si>
+    <t>˧˥et</t>
+  </si>
+  <si>
+    <t>˥˩et</t>
+  </si>
+  <si>
+    <t>eθ</t>
+  </si>
+  <si>
+    <t>θ:ăð</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>˧</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1177,8 +1385,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1209,8 +1431,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="36">
+  <borders count="48">
     <border>
       <left/>
       <right/>
@@ -1635,12 +1875,156 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalDown="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="1">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="1">
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1709,7 +2093,75 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1758,30 +2210,9 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlänk" xfId="1" builtinId="8"/>
@@ -1789,6 +2220,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFC7A1E3"/>
+      <color rgb="FF9148C8"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2102,6 +2539,37 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="D7:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="7" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F7" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="8" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>153</v>
+      </c>
+      <c r="F8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2115,10 +2583,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="G1:V66"/>
+  <dimension ref="E1:V78"/>
   <sheetViews>
-    <sheetView topLeftCell="D50" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L56" sqref="L56:L63"/>
+    <sheetView tabSelected="1" topLeftCell="C46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K60" sqref="K60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2136,66 +2604,66 @@
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
       <c r="L3" s="9"/>
-      <c r="N3" s="33" t="s">
+      <c r="N3" s="101" t="s">
         <v>34</v>
       </c>
-      <c r="O3" s="48"/>
-      <c r="P3" s="48"/>
-      <c r="Q3" s="34"/>
-      <c r="R3" s="44" t="s">
+      <c r="O3" s="116"/>
+      <c r="P3" s="116"/>
+      <c r="Q3" s="102"/>
+      <c r="R3" s="112" t="s">
         <v>35</v>
       </c>
-      <c r="S3" s="45"/>
-      <c r="T3" s="44" t="s">
+      <c r="S3" s="113"/>
+      <c r="T3" s="112" t="s">
         <v>36</v>
       </c>
-      <c r="U3" s="45"/>
+      <c r="U3" s="113"/>
       <c r="V3" s="9"/>
     </row>
     <row r="4" spans="7:22" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G4" s="37" t="s">
+      <c r="G4" s="105" t="s">
         <v>9</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="37" t="s">
+      <c r="I4" s="105" t="s">
         <v>12</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="37" t="s">
+      <c r="K4" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="37" t="s">
+      <c r="L4" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="N4" s="33" t="s">
+      <c r="N4" s="101" t="s">
         <v>37</v>
       </c>
-      <c r="O4" s="34"/>
-      <c r="P4" s="33" t="s">
+      <c r="O4" s="102"/>
+      <c r="P4" s="101" t="s">
         <v>38</v>
       </c>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="46"/>
-      <c r="S4" s="47"/>
-      <c r="T4" s="46"/>
-      <c r="U4" s="47"/>
+      <c r="Q4" s="102"/>
+      <c r="R4" s="114"/>
+      <c r="S4" s="115"/>
+      <c r="T4" s="114"/>
+      <c r="U4" s="115"/>
       <c r="V4" s="11"/>
     </row>
     <row r="5" spans="7:22" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G5" s="38"/>
+      <c r="G5" s="106"/>
       <c r="H5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="38"/>
+      <c r="I5" s="106"/>
       <c r="J5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
+      <c r="K5" s="106"/>
+      <c r="L5" s="106"/>
       <c r="N5" s="6" t="s">
         <v>39</v>
       </c>
@@ -2223,10 +2691,10 @@
       <c r="V5" s="11"/>
     </row>
     <row r="6" spans="7:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G6" s="33" t="s">
+      <c r="G6" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="34"/>
+      <c r="H6" s="102"/>
       <c r="I6" s="2" t="s">
         <v>6</v>
       </c>
@@ -2262,7 +2730,7 @@
       </c>
     </row>
     <row r="7" spans="7:22" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G7" s="37" t="s">
+      <c r="G7" s="105" t="s">
         <v>18</v>
       </c>
       <c r="H7" s="6" t="s">
@@ -2279,19 +2747,19 @@
       <c r="N7" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="O7" s="41" t="s">
+      <c r="O7" s="109" t="s">
         <v>50</v>
       </c>
       <c r="P7" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="Q7" s="41" t="s">
+      <c r="Q7" s="109" t="s">
         <v>52</v>
       </c>
       <c r="R7" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="S7" s="41" t="s">
+      <c r="S7" s="109" t="s">
         <v>54</v>
       </c>
       <c r="T7" s="3"/>
@@ -2301,28 +2769,28 @@
       </c>
     </row>
     <row r="8" spans="7:22" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G8" s="38"/>
+      <c r="G8" s="106"/>
       <c r="H8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I8" s="39" t="s">
+      <c r="I8" s="107" t="s">
         <v>23</v>
       </c>
       <c r="J8" s="3"/>
-      <c r="K8" s="39" t="s">
+      <c r="K8" s="107" t="s">
         <v>24</v>
       </c>
       <c r="L8" s="3"/>
       <c r="N8" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="O8" s="43"/>
+      <c r="O8" s="111"/>
       <c r="P8" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="Q8" s="43"/>
+      <c r="Q8" s="111"/>
       <c r="R8" s="3"/>
-      <c r="S8" s="43"/>
+      <c r="S8" s="111"/>
       <c r="T8" s="3"/>
       <c r="U8" s="3" t="s">
         <v>57</v>
@@ -2330,25 +2798,25 @@
       <c r="V8" s="3"/>
     </row>
     <row r="9" spans="7:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G9" s="33" t="s">
+      <c r="G9" s="101" t="s">
         <v>25</v>
       </c>
-      <c r="H9" s="34"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="39" t="s">
+      <c r="H9" s="102"/>
+      <c r="I9" s="108"/>
+      <c r="J9" s="107" t="s">
         <v>26</v>
       </c>
-      <c r="K9" s="40"/>
-      <c r="L9" s="41" t="s">
+      <c r="K9" s="108"/>
+      <c r="L9" s="109" t="s">
         <v>27</v>
       </c>
       <c r="N9" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="O9" s="35"/>
-      <c r="P9" s="36"/>
-      <c r="Q9" s="35"/>
-      <c r="R9" s="36"/>
+      <c r="O9" s="103"/>
+      <c r="P9" s="104"/>
+      <c r="Q9" s="103"/>
+      <c r="R9" s="104"/>
       <c r="S9" s="3" t="s">
         <v>59</v>
       </c>
@@ -2359,19 +2827,19 @@
       </c>
     </row>
     <row r="10" spans="7:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G10" s="37" t="s">
+      <c r="G10" s="105" t="s">
         <v>28</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>22</v>
       </c>
       <c r="I10" s="3"/>
-      <c r="J10" s="40"/>
+      <c r="J10" s="108"/>
       <c r="K10" s="3"/>
-      <c r="L10" s="42"/>
+      <c r="L10" s="110"/>
     </row>
     <row r="11" spans="7:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G11" s="38"/>
+      <c r="G11" s="106"/>
       <c r="H11" s="6" t="s">
         <v>19</v>
       </c>
@@ -2382,26 +2850,26 @@
       <c r="K11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L11" s="42"/>
+      <c r="L11" s="110"/>
     </row>
     <row r="12" spans="7:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G12" s="33" t="s">
+      <c r="G12" s="101" t="s">
         <v>31</v>
       </c>
-      <c r="H12" s="34"/>
+      <c r="H12" s="102"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
-      <c r="L12" s="43"/>
+      <c r="L12" s="111"/>
       <c r="O12" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="13" spans="7:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G13" s="33" t="s">
+      <c r="G13" s="101" t="s">
         <v>32</v>
       </c>
-      <c r="H13" s="34"/>
+      <c r="H13" s="102"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="2" t="s">
@@ -2409,15 +2877,15 @@
       </c>
       <c r="L13" s="3"/>
       <c r="O13" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="T13" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="14" spans="7:22" x14ac:dyDescent="0.25">
       <c r="O14" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15" spans="7:22" x14ac:dyDescent="0.25">
@@ -2428,10 +2896,10 @@
         <v>57</v>
       </c>
       <c r="P15" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="T15" t="s">
         <v>213</v>
-      </c>
-      <c r="T15" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="16" spans="7:22" x14ac:dyDescent="0.25">
@@ -2445,13 +2913,13 @@
         <v>69</v>
       </c>
       <c r="O16" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="P16" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="T16" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="17" spans="7:20" x14ac:dyDescent="0.25">
@@ -2468,13 +2936,13 @@
         <v>68</v>
       </c>
       <c r="O17" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="P17" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="T17" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="18" spans="7:20" x14ac:dyDescent="0.25">
@@ -2491,13 +2959,13 @@
         <v>27</v>
       </c>
       <c r="O18" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="P18" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="T18" s="31" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="19" spans="7:20" x14ac:dyDescent="0.25">
@@ -2517,10 +2985,10 @@
         <v>50</v>
       </c>
       <c r="P19" s="29" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="T19" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="20" spans="7:20" x14ac:dyDescent="0.25">
@@ -2537,13 +3005,13 @@
         <v>71</v>
       </c>
       <c r="O20" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="P20" s="29" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="T20" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="21" spans="7:20" x14ac:dyDescent="0.25">
@@ -2560,10 +3028,10 @@
         <v>72</v>
       </c>
       <c r="O21" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="P21" s="29" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="22" spans="7:20" x14ac:dyDescent="0.25">
@@ -2580,7 +3048,7 @@
         <v>59</v>
       </c>
       <c r="P22" s="29" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="23" spans="7:20" x14ac:dyDescent="0.25">
@@ -2588,10 +3056,10 @@
         <v>117</v>
       </c>
       <c r="O23" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="P23" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="24" spans="7:20" x14ac:dyDescent="0.25">
@@ -2599,10 +3067,10 @@
         <v>108</v>
       </c>
       <c r="O24" s="31" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="P24" s="31" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
     </row>
     <row r="26" spans="7:20" x14ac:dyDescent="0.25">
@@ -2870,7 +3338,7 @@
     </row>
     <row r="52" spans="7:19" x14ac:dyDescent="0.25">
       <c r="G52" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
     </row>
     <row r="54" spans="7:19" x14ac:dyDescent="0.25">
@@ -2878,7 +3346,7 @@
         <v>67</v>
       </c>
       <c r="N54" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="55" spans="7:19" x14ac:dyDescent="0.25">
@@ -2892,10 +3360,10 @@
         <v>69</v>
       </c>
       <c r="N55" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="S55" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="56" spans="7:19" x14ac:dyDescent="0.25">
@@ -2906,10 +3374,10 @@
         <v>61</v>
       </c>
       <c r="L56" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="N56" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="57" spans="7:19" x14ac:dyDescent="0.25">
@@ -2920,39 +3388,51 @@
         <v>29</v>
       </c>
       <c r="J57" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="L57" t="s">
-        <v>27</v>
-      </c>
-      <c r="N57" t="s">
-        <v>57</v>
-      </c>
-      <c r="O57" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="N57" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="O57" s="31" t="s">
+        <v>251</v>
+      </c>
+      <c r="P57" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>202</v>
+      </c>
+      <c r="S57" t="s">
         <v>213</v>
-      </c>
-      <c r="S57" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="58" spans="7:19" x14ac:dyDescent="0.25">
       <c r="G58" t="s">
         <v>26</v>
       </c>
+      <c r="H58" t="s">
+        <v>24</v>
+      </c>
       <c r="J58" t="s">
-        <v>66</v>
-      </c>
-      <c r="L58" t="s">
-        <v>70</v>
-      </c>
-      <c r="N58" t="s">
-        <v>204</v>
-      </c>
-      <c r="O58" t="s">
-        <v>209</v>
+        <v>65</v>
+      </c>
+      <c r="N58" s="54" t="s">
+        <v>198</v>
+      </c>
+      <c r="O58" s="54" t="s">
+        <v>203</v>
+      </c>
+      <c r="P58" s="54" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q58" s="55" t="s">
+        <v>205</v>
       </c>
       <c r="S58" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="59" spans="7:19" x14ac:dyDescent="0.25">
@@ -2960,19 +3440,25 @@
         <v>33</v>
       </c>
       <c r="J59" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="L59" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N59" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="O59" t="s">
-        <v>207</v>
+        <v>201</v>
+      </c>
+      <c r="P59" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q59" s="29" t="s">
+        <v>283</v>
       </c>
       <c r="S59" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="60" spans="7:19" x14ac:dyDescent="0.25">
@@ -2986,16 +3472,22 @@
         <v>115</v>
       </c>
       <c r="L60" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N60" t="s">
-        <v>206</v>
-      </c>
-      <c r="O60" t="s">
-        <v>208</v>
+        <v>50</v>
+      </c>
+      <c r="O60" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="P60" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>214</v>
       </c>
       <c r="S60" s="31" t="s">
-        <v>223</v>
+        <v>280</v>
       </c>
     </row>
     <row r="61" spans="7:19" x14ac:dyDescent="0.25">
@@ -3006,77 +3498,108 @@
         <v>116</v>
       </c>
       <c r="L61" t="s">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="N61" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="O61" s="29" t="s">
-        <v>210</v>
+        <v>208</v>
+      </c>
+      <c r="P61" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q61" s="29" t="s">
+        <v>206</v>
       </c>
       <c r="S61" s="31" t="s">
-        <v>224</v>
+        <v>281</v>
       </c>
     </row>
     <row r="62" spans="7:19" x14ac:dyDescent="0.25">
-      <c r="L62" t="s">
-        <v>117</v>
-      </c>
-      <c r="N62" t="s">
-        <v>200</v>
-      </c>
-      <c r="O62" s="29" t="s">
-        <v>211</v>
-      </c>
       <c r="S62" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="63" spans="7:19" x14ac:dyDescent="0.25">
-      <c r="L63" t="s">
-        <v>108</v>
-      </c>
-      <c r="N63" t="s">
-        <v>201</v>
-      </c>
-      <c r="O63" s="29" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="64" spans="7:19" x14ac:dyDescent="0.25">
-      <c r="N64" t="s">
-        <v>59</v>
-      </c>
-      <c r="O64" s="29" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="65" spans="7:15" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="65" spans="5:19" x14ac:dyDescent="0.25">
       <c r="G65" t="s">
         <v>118</v>
       </c>
       <c r="H65" t="s">
         <v>120</v>
       </c>
-      <c r="N65" t="s">
-        <v>202</v>
-      </c>
-      <c r="O65" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="66" spans="7:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="5:19" x14ac:dyDescent="0.25">
       <c r="G66" t="s">
         <v>119</v>
       </c>
       <c r="H66" t="s">
         <v>121</v>
       </c>
-      <c r="N66" s="31" t="s">
-        <v>203</v>
-      </c>
-      <c r="O66" s="31" t="s">
-        <v>261</v>
+      <c r="S66" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="67" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="G67" t="s">
+        <v>279</v>
+      </c>
+      <c r="H67" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="68" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="G68" t="s">
+        <v>335</v>
+      </c>
+      <c r="H68" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="74" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="E74" t="s">
+        <v>352</v>
+      </c>
+      <c r="G74" t="s">
+        <v>342</v>
+      </c>
+      <c r="J74" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="75" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="E75" t="s">
+        <v>353</v>
+      </c>
+      <c r="G75" t="s">
+        <v>337</v>
+      </c>
+      <c r="J75" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="76" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="G76" t="s">
+        <v>339</v>
+      </c>
+      <c r="J76" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="77" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="G77" t="s">
+        <v>340</v>
+      </c>
+      <c r="J77" t="s">
+        <v>344</v>
+      </c>
+      <c r="K77" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="78" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="G78" t="s">
+        <v>341</v>
       </c>
     </row>
   </sheetData>
@@ -3148,15 +3671,16 @@
     <hyperlink ref="N9" r:id="rId39" tooltip="Open vowel" display="https://en.wikipedia.org/wiki/Open_vowel" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId40"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B1:R81"/>
+  <dimension ref="B1:AF136"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N74" sqref="N74"/>
+    <sheetView topLeftCell="C53" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K79" sqref="K79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3277,7 +3801,7 @@
       </c>
       <c r="J14" s="25"/>
       <c r="K14" s="25" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
@@ -3305,14 +3829,14 @@
       <c r="G17" s="25"/>
       <c r="H17" s="25"/>
       <c r="I17" s="25" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="J17" s="25"/>
       <c r="K17" s="25"/>
     </row>
     <row r="22" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="G22" t="s">
         <v>134</v>
@@ -3345,172 +3869,5306 @@
     </row>
     <row r="34" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C34" s="1" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D34" s="28"/>
     </row>
     <row r="38" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="E38" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
     </row>
     <row r="39" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="E39" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="40" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="E40" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="41" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D41" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="E41" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
     </row>
     <row r="42" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="E42" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="59" spans="6:32" x14ac:dyDescent="0.25">
+      <c r="I59" t="s">
+        <v>287</v>
+      </c>
+      <c r="J59" s="62" t="s">
+        <v>279</v>
+      </c>
+      <c r="K59" s="63" t="s">
+        <v>116</v>
+      </c>
+      <c r="L59" s="70" t="s">
+        <v>33</v>
+      </c>
+      <c r="M59" s="73" t="s">
+        <v>27</v>
+      </c>
+      <c r="N59" s="73" t="s">
+        <v>70</v>
+      </c>
+      <c r="O59" s="73" t="s">
+        <v>71</v>
+      </c>
+      <c r="P59" s="73" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q59" s="73" t="s">
+        <v>74</v>
+      </c>
+      <c r="R59" s="73" t="s">
+        <v>117</v>
+      </c>
+      <c r="S59" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="T59" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="U59" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="V59" s="70" t="s">
+        <v>29</v>
+      </c>
+      <c r="W59" s="73" t="s">
+        <v>26</v>
+      </c>
+      <c r="X59" s="73" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y59" s="73" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z59" s="73" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA59" s="56" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB59" s="72" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC59" s="71" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD59" s="71" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE59" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF59" s="62" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="60" spans="6:32" x14ac:dyDescent="0.25">
+      <c r="F60" s="32" t="s">
+        <v>286</v>
+      </c>
+      <c r="G60" s="61"/>
+      <c r="H60" s="40"/>
+      <c r="I60" s="62" t="s">
+        <v>279</v>
+      </c>
+      <c r="J60" s="89" t="str">
+        <f>$I60&amp;J$59</f>
+        <v>ਨਨ</v>
+      </c>
+      <c r="K60" s="75" t="str">
+        <f t="shared" ref="K60:AF74" si="0">$I60&amp;K$59</f>
+        <v>ਨw</v>
+      </c>
+      <c r="L60" s="76" t="str">
+        <f t="shared" si="0"/>
+        <v>ਨl</v>
+      </c>
+      <c r="M60" s="77" t="str">
+        <f t="shared" si="0"/>
+        <v>ਨr</v>
+      </c>
+      <c r="N60" s="77" t="str">
+        <f t="shared" si="0"/>
+        <v>ਨɾ</v>
+      </c>
+      <c r="O60" s="77" t="str">
+        <f t="shared" si="0"/>
+        <v>ਨɹ</v>
+      </c>
+      <c r="P60" s="77" t="str">
+        <f t="shared" si="0"/>
+        <v>ਨʀ</v>
+      </c>
+      <c r="Q60" s="77" t="str">
+        <f t="shared" si="0"/>
+        <v>ਨʁ</v>
+      </c>
+      <c r="R60" s="77" t="str">
+        <f t="shared" si="0"/>
+        <v>ਨɣ</v>
+      </c>
+      <c r="S60" s="78" t="str">
+        <f t="shared" si="0"/>
+        <v>ਨʙ</v>
+      </c>
+      <c r="T60" s="76" t="str">
+        <f t="shared" si="0"/>
+        <v>ਨm</v>
+      </c>
+      <c r="U60" s="78" t="str">
+        <f t="shared" si="0"/>
+        <v>ਨn</v>
+      </c>
+      <c r="V60" s="76" t="str">
+        <f t="shared" si="0"/>
+        <v>ਨf</v>
+      </c>
+      <c r="W60" s="77" t="str">
+        <f t="shared" si="0"/>
+        <v>ਨv</v>
+      </c>
+      <c r="X60" s="77" t="str">
+        <f t="shared" si="0"/>
+        <v>ਨθ</v>
+      </c>
+      <c r="Y60" s="77" t="str">
+        <f t="shared" si="0"/>
+        <v>ਨð</v>
+      </c>
+      <c r="Z60" s="77" t="str">
+        <f t="shared" si="0"/>
+        <v>ਨʍ</v>
+      </c>
+      <c r="AA60" s="78" t="str">
+        <f t="shared" si="0"/>
+        <v>ਨЋ</v>
+      </c>
+      <c r="AB60" s="77" t="str">
+        <f t="shared" si="0"/>
+        <v>ਨp</v>
+      </c>
+      <c r="AC60" s="77" t="str">
+        <f t="shared" si="0"/>
+        <v>ਨt</v>
+      </c>
+      <c r="AD60" s="77" t="str">
+        <f t="shared" si="0"/>
+        <v>ਨb</v>
+      </c>
+      <c r="AE60" s="78" t="str">
+        <f t="shared" si="0"/>
+        <v>ਨd</v>
+      </c>
+      <c r="AF60" s="78" t="str">
+        <f t="shared" si="0"/>
+        <v>ਨʔ</v>
+      </c>
+    </row>
+    <row r="61" spans="6:32" x14ac:dyDescent="0.25">
+      <c r="F61" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="G61" s="40"/>
+      <c r="H61" s="40"/>
+      <c r="I61" s="63" t="s">
+        <v>116</v>
+      </c>
+      <c r="J61" s="75" t="str">
+        <f t="shared" ref="J61:Y76" si="1">$I61&amp;J$59</f>
+        <v>wਨ</v>
+      </c>
+      <c r="K61" s="89" t="str">
+        <f t="shared" si="1"/>
+        <v>ww</v>
+      </c>
+      <c r="L61" s="76" t="str">
+        <f t="shared" si="1"/>
+        <v>wl</v>
+      </c>
+      <c r="M61" s="77" t="str">
+        <f t="shared" si="1"/>
+        <v>wr</v>
+      </c>
+      <c r="N61" s="77" t="str">
+        <f t="shared" si="1"/>
+        <v>wɾ</v>
+      </c>
+      <c r="O61" s="77" t="str">
+        <f t="shared" si="1"/>
+        <v>wɹ</v>
+      </c>
+      <c r="P61" s="77" t="str">
+        <f t="shared" si="1"/>
+        <v>wʀ</v>
+      </c>
+      <c r="Q61" s="77" t="str">
+        <f t="shared" si="1"/>
+        <v>wʁ</v>
+      </c>
+      <c r="R61" s="77" t="str">
+        <f t="shared" si="1"/>
+        <v>wɣ</v>
+      </c>
+      <c r="S61" s="78" t="str">
+        <f t="shared" si="1"/>
+        <v>wʙ</v>
+      </c>
+      <c r="T61" s="76" t="str">
+        <f t="shared" si="1"/>
+        <v>wm</v>
+      </c>
+      <c r="U61" s="78" t="str">
+        <f t="shared" si="1"/>
+        <v>wn</v>
+      </c>
+      <c r="V61" s="76" t="str">
+        <f t="shared" si="1"/>
+        <v>wf</v>
+      </c>
+      <c r="W61" s="77" t="str">
+        <f t="shared" si="1"/>
+        <v>wv</v>
+      </c>
+      <c r="X61" s="77" t="str">
+        <f t="shared" si="1"/>
+        <v>wθ</v>
+      </c>
+      <c r="Y61" s="77" t="str">
+        <f t="shared" si="1"/>
+        <v>wð</v>
+      </c>
+      <c r="Z61" s="77" t="str">
+        <f t="shared" si="0"/>
+        <v>wʍ</v>
+      </c>
+      <c r="AA61" s="78" t="str">
+        <f t="shared" si="0"/>
+        <v>wЋ</v>
+      </c>
+      <c r="AB61" s="76" t="str">
+        <f t="shared" si="0"/>
+        <v>wp</v>
+      </c>
+      <c r="AC61" s="77" t="str">
+        <f t="shared" si="0"/>
+        <v>wt</v>
+      </c>
+      <c r="AD61" s="77" t="str">
+        <f t="shared" si="0"/>
+        <v>wb</v>
+      </c>
+      <c r="AE61" s="78" t="str">
+        <f t="shared" si="0"/>
+        <v>wd</v>
+      </c>
+      <c r="AF61" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>wʔ</v>
+      </c>
+    </row>
+    <row r="62" spans="6:32" x14ac:dyDescent="0.25">
+      <c r="F62" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="G62" s="41"/>
+      <c r="H62" s="41"/>
+      <c r="I62" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="J62" s="79" t="str">
+        <f t="shared" si="1"/>
+        <v>lਨ</v>
+      </c>
+      <c r="K62" s="79" t="str">
+        <f t="shared" si="1"/>
+        <v>lw</v>
+      </c>
+      <c r="L62" s="90" t="str">
+        <f t="shared" si="1"/>
+        <v>ll</v>
+      </c>
+      <c r="M62" s="80" t="str">
+        <f t="shared" si="1"/>
+        <v>lr</v>
+      </c>
+      <c r="N62" s="80" t="str">
+        <f t="shared" si="1"/>
+        <v>lɾ</v>
+      </c>
+      <c r="O62" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>lɹ</v>
+      </c>
+      <c r="P62" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>lʀ</v>
+      </c>
+      <c r="Q62" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>lʁ</v>
+      </c>
+      <c r="R62" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>lɣ</v>
+      </c>
+      <c r="S62" s="81" t="str">
+        <f t="shared" si="0"/>
+        <v>lʙ</v>
+      </c>
+      <c r="T62" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>lm</v>
+      </c>
+      <c r="U62" s="81" t="str">
+        <f t="shared" si="0"/>
+        <v>ln</v>
+      </c>
+      <c r="V62" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>lf</v>
+      </c>
+      <c r="W62" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>lv</v>
+      </c>
+      <c r="X62" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>lθ</v>
+      </c>
+      <c r="Y62" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>lð</v>
+      </c>
+      <c r="Z62" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>lʍ</v>
+      </c>
+      <c r="AA62" s="81" t="str">
+        <f t="shared" si="0"/>
+        <v>lЋ</v>
+      </c>
+      <c r="AB62" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>lp</v>
+      </c>
+      <c r="AC62" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>lt</v>
+      </c>
+      <c r="AD62" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>lb</v>
+      </c>
+      <c r="AE62" s="81" t="str">
+        <f t="shared" si="0"/>
+        <v>ld</v>
+      </c>
+      <c r="AF62" s="81" t="str">
+        <f t="shared" si="0"/>
+        <v>lʔ</v>
+      </c>
+    </row>
+    <row r="63" spans="6:32" x14ac:dyDescent="0.25">
+      <c r="F63" s="57"/>
+      <c r="G63" s="58"/>
+      <c r="H63" s="58"/>
+      <c r="I63" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="J63" s="87" t="str">
+        <f t="shared" si="1"/>
+        <v>rਨ</v>
+      </c>
+      <c r="K63" s="93" t="str">
+        <f t="shared" si="1"/>
+        <v>rw</v>
+      </c>
+      <c r="L63" s="80" t="str">
+        <f t="shared" si="1"/>
+        <v>rl</v>
+      </c>
+      <c r="M63" s="91" t="str">
+        <f t="shared" si="1"/>
+        <v>rr</v>
+      </c>
+      <c r="N63" s="80" t="str">
+        <f t="shared" si="1"/>
+        <v>rɾ</v>
+      </c>
+      <c r="O63" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>rɹ</v>
+      </c>
+      <c r="P63" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>rʀ</v>
+      </c>
+      <c r="Q63" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>rʁ</v>
+      </c>
+      <c r="R63" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>rɣ</v>
+      </c>
+      <c r="S63" s="83" t="str">
+        <f t="shared" si="0"/>
+        <v>rʙ</v>
+      </c>
+      <c r="T63" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>rm</v>
+      </c>
+      <c r="U63" s="83" t="str">
+        <f t="shared" si="0"/>
+        <v>rn</v>
+      </c>
+      <c r="V63" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>rf</v>
+      </c>
+      <c r="W63" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>rv</v>
+      </c>
+      <c r="X63" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>rθ</v>
+      </c>
+      <c r="Y63" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>rð</v>
+      </c>
+      <c r="Z63" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>rʍ</v>
+      </c>
+      <c r="AA63" s="83" t="str">
+        <f t="shared" si="0"/>
+        <v>rЋ</v>
+      </c>
+      <c r="AB63" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>rp</v>
+      </c>
+      <c r="AC63" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>rt</v>
+      </c>
+      <c r="AD63" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>rb</v>
+      </c>
+      <c r="AE63" s="83" t="str">
+        <f t="shared" si="0"/>
+        <v>rd</v>
+      </c>
+      <c r="AF63" s="83" t="str">
+        <f t="shared" si="0"/>
+        <v>rʔ</v>
+      </c>
+    </row>
+    <row r="64" spans="6:32" x14ac:dyDescent="0.25">
+      <c r="F64" s="57"/>
+      <c r="G64" s="58"/>
+      <c r="H64" s="58"/>
+      <c r="I64" s="65" t="s">
+        <v>70</v>
+      </c>
+      <c r="J64" s="82" t="str">
+        <f t="shared" si="1"/>
+        <v>ɾਨ</v>
+      </c>
+      <c r="K64" s="82" t="str">
+        <f t="shared" si="1"/>
+        <v>ɾw</v>
+      </c>
+      <c r="L64" s="80" t="str">
+        <f t="shared" si="1"/>
+        <v>ɾl</v>
+      </c>
+      <c r="M64" s="80" t="str">
+        <f t="shared" si="1"/>
+        <v>ɾr</v>
+      </c>
+      <c r="N64" s="91" t="str">
+        <f t="shared" si="1"/>
+        <v>ɾɾ</v>
+      </c>
+      <c r="O64" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>ɾɹ</v>
+      </c>
+      <c r="P64" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>ɾʀ</v>
+      </c>
+      <c r="Q64" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>ɾʁ</v>
+      </c>
+      <c r="R64" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>ɾɣ</v>
+      </c>
+      <c r="S64" s="83" t="str">
+        <f t="shared" si="0"/>
+        <v>ɾʙ</v>
+      </c>
+      <c r="T64" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>ɾm</v>
+      </c>
+      <c r="U64" s="83" t="str">
+        <f t="shared" si="0"/>
+        <v>ɾn</v>
+      </c>
+      <c r="V64" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>ɾf</v>
+      </c>
+      <c r="W64" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>ɾv</v>
+      </c>
+      <c r="X64" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>ɾθ</v>
+      </c>
+      <c r="Y64" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>ɾð</v>
+      </c>
+      <c r="Z64" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>ɾʍ</v>
+      </c>
+      <c r="AA64" s="83" t="str">
+        <f t="shared" si="0"/>
+        <v>ɾЋ</v>
+      </c>
+      <c r="AB64" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>ɾp</v>
+      </c>
+      <c r="AC64" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>ɾt</v>
+      </c>
+      <c r="AD64" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>ɾb</v>
+      </c>
+      <c r="AE64" s="83" t="str">
+        <f t="shared" si="0"/>
+        <v>ɾd</v>
+      </c>
+      <c r="AF64" s="83" t="str">
+        <f t="shared" si="0"/>
+        <v>ɾʔ</v>
+      </c>
+    </row>
+    <row r="65" spans="6:32" x14ac:dyDescent="0.25">
+      <c r="F65" s="57"/>
+      <c r="G65" s="58"/>
+      <c r="H65" s="58"/>
+      <c r="I65" s="65" t="s">
+        <v>71</v>
+      </c>
+      <c r="J65" s="82" t="str">
+        <f t="shared" si="1"/>
+        <v>ɹਨ</v>
+      </c>
+      <c r="K65" s="82" t="str">
+        <f t="shared" si="1"/>
+        <v>ɹw</v>
+      </c>
+      <c r="L65" s="80" t="str">
+        <f t="shared" si="1"/>
+        <v>ɹl</v>
+      </c>
+      <c r="M65" s="80" t="str">
+        <f t="shared" si="1"/>
+        <v>ɹr</v>
+      </c>
+      <c r="N65" s="80" t="str">
+        <f t="shared" si="1"/>
+        <v>ɹɾ</v>
+      </c>
+      <c r="O65" s="91" t="str">
+        <f t="shared" si="0"/>
+        <v>ɹɹ</v>
+      </c>
+      <c r="P65" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>ɹʀ</v>
+      </c>
+      <c r="Q65" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>ɹʁ</v>
+      </c>
+      <c r="R65" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>ɹɣ</v>
+      </c>
+      <c r="S65" s="83" t="str">
+        <f t="shared" si="0"/>
+        <v>ɹʙ</v>
+      </c>
+      <c r="T65" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>ɹm</v>
+      </c>
+      <c r="U65" s="83" t="str">
+        <f t="shared" si="0"/>
+        <v>ɹn</v>
+      </c>
+      <c r="V65" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>ɹf</v>
+      </c>
+      <c r="W65" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>ɹv</v>
+      </c>
+      <c r="X65" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>ɹθ</v>
+      </c>
+      <c r="Y65" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>ɹð</v>
+      </c>
+      <c r="Z65" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>ɹʍ</v>
+      </c>
+      <c r="AA65" s="83" t="str">
+        <f t="shared" si="0"/>
+        <v>ɹЋ</v>
+      </c>
+      <c r="AB65" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>ɹp</v>
+      </c>
+      <c r="AC65" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>ɹt</v>
+      </c>
+      <c r="AD65" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>ɹb</v>
+      </c>
+      <c r="AE65" s="83" t="str">
+        <f t="shared" si="0"/>
+        <v>ɹd</v>
+      </c>
+      <c r="AF65" s="83" t="str">
+        <f t="shared" si="0"/>
+        <v>ɹʔ</v>
+      </c>
+    </row>
+    <row r="66" spans="6:32" x14ac:dyDescent="0.25">
+      <c r="F66" s="57"/>
+      <c r="G66" s="58"/>
+      <c r="H66" s="58"/>
+      <c r="I66" s="65" t="s">
+        <v>72</v>
+      </c>
+      <c r="J66" s="82" t="str">
+        <f t="shared" si="1"/>
+        <v>ʀਨ</v>
+      </c>
+      <c r="K66" s="82" t="str">
+        <f t="shared" si="1"/>
+        <v>ʀw</v>
+      </c>
+      <c r="L66" s="80" t="str">
+        <f t="shared" si="1"/>
+        <v>ʀl</v>
+      </c>
+      <c r="M66" s="80" t="str">
+        <f t="shared" si="1"/>
+        <v>ʀr</v>
+      </c>
+      <c r="N66" s="80" t="str">
+        <f t="shared" si="1"/>
+        <v>ʀɾ</v>
+      </c>
+      <c r="O66" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>ʀɹ</v>
+      </c>
+      <c r="P66" s="91" t="str">
+        <f t="shared" si="0"/>
+        <v>ʀʀ</v>
+      </c>
+      <c r="Q66" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>ʀʁ</v>
+      </c>
+      <c r="R66" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>ʀɣ</v>
+      </c>
+      <c r="S66" s="83" t="str">
+        <f t="shared" si="0"/>
+        <v>ʀʙ</v>
+      </c>
+      <c r="T66" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>ʀm</v>
+      </c>
+      <c r="U66" s="83" t="str">
+        <f t="shared" si="0"/>
+        <v>ʀn</v>
+      </c>
+      <c r="V66" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>ʀf</v>
+      </c>
+      <c r="W66" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>ʀv</v>
+      </c>
+      <c r="X66" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>ʀθ</v>
+      </c>
+      <c r="Y66" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>ʀð</v>
+      </c>
+      <c r="Z66" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>ʀʍ</v>
+      </c>
+      <c r="AA66" s="83" t="str">
+        <f t="shared" si="0"/>
+        <v>ʀЋ</v>
+      </c>
+      <c r="AB66" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>ʀp</v>
+      </c>
+      <c r="AC66" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>ʀt</v>
+      </c>
+      <c r="AD66" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>ʀb</v>
+      </c>
+      <c r="AE66" s="83" t="str">
+        <f t="shared" si="0"/>
+        <v>ʀd</v>
+      </c>
+      <c r="AF66" s="83" t="str">
+        <f t="shared" si="0"/>
+        <v>ʀʔ</v>
+      </c>
+    </row>
+    <row r="67" spans="6:32" x14ac:dyDescent="0.25">
+      <c r="F67" s="57"/>
+      <c r="G67" s="58"/>
+      <c r="H67" s="58"/>
+      <c r="I67" s="65" t="s">
+        <v>74</v>
+      </c>
+      <c r="J67" s="82" t="str">
+        <f t="shared" si="1"/>
+        <v>ʁਨ</v>
+      </c>
+      <c r="K67" s="82" t="str">
+        <f t="shared" si="1"/>
+        <v>ʁw</v>
+      </c>
+      <c r="L67" s="80" t="str">
+        <f t="shared" si="1"/>
+        <v>ʁl</v>
+      </c>
+      <c r="M67" s="80" t="str">
+        <f t="shared" si="1"/>
+        <v>ʁr</v>
+      </c>
+      <c r="N67" s="80" t="str">
+        <f t="shared" si="1"/>
+        <v>ʁɾ</v>
+      </c>
+      <c r="O67" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>ʁɹ</v>
+      </c>
+      <c r="P67" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>ʁʀ</v>
+      </c>
+      <c r="Q67" s="91" t="str">
+        <f t="shared" si="0"/>
+        <v>ʁʁ</v>
+      </c>
+      <c r="R67" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>ʁɣ</v>
+      </c>
+      <c r="S67" s="83" t="str">
+        <f t="shared" si="0"/>
+        <v>ʁʙ</v>
+      </c>
+      <c r="T67" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>ʁm</v>
+      </c>
+      <c r="U67" s="83" t="str">
+        <f t="shared" si="0"/>
+        <v>ʁn</v>
+      </c>
+      <c r="V67" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>ʁf</v>
+      </c>
+      <c r="W67" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>ʁv</v>
+      </c>
+      <c r="X67" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>ʁθ</v>
+      </c>
+      <c r="Y67" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>ʁð</v>
+      </c>
+      <c r="Z67" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>ʁʍ</v>
+      </c>
+      <c r="AA67" s="83" t="str">
+        <f t="shared" si="0"/>
+        <v>ʁЋ</v>
+      </c>
+      <c r="AB67" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>ʁp</v>
+      </c>
+      <c r="AC67" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>ʁt</v>
+      </c>
+      <c r="AD67" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>ʁb</v>
+      </c>
+      <c r="AE67" s="83" t="str">
+        <f t="shared" si="0"/>
+        <v>ʁd</v>
+      </c>
+      <c r="AF67" s="83" t="str">
+        <f t="shared" si="0"/>
+        <v>ʁʔ</v>
+      </c>
+    </row>
+    <row r="68" spans="6:32" x14ac:dyDescent="0.25">
+      <c r="F68" s="57"/>
+      <c r="G68" s="58"/>
+      <c r="H68" s="58"/>
+      <c r="I68" s="65" t="s">
+        <v>117</v>
+      </c>
+      <c r="J68" s="82" t="str">
+        <f t="shared" si="1"/>
+        <v>ɣਨ</v>
+      </c>
+      <c r="K68" s="82" t="str">
+        <f t="shared" si="1"/>
+        <v>ɣw</v>
+      </c>
+      <c r="L68" s="80" t="str">
+        <f t="shared" si="1"/>
+        <v>ɣl</v>
+      </c>
+      <c r="M68" s="80" t="str">
+        <f t="shared" si="1"/>
+        <v>ɣr</v>
+      </c>
+      <c r="N68" s="80" t="str">
+        <f t="shared" si="1"/>
+        <v>ɣɾ</v>
+      </c>
+      <c r="O68" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>ɣɹ</v>
+      </c>
+      <c r="P68" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>ɣʀ</v>
+      </c>
+      <c r="Q68" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>ɣʁ</v>
+      </c>
+      <c r="R68" s="91" t="str">
+        <f t="shared" si="0"/>
+        <v>ɣɣ</v>
+      </c>
+      <c r="S68" s="83" t="str">
+        <f t="shared" si="0"/>
+        <v>ɣʙ</v>
+      </c>
+      <c r="T68" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>ɣm</v>
+      </c>
+      <c r="U68" s="83" t="str">
+        <f t="shared" si="0"/>
+        <v>ɣn</v>
+      </c>
+      <c r="V68" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>ɣf</v>
+      </c>
+      <c r="W68" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>ɣv</v>
+      </c>
+      <c r="X68" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>ɣθ</v>
+      </c>
+      <c r="Y68" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>ɣð</v>
+      </c>
+      <c r="Z68" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>ɣʍ</v>
+      </c>
+      <c r="AA68" s="83" t="str">
+        <f t="shared" si="0"/>
+        <v>ɣЋ</v>
+      </c>
+      <c r="AB68" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>ɣp</v>
+      </c>
+      <c r="AC68" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>ɣt</v>
+      </c>
+      <c r="AD68" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>ɣb</v>
+      </c>
+      <c r="AE68" s="83" t="str">
+        <f t="shared" si="0"/>
+        <v>ɣd</v>
+      </c>
+      <c r="AF68" s="83" t="str">
+        <f t="shared" si="0"/>
+        <v>ɣʔ</v>
+      </c>
+    </row>
+    <row r="69" spans="6:32" x14ac:dyDescent="0.25">
+      <c r="F69" s="59"/>
+      <c r="G69" s="54"/>
+      <c r="H69" s="54"/>
+      <c r="I69" s="66" t="s">
+        <v>61</v>
+      </c>
+      <c r="J69" s="84" t="str">
+        <f t="shared" si="1"/>
+        <v>ʙਨ</v>
+      </c>
+      <c r="K69" s="84" t="str">
+        <f t="shared" si="1"/>
+        <v>ʙw</v>
+      </c>
+      <c r="L69" s="85" t="str">
+        <f t="shared" si="1"/>
+        <v>ʙl</v>
+      </c>
+      <c r="M69" s="85" t="str">
+        <f t="shared" si="1"/>
+        <v>ʙr</v>
+      </c>
+      <c r="N69" s="85" t="str">
+        <f t="shared" si="1"/>
+        <v>ʙɾ</v>
+      </c>
+      <c r="O69" s="85" t="str">
+        <f t="shared" si="0"/>
+        <v>ʙɹ</v>
+      </c>
+      <c r="P69" s="85" t="str">
+        <f t="shared" si="0"/>
+        <v>ʙʀ</v>
+      </c>
+      <c r="Q69" s="85" t="str">
+        <f t="shared" si="0"/>
+        <v>ʙʁ</v>
+      </c>
+      <c r="R69" s="85" t="str">
+        <f t="shared" si="0"/>
+        <v>ʙɣ</v>
+      </c>
+      <c r="S69" s="92" t="str">
+        <f t="shared" si="0"/>
+        <v>ʙʙ</v>
+      </c>
+      <c r="T69" s="85" t="str">
+        <f t="shared" si="0"/>
+        <v>ʙm</v>
+      </c>
+      <c r="U69" s="86" t="str">
+        <f t="shared" si="0"/>
+        <v>ʙn</v>
+      </c>
+      <c r="V69" s="85" t="str">
+        <f t="shared" si="0"/>
+        <v>ʙf</v>
+      </c>
+      <c r="W69" s="85" t="str">
+        <f t="shared" si="0"/>
+        <v>ʙv</v>
+      </c>
+      <c r="X69" s="85" t="str">
+        <f t="shared" si="0"/>
+        <v>ʙθ</v>
+      </c>
+      <c r="Y69" s="85" t="str">
+        <f t="shared" si="0"/>
+        <v>ʙð</v>
+      </c>
+      <c r="Z69" s="85" t="str">
+        <f t="shared" si="0"/>
+        <v>ʙʍ</v>
+      </c>
+      <c r="AA69" s="86" t="str">
+        <f t="shared" si="0"/>
+        <v>ʙЋ</v>
+      </c>
+      <c r="AB69" s="85" t="str">
+        <f t="shared" si="0"/>
+        <v>ʙp</v>
+      </c>
+      <c r="AC69" s="85" t="str">
+        <f t="shared" si="0"/>
+        <v>ʙt</v>
+      </c>
+      <c r="AD69" s="85" t="str">
+        <f t="shared" si="0"/>
+        <v>ʙb</v>
+      </c>
+      <c r="AE69" s="86" t="str">
+        <f t="shared" si="0"/>
+        <v>ʙd</v>
+      </c>
+      <c r="AF69" s="86" t="str">
+        <f t="shared" si="0"/>
+        <v>ʙʔ</v>
+      </c>
+    </row>
+    <row r="70" spans="6:32" x14ac:dyDescent="0.25">
+      <c r="F70" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="G70" s="41"/>
+      <c r="H70" s="41"/>
+      <c r="I70" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="J70" s="82" t="str">
+        <f t="shared" si="1"/>
+        <v>mਨ</v>
+      </c>
+      <c r="K70" s="82" t="str">
+        <f t="shared" si="1"/>
+        <v>mw</v>
+      </c>
+      <c r="L70" s="80" t="str">
+        <f t="shared" si="1"/>
+        <v>ml</v>
+      </c>
+      <c r="M70" s="80" t="str">
+        <f t="shared" si="1"/>
+        <v>mr</v>
+      </c>
+      <c r="N70" s="80" t="str">
+        <f t="shared" si="1"/>
+        <v>mɾ</v>
+      </c>
+      <c r="O70" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>mɹ</v>
+      </c>
+      <c r="P70" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>mʀ</v>
+      </c>
+      <c r="Q70" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>mʁ</v>
+      </c>
+      <c r="R70" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>mɣ</v>
+      </c>
+      <c r="S70" s="83" t="str">
+        <f t="shared" si="0"/>
+        <v>mʙ</v>
+      </c>
+      <c r="T70" s="90" t="str">
+        <f t="shared" si="0"/>
+        <v>mm</v>
+      </c>
+      <c r="U70" s="83" t="str">
+        <f t="shared" si="0"/>
+        <v>mn</v>
+      </c>
+      <c r="V70" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>mf</v>
+      </c>
+      <c r="W70" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>mv</v>
+      </c>
+      <c r="X70" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>mθ</v>
+      </c>
+      <c r="Y70" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>mð</v>
+      </c>
+      <c r="Z70" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>mʍ</v>
+      </c>
+      <c r="AA70" s="83" t="str">
+        <f t="shared" si="0"/>
+        <v>mЋ</v>
+      </c>
+      <c r="AB70" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>mp</v>
+      </c>
+      <c r="AC70" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>mt</v>
+      </c>
+      <c r="AD70" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>mb</v>
+      </c>
+      <c r="AE70" s="83" t="str">
+        <f t="shared" si="0"/>
+        <v>md</v>
+      </c>
+      <c r="AF70" s="83" t="str">
+        <f t="shared" si="0"/>
+        <v>mʔ</v>
+      </c>
+    </row>
+    <row r="71" spans="6:32" x14ac:dyDescent="0.25">
+      <c r="F71" s="59"/>
+      <c r="G71" s="54"/>
+      <c r="H71" s="54"/>
+      <c r="I71" s="68" t="s">
+        <v>7</v>
+      </c>
+      <c r="J71" s="84" t="str">
+        <f t="shared" si="1"/>
+        <v>nਨ</v>
+      </c>
+      <c r="K71" s="84" t="str">
+        <f t="shared" si="1"/>
+        <v>nw</v>
+      </c>
+      <c r="L71" s="85" t="str">
+        <f t="shared" si="1"/>
+        <v>nl</v>
+      </c>
+      <c r="M71" s="85" t="str">
+        <f t="shared" si="1"/>
+        <v>nr</v>
+      </c>
+      <c r="N71" s="85" t="str">
+        <f t="shared" si="1"/>
+        <v>nɾ</v>
+      </c>
+      <c r="O71" s="85" t="str">
+        <f t="shared" si="0"/>
+        <v>nɹ</v>
+      </c>
+      <c r="P71" s="85" t="str">
+        <f t="shared" si="0"/>
+        <v>nʀ</v>
+      </c>
+      <c r="Q71" s="85" t="str">
+        <f t="shared" si="0"/>
+        <v>nʁ</v>
+      </c>
+      <c r="R71" s="85" t="str">
+        <f t="shared" si="0"/>
+        <v>nɣ</v>
+      </c>
+      <c r="S71" s="86" t="str">
+        <f t="shared" si="0"/>
+        <v>nʙ</v>
+      </c>
+      <c r="T71" s="85" t="str">
+        <f t="shared" si="0"/>
+        <v>nm</v>
+      </c>
+      <c r="U71" s="92" t="str">
+        <f t="shared" si="0"/>
+        <v>nn</v>
+      </c>
+      <c r="V71" s="85" t="str">
+        <f t="shared" si="0"/>
+        <v>nf</v>
+      </c>
+      <c r="W71" s="85" t="str">
+        <f t="shared" si="0"/>
+        <v>nv</v>
+      </c>
+      <c r="X71" s="85" t="str">
+        <f t="shared" si="0"/>
+        <v>nθ</v>
+      </c>
+      <c r="Y71" s="85" t="str">
+        <f t="shared" si="0"/>
+        <v>nð</v>
+      </c>
+      <c r="Z71" s="85" t="str">
+        <f t="shared" si="0"/>
+        <v>nʍ</v>
+      </c>
+      <c r="AA71" s="86" t="str">
+        <f t="shared" si="0"/>
+        <v>nЋ</v>
+      </c>
+      <c r="AB71" s="85" t="str">
+        <f t="shared" si="0"/>
+        <v>np</v>
+      </c>
+      <c r="AC71" s="85" t="str">
+        <f t="shared" si="0"/>
+        <v>nt</v>
+      </c>
+      <c r="AD71" s="85" t="str">
+        <f t="shared" si="0"/>
+        <v>nb</v>
+      </c>
+      <c r="AE71" s="86" t="str">
+        <f t="shared" si="0"/>
+        <v>nd</v>
+      </c>
+      <c r="AF71" s="86" t="str">
+        <f t="shared" si="0"/>
+        <v>nʔ</v>
+      </c>
+    </row>
+    <row r="72" spans="6:32" x14ac:dyDescent="0.25">
+      <c r="F72" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="G72" s="41"/>
+      <c r="H72" s="41"/>
+      <c r="I72" s="64" t="s">
+        <v>29</v>
+      </c>
+      <c r="J72" s="82" t="str">
+        <f t="shared" si="1"/>
+        <v>fਨ</v>
+      </c>
+      <c r="K72" s="82" t="str">
+        <f t="shared" si="1"/>
+        <v>fw</v>
+      </c>
+      <c r="L72" s="80" t="str">
+        <f t="shared" si="1"/>
+        <v>fl</v>
+      </c>
+      <c r="M72" s="80" t="str">
+        <f t="shared" si="1"/>
+        <v>fr</v>
+      </c>
+      <c r="N72" s="80" t="str">
+        <f t="shared" si="1"/>
+        <v>fɾ</v>
+      </c>
+      <c r="O72" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>fɹ</v>
+      </c>
+      <c r="P72" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>fʀ</v>
+      </c>
+      <c r="Q72" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>fʁ</v>
+      </c>
+      <c r="R72" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>fɣ</v>
+      </c>
+      <c r="S72" s="83" t="str">
+        <f t="shared" si="0"/>
+        <v>fʙ</v>
+      </c>
+      <c r="T72" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>fm</v>
+      </c>
+      <c r="U72" s="83" t="str">
+        <f t="shared" si="0"/>
+        <v>fn</v>
+      </c>
+      <c r="V72" s="90" t="str">
+        <f t="shared" si="0"/>
+        <v>ff</v>
+      </c>
+      <c r="W72" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>fv</v>
+      </c>
+      <c r="X72" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>fθ</v>
+      </c>
+      <c r="Y72" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>fð</v>
+      </c>
+      <c r="Z72" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>fʍ</v>
+      </c>
+      <c r="AA72" s="83" t="str">
+        <f t="shared" si="0"/>
+        <v>fЋ</v>
+      </c>
+      <c r="AB72" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>fp</v>
+      </c>
+      <c r="AC72" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>ft</v>
+      </c>
+      <c r="AD72" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>fb</v>
+      </c>
+      <c r="AE72" s="83" t="str">
+        <f t="shared" si="0"/>
+        <v>fd</v>
+      </c>
+      <c r="AF72" s="83" t="str">
+        <f t="shared" si="0"/>
+        <v>fʔ</v>
+      </c>
+    </row>
+    <row r="73" spans="6:32" x14ac:dyDescent="0.25">
+      <c r="F73" s="57"/>
+      <c r="G73" s="58"/>
+      <c r="H73" s="58"/>
+      <c r="I73" s="65" t="s">
+        <v>26</v>
+      </c>
+      <c r="J73" s="82" t="str">
+        <f t="shared" si="1"/>
+        <v>vਨ</v>
+      </c>
+      <c r="K73" s="82" t="str">
+        <f t="shared" si="1"/>
+        <v>vw</v>
+      </c>
+      <c r="L73" s="80" t="str">
+        <f t="shared" si="1"/>
+        <v>vl</v>
+      </c>
+      <c r="M73" s="80" t="str">
+        <f t="shared" si="1"/>
+        <v>vr</v>
+      </c>
+      <c r="N73" s="80" t="str">
+        <f t="shared" si="1"/>
+        <v>vɾ</v>
+      </c>
+      <c r="O73" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>vɹ</v>
+      </c>
+      <c r="P73" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>vʀ</v>
+      </c>
+      <c r="Q73" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>vʁ</v>
+      </c>
+      <c r="R73" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>vɣ</v>
+      </c>
+      <c r="S73" s="83" t="str">
+        <f t="shared" si="0"/>
+        <v>vʙ</v>
+      </c>
+      <c r="T73" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>vm</v>
+      </c>
+      <c r="U73" s="83" t="str">
+        <f t="shared" si="0"/>
+        <v>vn</v>
+      </c>
+      <c r="V73" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>vf</v>
+      </c>
+      <c r="W73" s="91" t="str">
+        <f t="shared" si="0"/>
+        <v>vv</v>
+      </c>
+      <c r="X73" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>vθ</v>
+      </c>
+      <c r="Y73" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>vð</v>
+      </c>
+      <c r="Z73" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>vʍ</v>
+      </c>
+      <c r="AA73" s="83" t="str">
+        <f t="shared" si="0"/>
+        <v>vЋ</v>
+      </c>
+      <c r="AB73" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>vp</v>
+      </c>
+      <c r="AC73" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>vt</v>
+      </c>
+      <c r="AD73" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>vb</v>
+      </c>
+      <c r="AE73" s="83" t="str">
+        <f t="shared" si="0"/>
+        <v>vd</v>
+      </c>
+      <c r="AF73" s="83" t="str">
+        <f t="shared" si="0"/>
+        <v>vʔ</v>
+      </c>
+    </row>
+    <row r="74" spans="6:32" x14ac:dyDescent="0.25">
+      <c r="F74" s="57"/>
+      <c r="G74" s="58"/>
+      <c r="H74" s="58"/>
+      <c r="I74" s="65" t="s">
+        <v>65</v>
+      </c>
+      <c r="J74" s="82" t="str">
+        <f t="shared" si="1"/>
+        <v>θਨ</v>
+      </c>
+      <c r="K74" s="82" t="str">
+        <f t="shared" si="1"/>
+        <v>θw</v>
+      </c>
+      <c r="L74" s="80" t="str">
+        <f t="shared" si="1"/>
+        <v>θl</v>
+      </c>
+      <c r="M74" s="80" t="str">
+        <f t="shared" si="1"/>
+        <v>θr</v>
+      </c>
+      <c r="N74" s="80" t="str">
+        <f t="shared" si="1"/>
+        <v>θɾ</v>
+      </c>
+      <c r="O74" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>θɹ</v>
+      </c>
+      <c r="P74" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>θʀ</v>
+      </c>
+      <c r="Q74" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>θʁ</v>
+      </c>
+      <c r="R74" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>θɣ</v>
+      </c>
+      <c r="S74" s="83" t="str">
+        <f t="shared" si="0"/>
+        <v>θʙ</v>
+      </c>
+      <c r="T74" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>θm</v>
+      </c>
+      <c r="U74" s="83" t="str">
+        <f t="shared" si="0"/>
+        <v>θn</v>
+      </c>
+      <c r="V74" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>θf</v>
+      </c>
+      <c r="W74" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>θv</v>
+      </c>
+      <c r="X74" s="91" t="str">
+        <f t="shared" si="0"/>
+        <v>θθ</v>
+      </c>
+      <c r="Y74" s="80" t="str">
+        <f t="shared" ref="O74:AF82" si="2">$I74&amp;Y$59</f>
+        <v>θð</v>
+      </c>
+      <c r="Z74" s="80" t="str">
+        <f t="shared" si="2"/>
+        <v>θʍ</v>
+      </c>
+      <c r="AA74" s="83" t="str">
+        <f t="shared" si="2"/>
+        <v>θЋ</v>
+      </c>
+      <c r="AB74" s="80" t="str">
+        <f t="shared" si="2"/>
+        <v>θp</v>
+      </c>
+      <c r="AC74" s="80" t="str">
+        <f t="shared" si="2"/>
+        <v>θt</v>
+      </c>
+      <c r="AD74" s="80" t="str">
+        <f t="shared" si="2"/>
+        <v>θb</v>
+      </c>
+      <c r="AE74" s="83" t="str">
+        <f t="shared" si="2"/>
+        <v>θd</v>
+      </c>
+      <c r="AF74" s="83" t="str">
+        <f t="shared" si="2"/>
+        <v>θʔ</v>
+      </c>
+    </row>
+    <row r="75" spans="6:32" x14ac:dyDescent="0.25">
+      <c r="F75" s="57"/>
+      <c r="G75" s="58"/>
+      <c r="H75" s="58"/>
+      <c r="I75" s="65" t="s">
+        <v>66</v>
+      </c>
+      <c r="J75" s="82" t="str">
+        <f t="shared" si="1"/>
+        <v>ðਨ</v>
+      </c>
+      <c r="K75" s="82" t="str">
+        <f t="shared" si="1"/>
+        <v>ðw</v>
+      </c>
+      <c r="L75" s="80" t="str">
+        <f t="shared" si="1"/>
+        <v>ðl</v>
+      </c>
+      <c r="M75" s="80" t="str">
+        <f t="shared" si="1"/>
+        <v>ðr</v>
+      </c>
+      <c r="N75" s="80" t="str">
+        <f t="shared" si="1"/>
+        <v>ðɾ</v>
+      </c>
+      <c r="O75" s="80" t="str">
+        <f t="shared" si="2"/>
+        <v>ðɹ</v>
+      </c>
+      <c r="P75" s="80" t="str">
+        <f t="shared" si="2"/>
+        <v>ðʀ</v>
+      </c>
+      <c r="Q75" s="80" t="str">
+        <f t="shared" si="2"/>
+        <v>ðʁ</v>
+      </c>
+      <c r="R75" s="80" t="str">
+        <f t="shared" si="2"/>
+        <v>ðɣ</v>
+      </c>
+      <c r="S75" s="83" t="str">
+        <f t="shared" si="2"/>
+        <v>ðʙ</v>
+      </c>
+      <c r="T75" s="80" t="str">
+        <f t="shared" si="2"/>
+        <v>ðm</v>
+      </c>
+      <c r="U75" s="83" t="str">
+        <f t="shared" si="2"/>
+        <v>ðn</v>
+      </c>
+      <c r="V75" s="80" t="str">
+        <f t="shared" si="2"/>
+        <v>ðf</v>
+      </c>
+      <c r="W75" s="80" t="str">
+        <f t="shared" si="2"/>
+        <v>ðv</v>
+      </c>
+      <c r="X75" s="80" t="str">
+        <f t="shared" si="2"/>
+        <v>ðθ</v>
+      </c>
+      <c r="Y75" s="91" t="str">
+        <f t="shared" si="2"/>
+        <v>ðð</v>
+      </c>
+      <c r="Z75" s="80" t="str">
+        <f t="shared" si="2"/>
+        <v>ðʍ</v>
+      </c>
+      <c r="AA75" s="83" t="str">
+        <f t="shared" si="2"/>
+        <v>ðЋ</v>
+      </c>
+      <c r="AB75" s="80" t="str">
+        <f t="shared" si="2"/>
+        <v>ðp</v>
+      </c>
+      <c r="AC75" s="80" t="str">
+        <f t="shared" si="2"/>
+        <v>ðt</v>
+      </c>
+      <c r="AD75" s="80" t="str">
+        <f t="shared" si="2"/>
+        <v>ðb</v>
+      </c>
+      <c r="AE75" s="83" t="str">
+        <f t="shared" si="2"/>
+        <v>ðd</v>
+      </c>
+      <c r="AF75" s="83" t="str">
+        <f t="shared" si="2"/>
+        <v>ðʔ</v>
+      </c>
+    </row>
+    <row r="76" spans="6:32" x14ac:dyDescent="0.25">
+      <c r="F76" s="57"/>
+      <c r="G76" s="58"/>
+      <c r="H76" s="58"/>
+      <c r="I76" s="65" t="s">
+        <v>115</v>
+      </c>
+      <c r="J76" s="82" t="str">
+        <f t="shared" si="1"/>
+        <v>ʍਨ</v>
+      </c>
+      <c r="K76" s="82" t="str">
+        <f t="shared" si="1"/>
+        <v>ʍw</v>
+      </c>
+      <c r="L76" s="80" t="str">
+        <f t="shared" si="1"/>
+        <v>ʍl</v>
+      </c>
+      <c r="M76" s="80" t="str">
+        <f t="shared" si="1"/>
+        <v>ʍr</v>
+      </c>
+      <c r="N76" s="80" t="str">
+        <f t="shared" si="1"/>
+        <v>ʍɾ</v>
+      </c>
+      <c r="O76" s="80" t="str">
+        <f t="shared" si="2"/>
+        <v>ʍɹ</v>
+      </c>
+      <c r="P76" s="80" t="str">
+        <f t="shared" si="2"/>
+        <v>ʍʀ</v>
+      </c>
+      <c r="Q76" s="80" t="str">
+        <f t="shared" si="2"/>
+        <v>ʍʁ</v>
+      </c>
+      <c r="R76" s="80" t="str">
+        <f t="shared" si="2"/>
+        <v>ʍɣ</v>
+      </c>
+      <c r="S76" s="83" t="str">
+        <f t="shared" si="2"/>
+        <v>ʍʙ</v>
+      </c>
+      <c r="T76" s="80" t="str">
+        <f t="shared" si="2"/>
+        <v>ʍm</v>
+      </c>
+      <c r="U76" s="83" t="str">
+        <f t="shared" si="2"/>
+        <v>ʍn</v>
+      </c>
+      <c r="V76" s="80" t="str">
+        <f t="shared" si="2"/>
+        <v>ʍf</v>
+      </c>
+      <c r="W76" s="80" t="str">
+        <f t="shared" si="2"/>
+        <v>ʍv</v>
+      </c>
+      <c r="X76" s="80" t="str">
+        <f t="shared" si="2"/>
+        <v>ʍθ</v>
+      </c>
+      <c r="Y76" s="80" t="str">
+        <f t="shared" si="2"/>
+        <v>ʍð</v>
+      </c>
+      <c r="Z76" s="91" t="str">
+        <f t="shared" si="2"/>
+        <v>ʍʍ</v>
+      </c>
+      <c r="AA76" s="83" t="str">
+        <f t="shared" si="2"/>
+        <v>ʍЋ</v>
+      </c>
+      <c r="AB76" s="80" t="str">
+        <f t="shared" si="2"/>
+        <v>ʍp</v>
+      </c>
+      <c r="AC76" s="80" t="str">
+        <f t="shared" si="2"/>
+        <v>ʍt</v>
+      </c>
+      <c r="AD76" s="80" t="str">
+        <f t="shared" si="2"/>
+        <v>ʍb</v>
+      </c>
+      <c r="AE76" s="83" t="str">
+        <f t="shared" si="2"/>
+        <v>ʍd</v>
+      </c>
+      <c r="AF76" s="83" t="str">
+        <f t="shared" si="2"/>
+        <v>ʍʔ</v>
+      </c>
+    </row>
+    <row r="77" spans="6:32" x14ac:dyDescent="0.25">
+      <c r="F77" s="59"/>
+      <c r="G77" s="54"/>
+      <c r="H77" s="74"/>
+      <c r="I77" s="119" t="s">
+        <v>119</v>
+      </c>
+      <c r="J77" s="84" t="str">
+        <f t="shared" ref="J77:Y82" si="3">$I77&amp;J$59</f>
+        <v>Ћਨ</v>
+      </c>
+      <c r="K77" s="84" t="str">
+        <f t="shared" si="3"/>
+        <v>Ћw</v>
+      </c>
+      <c r="L77" s="85" t="str">
+        <f t="shared" si="3"/>
+        <v>Ћl</v>
+      </c>
+      <c r="M77" s="85" t="str">
+        <f t="shared" si="3"/>
+        <v>Ћr</v>
+      </c>
+      <c r="N77" s="85" t="str">
+        <f t="shared" si="3"/>
+        <v>Ћɾ</v>
+      </c>
+      <c r="O77" s="85" t="str">
+        <f t="shared" si="3"/>
+        <v>Ћɹ</v>
+      </c>
+      <c r="P77" s="85" t="str">
+        <f t="shared" si="3"/>
+        <v>Ћʀ</v>
+      </c>
+      <c r="Q77" s="85" t="str">
+        <f t="shared" si="3"/>
+        <v>Ћʁ</v>
+      </c>
+      <c r="R77" s="85" t="str">
+        <f t="shared" si="3"/>
+        <v>Ћɣ</v>
+      </c>
+      <c r="S77" s="86" t="str">
+        <f t="shared" si="3"/>
+        <v>Ћʙ</v>
+      </c>
+      <c r="T77" s="85" t="str">
+        <f t="shared" si="3"/>
+        <v>Ћm</v>
+      </c>
+      <c r="U77" s="86" t="str">
+        <f t="shared" si="3"/>
+        <v>Ћn</v>
+      </c>
+      <c r="V77" s="85" t="str">
+        <f t="shared" si="3"/>
+        <v>Ћf</v>
+      </c>
+      <c r="W77" s="85" t="str">
+        <f t="shared" si="3"/>
+        <v>Ћv</v>
+      </c>
+      <c r="X77" s="85" t="str">
+        <f t="shared" si="3"/>
+        <v>Ћθ</v>
+      </c>
+      <c r="Y77" s="85" t="str">
+        <f t="shared" si="3"/>
+        <v>Ћð</v>
+      </c>
+      <c r="Z77" s="85" t="str">
+        <f t="shared" si="2"/>
+        <v>Ћʍ</v>
+      </c>
+      <c r="AA77" s="92" t="str">
+        <f t="shared" si="2"/>
+        <v>ЋЋ</v>
+      </c>
+      <c r="AB77" s="85" t="str">
+        <f t="shared" si="2"/>
+        <v>Ћp</v>
+      </c>
+      <c r="AC77" s="85" t="str">
+        <f t="shared" si="2"/>
+        <v>Ћt</v>
+      </c>
+      <c r="AD77" s="85" t="str">
+        <f t="shared" si="2"/>
+        <v>Ћb</v>
+      </c>
+      <c r="AE77" s="86" t="str">
+        <f t="shared" si="2"/>
+        <v>Ћd</v>
+      </c>
+      <c r="AF77" s="86" t="str">
+        <f t="shared" si="2"/>
+        <v>Ћʔ</v>
+      </c>
+    </row>
+    <row r="78" spans="6:32" x14ac:dyDescent="0.25">
+      <c r="F78" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="G78" s="41"/>
+      <c r="H78" s="41"/>
+      <c r="I78" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="J78" s="82" t="str">
+        <f t="shared" si="3"/>
+        <v>pਨ</v>
+      </c>
+      <c r="K78" s="82" t="str">
+        <f t="shared" si="3"/>
+        <v>pw</v>
+      </c>
+      <c r="L78" s="80" t="str">
+        <f t="shared" si="3"/>
+        <v>pl</v>
+      </c>
+      <c r="M78" s="80" t="str">
+        <f t="shared" si="3"/>
+        <v>pr</v>
+      </c>
+      <c r="N78" s="80" t="str">
+        <f t="shared" si="3"/>
+        <v>pɾ</v>
+      </c>
+      <c r="O78" s="80" t="str">
+        <f t="shared" si="2"/>
+        <v>pɹ</v>
+      </c>
+      <c r="P78" s="80" t="str">
+        <f t="shared" si="2"/>
+        <v>pʀ</v>
+      </c>
+      <c r="Q78" s="80" t="str">
+        <f t="shared" si="2"/>
+        <v>pʁ</v>
+      </c>
+      <c r="R78" s="80" t="str">
+        <f t="shared" si="2"/>
+        <v>pɣ</v>
+      </c>
+      <c r="S78" s="83" t="str">
+        <f t="shared" si="2"/>
+        <v>pʙ</v>
+      </c>
+      <c r="T78" s="80" t="str">
+        <f t="shared" si="2"/>
+        <v>pm</v>
+      </c>
+      <c r="U78" s="83" t="str">
+        <f t="shared" si="2"/>
+        <v>pn</v>
+      </c>
+      <c r="V78" s="80" t="str">
+        <f t="shared" si="2"/>
+        <v>pf</v>
+      </c>
+      <c r="W78" s="80" t="str">
+        <f t="shared" si="2"/>
+        <v>pv</v>
+      </c>
+      <c r="X78" s="80" t="str">
+        <f t="shared" si="2"/>
+        <v>pθ</v>
+      </c>
+      <c r="Y78" s="80" t="str">
+        <f t="shared" si="2"/>
+        <v>pð</v>
+      </c>
+      <c r="Z78" s="80" t="str">
+        <f t="shared" si="2"/>
+        <v>pʍ</v>
+      </c>
+      <c r="AA78" s="83" t="str">
+        <f t="shared" si="2"/>
+        <v>pЋ</v>
+      </c>
+      <c r="AB78" s="90" t="str">
+        <f t="shared" si="2"/>
+        <v>pp</v>
+      </c>
+      <c r="AC78" s="80" t="str">
+        <f t="shared" si="2"/>
+        <v>pt</v>
+      </c>
+      <c r="AD78" s="80" t="str">
+        <f t="shared" si="2"/>
+        <v>pb</v>
+      </c>
+      <c r="AE78" s="83" t="str">
+        <f t="shared" si="2"/>
+        <v>pd</v>
+      </c>
+      <c r="AF78" s="83" t="str">
+        <f t="shared" si="2"/>
+        <v>pʔ</v>
+      </c>
+    </row>
+    <row r="79" spans="6:32" x14ac:dyDescent="0.25">
+      <c r="F79" s="57"/>
+      <c r="G79" s="58"/>
+      <c r="H79" s="58"/>
+      <c r="I79" s="69" t="s">
+        <v>21</v>
+      </c>
+      <c r="J79" s="82" t="str">
+        <f t="shared" si="3"/>
+        <v>tਨ</v>
+      </c>
+      <c r="K79" s="82" t="str">
+        <f t="shared" si="3"/>
+        <v>tw</v>
+      </c>
+      <c r="L79" s="80" t="str">
+        <f t="shared" si="3"/>
+        <v>tl</v>
+      </c>
+      <c r="M79" s="80" t="str">
+        <f t="shared" si="3"/>
+        <v>tr</v>
+      </c>
+      <c r="N79" s="80" t="str">
+        <f t="shared" si="3"/>
+        <v>tɾ</v>
+      </c>
+      <c r="O79" s="80" t="str">
+        <f t="shared" si="2"/>
+        <v>tɹ</v>
+      </c>
+      <c r="P79" s="80" t="str">
+        <f t="shared" si="2"/>
+        <v>tʀ</v>
+      </c>
+      <c r="Q79" s="80" t="str">
+        <f t="shared" si="2"/>
+        <v>tʁ</v>
+      </c>
+      <c r="R79" s="80" t="str">
+        <f t="shared" si="2"/>
+        <v>tɣ</v>
+      </c>
+      <c r="S79" s="83" t="str">
+        <f t="shared" si="2"/>
+        <v>tʙ</v>
+      </c>
+      <c r="T79" s="80" t="str">
+        <f t="shared" si="2"/>
+        <v>tm</v>
+      </c>
+      <c r="U79" s="83" t="str">
+        <f t="shared" si="2"/>
+        <v>tn</v>
+      </c>
+      <c r="V79" s="80" t="str">
+        <f t="shared" si="2"/>
+        <v>tf</v>
+      </c>
+      <c r="W79" s="80" t="str">
+        <f t="shared" si="2"/>
+        <v>tv</v>
+      </c>
+      <c r="X79" s="80" t="str">
+        <f t="shared" si="2"/>
+        <v>tθ</v>
+      </c>
+      <c r="Y79" s="80" t="str">
+        <f t="shared" si="2"/>
+        <v>tð</v>
+      </c>
+      <c r="Z79" s="80" t="str">
+        <f t="shared" si="2"/>
+        <v>tʍ</v>
+      </c>
+      <c r="AA79" s="83" t="str">
+        <f t="shared" si="2"/>
+        <v>tЋ</v>
+      </c>
+      <c r="AB79" s="80" t="str">
+        <f t="shared" si="2"/>
+        <v>tp</v>
+      </c>
+      <c r="AC79" s="91" t="str">
+        <f t="shared" si="2"/>
+        <v>tt</v>
+      </c>
+      <c r="AD79" s="80" t="str">
+        <f t="shared" si="2"/>
+        <v>tb</v>
+      </c>
+      <c r="AE79" s="83" t="str">
+        <f t="shared" si="2"/>
+        <v>td</v>
+      </c>
+      <c r="AF79" s="83" t="str">
+        <f t="shared" si="2"/>
+        <v>tʔ</v>
+      </c>
+    </row>
+    <row r="80" spans="6:32" x14ac:dyDescent="0.25">
+      <c r="F80" s="57"/>
+      <c r="G80" s="58"/>
+      <c r="H80" s="58"/>
+      <c r="I80" s="69" t="s">
+        <v>23</v>
+      </c>
+      <c r="J80" s="82" t="str">
+        <f t="shared" si="3"/>
+        <v>bਨ</v>
+      </c>
+      <c r="K80" s="82" t="str">
+        <f t="shared" si="3"/>
+        <v>bw</v>
+      </c>
+      <c r="L80" s="80" t="str">
+        <f t="shared" si="3"/>
+        <v>bl</v>
+      </c>
+      <c r="M80" s="80" t="str">
+        <f t="shared" si="3"/>
+        <v>br</v>
+      </c>
+      <c r="N80" s="80" t="str">
+        <f t="shared" si="3"/>
+        <v>bɾ</v>
+      </c>
+      <c r="O80" s="80" t="str">
+        <f t="shared" si="2"/>
+        <v>bɹ</v>
+      </c>
+      <c r="P80" s="80" t="str">
+        <f t="shared" si="2"/>
+        <v>bʀ</v>
+      </c>
+      <c r="Q80" s="80" t="str">
+        <f t="shared" si="2"/>
+        <v>bʁ</v>
+      </c>
+      <c r="R80" s="80" t="str">
+        <f t="shared" si="2"/>
+        <v>bɣ</v>
+      </c>
+      <c r="S80" s="83" t="str">
+        <f t="shared" si="2"/>
+        <v>bʙ</v>
+      </c>
+      <c r="T80" s="80" t="str">
+        <f t="shared" si="2"/>
+        <v>bm</v>
+      </c>
+      <c r="U80" s="83" t="str">
+        <f t="shared" si="2"/>
+        <v>bn</v>
+      </c>
+      <c r="V80" s="80" t="str">
+        <f t="shared" si="2"/>
+        <v>bf</v>
+      </c>
+      <c r="W80" s="80" t="str">
+        <f t="shared" si="2"/>
+        <v>bv</v>
+      </c>
+      <c r="X80" s="80" t="str">
+        <f t="shared" si="2"/>
+        <v>bθ</v>
+      </c>
+      <c r="Y80" s="80" t="str">
+        <f t="shared" si="2"/>
+        <v>bð</v>
+      </c>
+      <c r="Z80" s="80" t="str">
+        <f t="shared" si="2"/>
+        <v>bʍ</v>
+      </c>
+      <c r="AA80" s="83" t="str">
+        <f t="shared" si="2"/>
+        <v>bЋ</v>
+      </c>
+      <c r="AB80" s="80" t="str">
+        <f t="shared" si="2"/>
+        <v>bp</v>
+      </c>
+      <c r="AC80" s="80" t="str">
+        <f t="shared" si="2"/>
+        <v>bt</v>
+      </c>
+      <c r="AD80" s="91" t="str">
+        <f t="shared" si="2"/>
+        <v>bb</v>
+      </c>
+      <c r="AE80" s="83" t="str">
+        <f t="shared" si="2"/>
+        <v>bd</v>
+      </c>
+      <c r="AF80" s="83" t="str">
+        <f t="shared" si="2"/>
+        <v>bʔ</v>
+      </c>
+    </row>
+    <row r="81" spans="6:32" x14ac:dyDescent="0.25">
+      <c r="F81" s="59"/>
+      <c r="G81" s="54"/>
+      <c r="H81" s="54"/>
+      <c r="I81" s="68" t="s">
+        <v>24</v>
+      </c>
+      <c r="J81" s="82" t="str">
+        <f t="shared" si="3"/>
+        <v>dਨ</v>
+      </c>
+      <c r="K81" s="82" t="str">
+        <f t="shared" si="3"/>
+        <v>dw</v>
+      </c>
+      <c r="L81" s="80" t="str">
+        <f t="shared" si="3"/>
+        <v>dl</v>
+      </c>
+      <c r="M81" s="80" t="str">
+        <f t="shared" si="3"/>
+        <v>dr</v>
+      </c>
+      <c r="N81" s="80" t="str">
+        <f t="shared" si="3"/>
+        <v>dɾ</v>
+      </c>
+      <c r="O81" s="80" t="str">
+        <f t="shared" si="2"/>
+        <v>dɹ</v>
+      </c>
+      <c r="P81" s="80" t="str">
+        <f t="shared" si="2"/>
+        <v>dʀ</v>
+      </c>
+      <c r="Q81" s="80" t="str">
+        <f t="shared" si="2"/>
+        <v>dʁ</v>
+      </c>
+      <c r="R81" s="80" t="str">
+        <f t="shared" si="2"/>
+        <v>dɣ</v>
+      </c>
+      <c r="S81" s="83" t="str">
+        <f t="shared" si="2"/>
+        <v>dʙ</v>
+      </c>
+      <c r="T81" s="80" t="str">
+        <f t="shared" si="2"/>
+        <v>dm</v>
+      </c>
+      <c r="U81" s="83" t="str">
+        <f t="shared" si="2"/>
+        <v>dn</v>
+      </c>
+      <c r="V81" s="80" t="str">
+        <f t="shared" si="2"/>
+        <v>df</v>
+      </c>
+      <c r="W81" s="80" t="str">
+        <f t="shared" si="2"/>
+        <v>dv</v>
+      </c>
+      <c r="X81" s="80" t="str">
+        <f t="shared" si="2"/>
+        <v>dθ</v>
+      </c>
+      <c r="Y81" s="80" t="str">
+        <f t="shared" si="2"/>
+        <v>dð</v>
+      </c>
+      <c r="Z81" s="80" t="str">
+        <f t="shared" si="2"/>
+        <v>dʍ</v>
+      </c>
+      <c r="AA81" s="83" t="str">
+        <f t="shared" si="2"/>
+        <v>dЋ</v>
+      </c>
+      <c r="AB81" s="80" t="str">
+        <f t="shared" si="2"/>
+        <v>dp</v>
+      </c>
+      <c r="AC81" s="80" t="str">
+        <f t="shared" si="2"/>
+        <v>dt</v>
+      </c>
+      <c r="AD81" s="80" t="str">
+        <f t="shared" si="2"/>
+        <v>db</v>
+      </c>
+      <c r="AE81" s="92" t="str">
+        <f t="shared" si="2"/>
+        <v>dd</v>
+      </c>
+      <c r="AF81" s="83" t="str">
+        <f t="shared" si="2"/>
+        <v>dʔ</v>
+      </c>
+    </row>
+    <row r="82" spans="6:32" x14ac:dyDescent="0.25">
+      <c r="F82" s="32" t="s">
+        <v>285</v>
+      </c>
+      <c r="G82" s="40"/>
+      <c r="H82" s="40"/>
+      <c r="I82" s="62" t="s">
+        <v>73</v>
+      </c>
+      <c r="J82" s="75" t="str">
+        <f t="shared" si="3"/>
+        <v>ʔਨ</v>
+      </c>
+      <c r="K82" s="75" t="str">
+        <f t="shared" si="3"/>
+        <v>ʔw</v>
+      </c>
+      <c r="L82" s="77" t="str">
+        <f t="shared" si="3"/>
+        <v>ʔl</v>
+      </c>
+      <c r="M82" s="77" t="str">
+        <f t="shared" si="3"/>
+        <v>ʔr</v>
+      </c>
+      <c r="N82" s="77" t="str">
+        <f t="shared" si="3"/>
+        <v>ʔɾ</v>
+      </c>
+      <c r="O82" s="77" t="str">
+        <f t="shared" si="2"/>
+        <v>ʔɹ</v>
+      </c>
+      <c r="P82" s="77" t="str">
+        <f t="shared" si="2"/>
+        <v>ʔʀ</v>
+      </c>
+      <c r="Q82" s="77" t="str">
+        <f t="shared" si="2"/>
+        <v>ʔʁ</v>
+      </c>
+      <c r="R82" s="77" t="str">
+        <f t="shared" si="2"/>
+        <v>ʔɣ</v>
+      </c>
+      <c r="S82" s="78" t="str">
+        <f t="shared" si="2"/>
+        <v>ʔʙ</v>
+      </c>
+      <c r="T82" s="77" t="str">
+        <f t="shared" si="2"/>
+        <v>ʔm</v>
+      </c>
+      <c r="U82" s="78" t="str">
+        <f t="shared" si="2"/>
+        <v>ʔn</v>
+      </c>
+      <c r="V82" s="77" t="str">
+        <f t="shared" si="2"/>
+        <v>ʔf</v>
+      </c>
+      <c r="W82" s="77" t="str">
+        <f t="shared" si="2"/>
+        <v>ʔv</v>
+      </c>
+      <c r="X82" s="77" t="str">
+        <f t="shared" si="2"/>
+        <v>ʔθ</v>
+      </c>
+      <c r="Y82" s="77" t="str">
+        <f t="shared" si="2"/>
+        <v>ʔð</v>
+      </c>
+      <c r="Z82" s="77" t="str">
+        <f t="shared" si="2"/>
+        <v>ʔʍ</v>
+      </c>
+      <c r="AA82" s="78" t="str">
+        <f t="shared" si="2"/>
+        <v>ʔЋ</v>
+      </c>
+      <c r="AB82" s="77" t="str">
+        <f t="shared" si="2"/>
+        <v>ʔp</v>
+      </c>
+      <c r="AC82" s="77" t="str">
+        <f t="shared" si="2"/>
+        <v>ʔt</v>
+      </c>
+      <c r="AD82" s="77" t="str">
+        <f t="shared" si="2"/>
+        <v>ʔb</v>
+      </c>
+      <c r="AE82" s="78" t="str">
+        <f t="shared" si="2"/>
+        <v>ʔd</v>
+      </c>
+      <c r="AF82" s="89" t="str">
+        <f t="shared" si="2"/>
+        <v>ʔʔ</v>
+      </c>
+    </row>
+    <row r="90" spans="6:32" x14ac:dyDescent="0.25">
+      <c r="I90" t="s">
+        <v>288</v>
+      </c>
+      <c r="J90" s="62" t="s">
+        <v>279</v>
+      </c>
+      <c r="K90" s="63" t="s">
+        <v>116</v>
+      </c>
+      <c r="L90" s="70" t="s">
+        <v>33</v>
+      </c>
+      <c r="M90" s="73" t="s">
+        <v>27</v>
+      </c>
+      <c r="N90" s="73" t="s">
+        <v>70</v>
+      </c>
+      <c r="O90" s="73" t="s">
+        <v>71</v>
+      </c>
+      <c r="P90" s="73" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q90" s="73" t="s">
+        <v>74</v>
+      </c>
+      <c r="R90" s="73" t="s">
+        <v>117</v>
+      </c>
+      <c r="S90" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="T90" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="U90" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="V90" s="70" t="s">
+        <v>29</v>
+      </c>
+      <c r="W90" s="73" t="s">
+        <v>26</v>
+      </c>
+      <c r="X90" s="73" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y90" s="73" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z90" s="73" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA90" s="56" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB90" s="72" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC90" s="71" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD90" s="71" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE90" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF90" s="62" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="91" spans="6:32" x14ac:dyDescent="0.25">
+      <c r="F91" s="32" t="s">
+        <v>286</v>
+      </c>
+      <c r="G91" s="61"/>
+      <c r="H91" s="40"/>
+      <c r="I91" s="62" t="s">
+        <v>279</v>
+      </c>
+      <c r="J91" s="89" t="str">
+        <f>$I91&amp;J$59</f>
+        <v>ਨਨ</v>
+      </c>
+      <c r="K91" s="75" t="str">
+        <f t="shared" ref="K91:AF105" si="4">$I91&amp;K$59</f>
+        <v>ਨw</v>
+      </c>
+      <c r="L91" s="76" t="str">
+        <f t="shared" si="4"/>
+        <v>ਨl</v>
+      </c>
+      <c r="M91" s="77" t="str">
+        <f t="shared" si="4"/>
+        <v>ਨr</v>
+      </c>
+      <c r="N91" s="77" t="str">
+        <f t="shared" si="4"/>
+        <v>ਨɾ</v>
+      </c>
+      <c r="O91" s="77" t="str">
+        <f t="shared" si="4"/>
+        <v>ਨɹ</v>
+      </c>
+      <c r="P91" s="77" t="str">
+        <f t="shared" si="4"/>
+        <v>ਨʀ</v>
+      </c>
+      <c r="Q91" s="77" t="str">
+        <f t="shared" si="4"/>
+        <v>ਨʁ</v>
+      </c>
+      <c r="R91" s="77" t="str">
+        <f t="shared" si="4"/>
+        <v>ਨɣ</v>
+      </c>
+      <c r="S91" s="78" t="str">
+        <f t="shared" si="4"/>
+        <v>ਨʙ</v>
+      </c>
+      <c r="T91" s="76" t="str">
+        <f t="shared" si="4"/>
+        <v>ਨm</v>
+      </c>
+      <c r="U91" s="78" t="str">
+        <f t="shared" si="4"/>
+        <v>ਨn</v>
+      </c>
+      <c r="V91" s="76" t="str">
+        <f t="shared" si="4"/>
+        <v>ਨf</v>
+      </c>
+      <c r="W91" s="77" t="str">
+        <f t="shared" si="4"/>
+        <v>ਨv</v>
+      </c>
+      <c r="X91" s="77" t="str">
+        <f t="shared" si="4"/>
+        <v>ਨθ</v>
+      </c>
+      <c r="Y91" s="77" t="str">
+        <f t="shared" si="4"/>
+        <v>ਨð</v>
+      </c>
+      <c r="Z91" s="77" t="str">
+        <f t="shared" si="4"/>
+        <v>ਨʍ</v>
+      </c>
+      <c r="AA91" s="78" t="str">
+        <f t="shared" si="4"/>
+        <v>ਨЋ</v>
+      </c>
+      <c r="AB91" s="77" t="str">
+        <f t="shared" si="4"/>
+        <v>ਨp</v>
+      </c>
+      <c r="AC91" s="77" t="str">
+        <f t="shared" si="4"/>
+        <v>ਨt</v>
+      </c>
+      <c r="AD91" s="77" t="str">
+        <f t="shared" si="4"/>
+        <v>ਨb</v>
+      </c>
+      <c r="AE91" s="78" t="str">
+        <f t="shared" si="4"/>
+        <v>ਨd</v>
+      </c>
+      <c r="AF91" s="78" t="str">
+        <f t="shared" si="4"/>
+        <v>ਨʔ</v>
+      </c>
+    </row>
+    <row r="92" spans="6:32" x14ac:dyDescent="0.25">
+      <c r="F92" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="G92" s="40"/>
+      <c r="H92" s="40"/>
+      <c r="I92" s="63" t="s">
+        <v>116</v>
+      </c>
+      <c r="J92" s="75" t="str">
+        <f t="shared" ref="J92:Y107" si="5">$I92&amp;J$59</f>
+        <v>wਨ</v>
+      </c>
+      <c r="K92" s="89" t="str">
+        <f t="shared" si="5"/>
+        <v>ww</v>
+      </c>
+      <c r="L92" s="76" t="str">
+        <f t="shared" si="5"/>
+        <v>wl</v>
+      </c>
+      <c r="M92" s="77" t="str">
+        <f t="shared" si="5"/>
+        <v>wr</v>
+      </c>
+      <c r="N92" s="77" t="str">
+        <f t="shared" si="5"/>
+        <v>wɾ</v>
+      </c>
+      <c r="O92" s="77" t="str">
+        <f t="shared" si="5"/>
+        <v>wɹ</v>
+      </c>
+      <c r="P92" s="77" t="str">
+        <f t="shared" si="5"/>
+        <v>wʀ</v>
+      </c>
+      <c r="Q92" s="77" t="str">
+        <f t="shared" si="5"/>
+        <v>wʁ</v>
+      </c>
+      <c r="R92" s="77" t="str">
+        <f t="shared" si="5"/>
+        <v>wɣ</v>
+      </c>
+      <c r="S92" s="78" t="str">
+        <f t="shared" si="5"/>
+        <v>wʙ</v>
+      </c>
+      <c r="T92" s="76" t="str">
+        <f t="shared" si="5"/>
+        <v>wm</v>
+      </c>
+      <c r="U92" s="78" t="str">
+        <f t="shared" si="5"/>
+        <v>wn</v>
+      </c>
+      <c r="V92" s="76" t="str">
+        <f t="shared" si="5"/>
+        <v>wf</v>
+      </c>
+      <c r="W92" s="77" t="str">
+        <f t="shared" si="5"/>
+        <v>wv</v>
+      </c>
+      <c r="X92" s="77" t="str">
+        <f t="shared" si="5"/>
+        <v>wθ</v>
+      </c>
+      <c r="Y92" s="77" t="str">
+        <f t="shared" si="5"/>
+        <v>wð</v>
+      </c>
+      <c r="Z92" s="77" t="str">
+        <f t="shared" si="4"/>
+        <v>wʍ</v>
+      </c>
+      <c r="AA92" s="78" t="str">
+        <f t="shared" si="4"/>
+        <v>wЋ</v>
+      </c>
+      <c r="AB92" s="76" t="str">
+        <f t="shared" si="4"/>
+        <v>wp</v>
+      </c>
+      <c r="AC92" s="77" t="str">
+        <f t="shared" si="4"/>
+        <v>wt</v>
+      </c>
+      <c r="AD92" s="77" t="str">
+        <f t="shared" si="4"/>
+        <v>wb</v>
+      </c>
+      <c r="AE92" s="78" t="str">
+        <f t="shared" si="4"/>
+        <v>wd</v>
+      </c>
+      <c r="AF92" s="75" t="str">
+        <f t="shared" si="4"/>
+        <v>wʔ</v>
+      </c>
+    </row>
+    <row r="93" spans="6:32" x14ac:dyDescent="0.25">
+      <c r="F93" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="G93" s="41"/>
+      <c r="H93" s="41"/>
+      <c r="I93" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="J93" s="79" t="str">
+        <f t="shared" si="5"/>
+        <v>lਨ</v>
+      </c>
+      <c r="K93" s="79" t="str">
+        <f t="shared" si="5"/>
+        <v>lw</v>
+      </c>
+      <c r="L93" s="90" t="str">
+        <f t="shared" si="5"/>
+        <v>ll</v>
+      </c>
+      <c r="M93" s="80" t="str">
+        <f t="shared" si="5"/>
+        <v>lr</v>
+      </c>
+      <c r="N93" s="80" t="str">
+        <f t="shared" si="5"/>
+        <v>lɾ</v>
+      </c>
+      <c r="O93" s="80" t="str">
+        <f t="shared" si="4"/>
+        <v>lɹ</v>
+      </c>
+      <c r="P93" s="80" t="str">
+        <f t="shared" si="4"/>
+        <v>lʀ</v>
+      </c>
+      <c r="Q93" s="80" t="str">
+        <f t="shared" si="4"/>
+        <v>lʁ</v>
+      </c>
+      <c r="R93" s="80" t="str">
+        <f t="shared" si="4"/>
+        <v>lɣ</v>
+      </c>
+      <c r="S93" s="81" t="str">
+        <f t="shared" si="4"/>
+        <v>lʙ</v>
+      </c>
+      <c r="T93" s="80" t="str">
+        <f t="shared" si="4"/>
+        <v>lm</v>
+      </c>
+      <c r="U93" s="81" t="str">
+        <f t="shared" si="4"/>
+        <v>ln</v>
+      </c>
+      <c r="V93" s="80" t="str">
+        <f t="shared" si="4"/>
+        <v>lf</v>
+      </c>
+      <c r="W93" s="80" t="str">
+        <f t="shared" si="4"/>
+        <v>lv</v>
+      </c>
+      <c r="X93" s="80" t="str">
+        <f t="shared" si="4"/>
+        <v>lθ</v>
+      </c>
+      <c r="Y93" s="80" t="str">
+        <f t="shared" si="4"/>
+        <v>lð</v>
+      </c>
+      <c r="Z93" s="80" t="str">
+        <f t="shared" si="4"/>
+        <v>lʍ</v>
+      </c>
+      <c r="AA93" s="81" t="str">
+        <f t="shared" si="4"/>
+        <v>lЋ</v>
+      </c>
+      <c r="AB93" s="80" t="str">
+        <f t="shared" si="4"/>
+        <v>lp</v>
+      </c>
+      <c r="AC93" s="80" t="str">
+        <f t="shared" si="4"/>
+        <v>lt</v>
+      </c>
+      <c r="AD93" s="80" t="str">
+        <f t="shared" si="4"/>
+        <v>lb</v>
+      </c>
+      <c r="AE93" s="81" t="str">
+        <f t="shared" si="4"/>
+        <v>ld</v>
+      </c>
+      <c r="AF93" s="81" t="str">
+        <f t="shared" si="4"/>
+        <v>lʔ</v>
+      </c>
+    </row>
+    <row r="94" spans="6:32" x14ac:dyDescent="0.25">
+      <c r="F94" s="57"/>
+      <c r="G94" s="58"/>
+      <c r="H94" s="58"/>
+      <c r="I94" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="J94" s="88" t="str">
+        <f t="shared" si="5"/>
+        <v>rਨ</v>
+      </c>
+      <c r="K94" s="82" t="str">
+        <f t="shared" si="5"/>
+        <v>rw</v>
+      </c>
+      <c r="L94" s="80" t="str">
+        <f t="shared" si="5"/>
+        <v>rl</v>
+      </c>
+      <c r="M94" s="91" t="str">
+        <f t="shared" si="5"/>
+        <v>rr</v>
+      </c>
+      <c r="N94" s="80" t="str">
+        <f t="shared" si="5"/>
+        <v>rɾ</v>
+      </c>
+      <c r="O94" s="80" t="str">
+        <f t="shared" si="4"/>
+        <v>rɹ</v>
+      </c>
+      <c r="P94" s="80" t="str">
+        <f t="shared" si="4"/>
+        <v>rʀ</v>
+      </c>
+      <c r="Q94" s="80" t="str">
+        <f t="shared" si="4"/>
+        <v>rʁ</v>
+      </c>
+      <c r="R94" s="80" t="str">
+        <f t="shared" si="4"/>
+        <v>rɣ</v>
+      </c>
+      <c r="S94" s="83" t="str">
+        <f t="shared" si="4"/>
+        <v>rʙ</v>
+      </c>
+      <c r="T94" s="80" t="str">
+        <f t="shared" si="4"/>
+        <v>rm</v>
+      </c>
+      <c r="U94" s="83" t="str">
+        <f t="shared" si="4"/>
+        <v>rn</v>
+      </c>
+      <c r="V94" s="80" t="str">
+        <f t="shared" si="4"/>
+        <v>rf</v>
+      </c>
+      <c r="W94" s="80" t="str">
+        <f t="shared" si="4"/>
+        <v>rv</v>
+      </c>
+      <c r="X94" s="80" t="str">
+        <f t="shared" si="4"/>
+        <v>rθ</v>
+      </c>
+      <c r="Y94" s="80" t="str">
+        <f t="shared" si="4"/>
+        <v>rð</v>
+      </c>
+      <c r="Z94" s="80" t="str">
+        <f t="shared" si="4"/>
+        <v>rʍ</v>
+      </c>
+      <c r="AA94" s="83" t="str">
+        <f t="shared" si="4"/>
+        <v>rЋ</v>
+      </c>
+      <c r="AB94" s="80" t="str">
+        <f t="shared" si="4"/>
+        <v>rp</v>
+      </c>
+      <c r="AC94" s="80" t="str">
+        <f t="shared" si="4"/>
+        <v>rt</v>
+      </c>
+      <c r="AD94" s="80" t="str">
+        <f t="shared" si="4"/>
+        <v>rb</v>
+      </c>
+      <c r="AE94" s="83" t="str">
+        <f t="shared" si="4"/>
+        <v>rd</v>
+      </c>
+      <c r="AF94" s="83" t="str">
+        <f t="shared" si="4"/>
+        <v>rʔ</v>
+      </c>
+    </row>
+    <row r="95" spans="6:32" x14ac:dyDescent="0.25">
+      <c r="F95" s="57"/>
+      <c r="G95" s="58"/>
+      <c r="H95" s="58"/>
+      <c r="I95" s="65" t="s">
+        <v>70</v>
+      </c>
+      <c r="J95" s="82" t="str">
+        <f t="shared" si="5"/>
+        <v>ɾਨ</v>
+      </c>
+      <c r="K95" s="82" t="str">
+        <f t="shared" si="5"/>
+        <v>ɾw</v>
+      </c>
+      <c r="L95" s="80" t="str">
+        <f t="shared" si="5"/>
+        <v>ɾl</v>
+      </c>
+      <c r="M95" s="80" t="str">
+        <f t="shared" si="5"/>
+        <v>ɾr</v>
+      </c>
+      <c r="N95" s="91" t="str">
+        <f t="shared" si="5"/>
+        <v>ɾɾ</v>
+      </c>
+      <c r="O95" s="80" t="str">
+        <f t="shared" si="4"/>
+        <v>ɾɹ</v>
+      </c>
+      <c r="P95" s="80" t="str">
+        <f t="shared" si="4"/>
+        <v>ɾʀ</v>
+      </c>
+      <c r="Q95" s="80" t="str">
+        <f t="shared" si="4"/>
+        <v>ɾʁ</v>
+      </c>
+      <c r="R95" s="80" t="str">
+        <f t="shared" si="4"/>
+        <v>ɾɣ</v>
+      </c>
+      <c r="S95" s="83" t="str">
+        <f t="shared" si="4"/>
+        <v>ɾʙ</v>
+      </c>
+      <c r="T95" s="80" t="str">
+        <f t="shared" si="4"/>
+        <v>ɾm</v>
+      </c>
+      <c r="U95" s="83" t="str">
+        <f t="shared" si="4"/>
+        <v>ɾn</v>
+      </c>
+      <c r="V95" s="80" t="str">
+        <f t="shared" si="4"/>
+        <v>ɾf</v>
+      </c>
+      <c r="W95" s="80" t="str">
+        <f t="shared" si="4"/>
+        <v>ɾv</v>
+      </c>
+      <c r="X95" s="80" t="str">
+        <f t="shared" si="4"/>
+        <v>ɾθ</v>
+      </c>
+      <c r="Y95" s="80" t="str">
+        <f t="shared" si="4"/>
+        <v>ɾð</v>
+      </c>
+      <c r="Z95" s="80" t="str">
+        <f t="shared" si="4"/>
+        <v>ɾʍ</v>
+      </c>
+      <c r="AA95" s="83" t="str">
+        <f t="shared" si="4"/>
+        <v>ɾЋ</v>
+      </c>
+      <c r="AB95" s="80" t="str">
+        <f t="shared" si="4"/>
+        <v>ɾp</v>
+      </c>
+      <c r="AC95" s="80" t="str">
+        <f t="shared" si="4"/>
+        <v>ɾt</v>
+      </c>
+      <c r="AD95" s="80" t="str">
+        <f t="shared" si="4"/>
+        <v>ɾb</v>
+      </c>
+      <c r="AE95" s="83" t="str">
+        <f t="shared" si="4"/>
+        <v>ɾd</v>
+      </c>
+      <c r="AF95" s="83" t="str">
+        <f t="shared" si="4"/>
+        <v>ɾʔ</v>
+      </c>
+    </row>
+    <row r="96" spans="6:32" x14ac:dyDescent="0.25">
+      <c r="F96" s="57"/>
+      <c r="G96" s="58"/>
+      <c r="H96" s="58"/>
+      <c r="I96" s="65" t="s">
+        <v>71</v>
+      </c>
+      <c r="J96" s="82" t="str">
+        <f t="shared" si="5"/>
+        <v>ɹਨ</v>
+      </c>
+      <c r="K96" s="82" t="str">
+        <f t="shared" si="5"/>
+        <v>ɹw</v>
+      </c>
+      <c r="L96" s="80" t="str">
+        <f t="shared" si="5"/>
+        <v>ɹl</v>
+      </c>
+      <c r="M96" s="80" t="str">
+        <f t="shared" si="5"/>
+        <v>ɹr</v>
+      </c>
+      <c r="N96" s="80" t="str">
+        <f t="shared" si="5"/>
+        <v>ɹɾ</v>
+      </c>
+      <c r="O96" s="91" t="str">
+        <f t="shared" si="4"/>
+        <v>ɹɹ</v>
+      </c>
+      <c r="P96" s="80" t="str">
+        <f t="shared" si="4"/>
+        <v>ɹʀ</v>
+      </c>
+      <c r="Q96" s="80" t="str">
+        <f t="shared" si="4"/>
+        <v>ɹʁ</v>
+      </c>
+      <c r="R96" s="80" t="str">
+        <f t="shared" si="4"/>
+        <v>ɹɣ</v>
+      </c>
+      <c r="S96" s="83" t="str">
+        <f t="shared" si="4"/>
+        <v>ɹʙ</v>
+      </c>
+      <c r="T96" s="80" t="str">
+        <f t="shared" si="4"/>
+        <v>ɹm</v>
+      </c>
+      <c r="U96" s="83" t="str">
+        <f t="shared" si="4"/>
+        <v>ɹn</v>
+      </c>
+      <c r="V96" s="80" t="str">
+        <f t="shared" si="4"/>
+        <v>ɹf</v>
+      </c>
+      <c r="W96" s="80" t="str">
+        <f t="shared" si="4"/>
+        <v>ɹv</v>
+      </c>
+      <c r="X96" s="80" t="str">
+        <f t="shared" si="4"/>
+        <v>ɹθ</v>
+      </c>
+      <c r="Y96" s="80" t="str">
+        <f t="shared" si="4"/>
+        <v>ɹð</v>
+      </c>
+      <c r="Z96" s="80" t="str">
+        <f t="shared" si="4"/>
+        <v>ɹʍ</v>
+      </c>
+      <c r="AA96" s="83" t="str">
+        <f t="shared" si="4"/>
+        <v>ɹЋ</v>
+      </c>
+      <c r="AB96" s="80" t="str">
+        <f t="shared" si="4"/>
+        <v>ɹp</v>
+      </c>
+      <c r="AC96" s="80" t="str">
+        <f t="shared" si="4"/>
+        <v>ɹt</v>
+      </c>
+      <c r="AD96" s="80" t="str">
+        <f t="shared" si="4"/>
+        <v>ɹb</v>
+      </c>
+      <c r="AE96" s="83" t="str">
+        <f t="shared" si="4"/>
+        <v>ɹd</v>
+      </c>
+      <c r="AF96" s="83" t="str">
+        <f t="shared" si="4"/>
+        <v>ɹʔ</v>
+      </c>
+    </row>
+    <row r="97" spans="6:32" x14ac:dyDescent="0.25">
+      <c r="F97" s="57"/>
+      <c r="G97" s="58"/>
+      <c r="H97" s="58"/>
+      <c r="I97" s="65" t="s">
+        <v>72</v>
+      </c>
+      <c r="J97" s="82" t="str">
+        <f t="shared" si="5"/>
+        <v>ʀਨ</v>
+      </c>
+      <c r="K97" s="82" t="str">
+        <f t="shared" si="5"/>
+        <v>ʀw</v>
+      </c>
+      <c r="L97" s="80" t="str">
+        <f t="shared" si="5"/>
+        <v>ʀl</v>
+      </c>
+      <c r="M97" s="80" t="str">
+        <f t="shared" si="5"/>
+        <v>ʀr</v>
+      </c>
+      <c r="N97" s="80" t="str">
+        <f t="shared" si="5"/>
+        <v>ʀɾ</v>
+      </c>
+      <c r="O97" s="80" t="str">
+        <f t="shared" si="4"/>
+        <v>ʀɹ</v>
+      </c>
+      <c r="P97" s="91" t="str">
+        <f t="shared" si="4"/>
+        <v>ʀʀ</v>
+      </c>
+      <c r="Q97" s="80" t="str">
+        <f t="shared" si="4"/>
+        <v>ʀʁ</v>
+      </c>
+      <c r="R97" s="80" t="str">
+        <f t="shared" si="4"/>
+        <v>ʀɣ</v>
+      </c>
+      <c r="S97" s="83" t="str">
+        <f t="shared" si="4"/>
+        <v>ʀʙ</v>
+      </c>
+      <c r="T97" s="80" t="str">
+        <f t="shared" si="4"/>
+        <v>ʀm</v>
+      </c>
+      <c r="U97" s="83" t="str">
+        <f t="shared" si="4"/>
+        <v>ʀn</v>
+      </c>
+      <c r="V97" s="80" t="str">
+        <f t="shared" si="4"/>
+        <v>ʀf</v>
+      </c>
+      <c r="W97" s="80" t="str">
+        <f t="shared" si="4"/>
+        <v>ʀv</v>
+      </c>
+      <c r="X97" s="80" t="str">
+        <f t="shared" si="4"/>
+        <v>ʀθ</v>
+      </c>
+      <c r="Y97" s="80" t="str">
+        <f t="shared" si="4"/>
+        <v>ʀð</v>
+      </c>
+      <c r="Z97" s="80" t="str">
+        <f t="shared" si="4"/>
+        <v>ʀʍ</v>
+      </c>
+      <c r="AA97" s="83" t="str">
+        <f t="shared" si="4"/>
+        <v>ʀЋ</v>
+      </c>
+      <c r="AB97" s="80" t="str">
+        <f t="shared" si="4"/>
+        <v>ʀp</v>
+      </c>
+      <c r="AC97" s="80" t="str">
+        <f t="shared" si="4"/>
+        <v>ʀt</v>
+      </c>
+      <c r="AD97" s="80" t="str">
+        <f t="shared" si="4"/>
+        <v>ʀb</v>
+      </c>
+      <c r="AE97" s="83" t="str">
+        <f t="shared" si="4"/>
+        <v>ʀd</v>
+      </c>
+      <c r="AF97" s="83" t="str">
+        <f t="shared" si="4"/>
+        <v>ʀʔ</v>
+      </c>
+    </row>
+    <row r="98" spans="6:32" x14ac:dyDescent="0.25">
+      <c r="F98" s="57"/>
+      <c r="G98" s="58"/>
+      <c r="H98" s="58"/>
+      <c r="I98" s="65" t="s">
+        <v>74</v>
+      </c>
+      <c r="J98" s="82" t="str">
+        <f t="shared" si="5"/>
+        <v>ʁਨ</v>
+      </c>
+      <c r="K98" s="82" t="str">
+        <f t="shared" si="5"/>
+        <v>ʁw</v>
+      </c>
+      <c r="L98" s="80" t="str">
+        <f t="shared" si="5"/>
+        <v>ʁl</v>
+      </c>
+      <c r="M98" s="80" t="str">
+        <f t="shared" si="5"/>
+        <v>ʁr</v>
+      </c>
+      <c r="N98" s="80" t="str">
+        <f t="shared" si="5"/>
+        <v>ʁɾ</v>
+      </c>
+      <c r="O98" s="80" t="str">
+        <f t="shared" si="4"/>
+        <v>ʁɹ</v>
+      </c>
+      <c r="P98" s="80" t="str">
+        <f t="shared" si="4"/>
+        <v>ʁʀ</v>
+      </c>
+      <c r="Q98" s="91" t="str">
+        <f t="shared" si="4"/>
+        <v>ʁʁ</v>
+      </c>
+      <c r="R98" s="80" t="str">
+        <f t="shared" si="4"/>
+        <v>ʁɣ</v>
+      </c>
+      <c r="S98" s="83" t="str">
+        <f t="shared" si="4"/>
+        <v>ʁʙ</v>
+      </c>
+      <c r="T98" s="80" t="str">
+        <f t="shared" si="4"/>
+        <v>ʁm</v>
+      </c>
+      <c r="U98" s="83" t="str">
+        <f t="shared" si="4"/>
+        <v>ʁn</v>
+      </c>
+      <c r="V98" s="80" t="str">
+        <f t="shared" si="4"/>
+        <v>ʁf</v>
+      </c>
+      <c r="W98" s="80" t="str">
+        <f t="shared" si="4"/>
+        <v>ʁv</v>
+      </c>
+      <c r="X98" s="80" t="str">
+        <f t="shared" si="4"/>
+        <v>ʁθ</v>
+      </c>
+      <c r="Y98" s="80" t="str">
+        <f t="shared" si="4"/>
+        <v>ʁð</v>
+      </c>
+      <c r="Z98" s="80" t="str">
+        <f t="shared" si="4"/>
+        <v>ʁʍ</v>
+      </c>
+      <c r="AA98" s="83" t="str">
+        <f t="shared" si="4"/>
+        <v>ʁЋ</v>
+      </c>
+      <c r="AB98" s="80" t="str">
+        <f t="shared" si="4"/>
+        <v>ʁp</v>
+      </c>
+      <c r="AC98" s="80" t="str">
+        <f t="shared" si="4"/>
+        <v>ʁt</v>
+      </c>
+      <c r="AD98" s="80" t="str">
+        <f t="shared" si="4"/>
+        <v>ʁb</v>
+      </c>
+      <c r="AE98" s="83" t="str">
+        <f t="shared" si="4"/>
+        <v>ʁd</v>
+      </c>
+      <c r="AF98" s="83" t="str">
+        <f t="shared" si="4"/>
+        <v>ʁʔ</v>
+      </c>
+    </row>
+    <row r="99" spans="6:32" x14ac:dyDescent="0.25">
+      <c r="F99" s="57"/>
+      <c r="G99" s="58"/>
+      <c r="H99" s="58"/>
+      <c r="I99" s="65" t="s">
+        <v>117</v>
+      </c>
+      <c r="J99" s="82" t="str">
+        <f t="shared" si="5"/>
+        <v>ɣਨ</v>
+      </c>
+      <c r="K99" s="82" t="str">
+        <f t="shared" si="5"/>
+        <v>ɣw</v>
+      </c>
+      <c r="L99" s="80" t="str">
+        <f t="shared" si="5"/>
+        <v>ɣl</v>
+      </c>
+      <c r="M99" s="80" t="str">
+        <f t="shared" si="5"/>
+        <v>ɣr</v>
+      </c>
+      <c r="N99" s="80" t="str">
+        <f t="shared" si="5"/>
+        <v>ɣɾ</v>
+      </c>
+      <c r="O99" s="80" t="str">
+        <f t="shared" si="4"/>
+        <v>ɣɹ</v>
+      </c>
+      <c r="P99" s="80" t="str">
+        <f t="shared" si="4"/>
+        <v>ɣʀ</v>
+      </c>
+      <c r="Q99" s="80" t="str">
+        <f t="shared" si="4"/>
+        <v>ɣʁ</v>
+      </c>
+      <c r="R99" s="91" t="str">
+        <f t="shared" si="4"/>
+        <v>ɣɣ</v>
+      </c>
+      <c r="S99" s="83" t="str">
+        <f t="shared" si="4"/>
+        <v>ɣʙ</v>
+      </c>
+      <c r="T99" s="80" t="str">
+        <f t="shared" si="4"/>
+        <v>ɣm</v>
+      </c>
+      <c r="U99" s="83" t="str">
+        <f t="shared" si="4"/>
+        <v>ɣn</v>
+      </c>
+      <c r="V99" s="80" t="str">
+        <f t="shared" si="4"/>
+        <v>ɣf</v>
+      </c>
+      <c r="W99" s="80" t="str">
+        <f t="shared" si="4"/>
+        <v>ɣv</v>
+      </c>
+      <c r="X99" s="80" t="str">
+        <f t="shared" si="4"/>
+        <v>ɣθ</v>
+      </c>
+      <c r="Y99" s="80" t="str">
+        <f t="shared" si="4"/>
+        <v>ɣð</v>
+      </c>
+      <c r="Z99" s="80" t="str">
+        <f t="shared" si="4"/>
+        <v>ɣʍ</v>
+      </c>
+      <c r="AA99" s="83" t="str">
+        <f t="shared" si="4"/>
+        <v>ɣЋ</v>
+      </c>
+      <c r="AB99" s="80" t="str">
+        <f t="shared" si="4"/>
+        <v>ɣp</v>
+      </c>
+      <c r="AC99" s="80" t="str">
+        <f t="shared" si="4"/>
+        <v>ɣt</v>
+      </c>
+      <c r="AD99" s="80" t="str">
+        <f t="shared" si="4"/>
+        <v>ɣb</v>
+      </c>
+      <c r="AE99" s="83" t="str">
+        <f t="shared" si="4"/>
+        <v>ɣd</v>
+      </c>
+      <c r="AF99" s="83" t="str">
+        <f t="shared" si="4"/>
+        <v>ɣʔ</v>
+      </c>
+    </row>
+    <row r="100" spans="6:32" x14ac:dyDescent="0.25">
+      <c r="F100" s="59"/>
+      <c r="G100" s="54"/>
+      <c r="H100" s="54"/>
+      <c r="I100" s="66" t="s">
+        <v>61</v>
+      </c>
+      <c r="J100" s="84" t="str">
+        <f t="shared" si="5"/>
+        <v>ʙਨ</v>
+      </c>
+      <c r="K100" s="84" t="str">
+        <f t="shared" si="5"/>
+        <v>ʙw</v>
+      </c>
+      <c r="L100" s="85" t="str">
+        <f t="shared" si="5"/>
+        <v>ʙl</v>
+      </c>
+      <c r="M100" s="85" t="str">
+        <f t="shared" si="5"/>
+        <v>ʙr</v>
+      </c>
+      <c r="N100" s="85" t="str">
+        <f t="shared" si="5"/>
+        <v>ʙɾ</v>
+      </c>
+      <c r="O100" s="85" t="str">
+        <f t="shared" si="4"/>
+        <v>ʙɹ</v>
+      </c>
+      <c r="P100" s="85" t="str">
+        <f t="shared" si="4"/>
+        <v>ʙʀ</v>
+      </c>
+      <c r="Q100" s="85" t="str">
+        <f t="shared" si="4"/>
+        <v>ʙʁ</v>
+      </c>
+      <c r="R100" s="85" t="str">
+        <f t="shared" si="4"/>
+        <v>ʙɣ</v>
+      </c>
+      <c r="S100" s="92" t="str">
+        <f t="shared" si="4"/>
+        <v>ʙʙ</v>
+      </c>
+      <c r="T100" s="85" t="str">
+        <f t="shared" si="4"/>
+        <v>ʙm</v>
+      </c>
+      <c r="U100" s="86" t="str">
+        <f t="shared" si="4"/>
+        <v>ʙn</v>
+      </c>
+      <c r="V100" s="85" t="str">
+        <f t="shared" si="4"/>
+        <v>ʙf</v>
+      </c>
+      <c r="W100" s="85" t="str">
+        <f t="shared" si="4"/>
+        <v>ʙv</v>
+      </c>
+      <c r="X100" s="85" t="str">
+        <f t="shared" si="4"/>
+        <v>ʙθ</v>
+      </c>
+      <c r="Y100" s="85" t="str">
+        <f t="shared" si="4"/>
+        <v>ʙð</v>
+      </c>
+      <c r="Z100" s="85" t="str">
+        <f t="shared" si="4"/>
+        <v>ʙʍ</v>
+      </c>
+      <c r="AA100" s="86" t="str">
+        <f t="shared" si="4"/>
+        <v>ʙЋ</v>
+      </c>
+      <c r="AB100" s="85" t="str">
+        <f t="shared" si="4"/>
+        <v>ʙp</v>
+      </c>
+      <c r="AC100" s="85" t="str">
+        <f t="shared" si="4"/>
+        <v>ʙt</v>
+      </c>
+      <c r="AD100" s="85" t="str">
+        <f t="shared" si="4"/>
+        <v>ʙb</v>
+      </c>
+      <c r="AE100" s="86" t="str">
+        <f t="shared" si="4"/>
+        <v>ʙd</v>
+      </c>
+      <c r="AF100" s="86" t="str">
+        <f t="shared" si="4"/>
+        <v>ʙʔ</v>
+      </c>
+    </row>
+    <row r="101" spans="6:32" x14ac:dyDescent="0.25">
+      <c r="F101" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="G101" s="41"/>
+      <c r="H101" s="41"/>
+      <c r="I101" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="J101" s="82" t="str">
+        <f t="shared" si="5"/>
+        <v>mਨ</v>
+      </c>
+      <c r="K101" s="82" t="str">
+        <f t="shared" si="5"/>
+        <v>mw</v>
+      </c>
+      <c r="L101" s="80" t="str">
+        <f t="shared" si="5"/>
+        <v>ml</v>
+      </c>
+      <c r="M101" s="80" t="str">
+        <f t="shared" si="5"/>
+        <v>mr</v>
+      </c>
+      <c r="N101" s="80" t="str">
+        <f t="shared" si="5"/>
+        <v>mɾ</v>
+      </c>
+      <c r="O101" s="80" t="str">
+        <f t="shared" si="4"/>
+        <v>mɹ</v>
+      </c>
+      <c r="P101" s="80" t="str">
+        <f t="shared" si="4"/>
+        <v>mʀ</v>
+      </c>
+      <c r="Q101" s="80" t="str">
+        <f t="shared" si="4"/>
+        <v>mʁ</v>
+      </c>
+      <c r="R101" s="80" t="str">
+        <f t="shared" si="4"/>
+        <v>mɣ</v>
+      </c>
+      <c r="S101" s="83" t="str">
+        <f t="shared" si="4"/>
+        <v>mʙ</v>
+      </c>
+      <c r="T101" s="90" t="str">
+        <f t="shared" si="4"/>
+        <v>mm</v>
+      </c>
+      <c r="U101" s="83" t="str">
+        <f t="shared" si="4"/>
+        <v>mn</v>
+      </c>
+      <c r="V101" s="80" t="str">
+        <f t="shared" si="4"/>
+        <v>mf</v>
+      </c>
+      <c r="W101" s="80" t="str">
+        <f t="shared" si="4"/>
+        <v>mv</v>
+      </c>
+      <c r="X101" s="80" t="str">
+        <f t="shared" si="4"/>
+        <v>mθ</v>
+      </c>
+      <c r="Y101" s="80" t="str">
+        <f t="shared" si="4"/>
+        <v>mð</v>
+      </c>
+      <c r="Z101" s="80" t="str">
+        <f t="shared" si="4"/>
+        <v>mʍ</v>
+      </c>
+      <c r="AA101" s="83" t="str">
+        <f t="shared" si="4"/>
+        <v>mЋ</v>
+      </c>
+      <c r="AB101" s="80" t="str">
+        <f t="shared" si="4"/>
+        <v>mp</v>
+      </c>
+      <c r="AC101" s="80" t="str">
+        <f t="shared" si="4"/>
+        <v>mt</v>
+      </c>
+      <c r="AD101" s="80" t="str">
+        <f t="shared" si="4"/>
+        <v>mb</v>
+      </c>
+      <c r="AE101" s="83" t="str">
+        <f t="shared" si="4"/>
+        <v>md</v>
+      </c>
+      <c r="AF101" s="83" t="str">
+        <f t="shared" si="4"/>
+        <v>mʔ</v>
+      </c>
+    </row>
+    <row r="102" spans="6:32" x14ac:dyDescent="0.25">
+      <c r="F102" s="59"/>
+      <c r="G102" s="54"/>
+      <c r="H102" s="54"/>
+      <c r="I102" s="68" t="s">
+        <v>7</v>
+      </c>
+      <c r="J102" s="84" t="str">
+        <f t="shared" si="5"/>
+        <v>nਨ</v>
+      </c>
+      <c r="K102" s="84" t="str">
+        <f t="shared" si="5"/>
+        <v>nw</v>
+      </c>
+      <c r="L102" s="85" t="str">
+        <f t="shared" si="5"/>
+        <v>nl</v>
+      </c>
+      <c r="M102" s="85" t="str">
+        <f t="shared" si="5"/>
+        <v>nr</v>
+      </c>
+      <c r="N102" s="85" t="str">
+        <f t="shared" si="5"/>
+        <v>nɾ</v>
+      </c>
+      <c r="O102" s="85" t="str">
+        <f t="shared" si="4"/>
+        <v>nɹ</v>
+      </c>
+      <c r="P102" s="85" t="str">
+        <f t="shared" si="4"/>
+        <v>nʀ</v>
+      </c>
+      <c r="Q102" s="85" t="str">
+        <f t="shared" si="4"/>
+        <v>nʁ</v>
+      </c>
+      <c r="R102" s="85" t="str">
+        <f t="shared" si="4"/>
+        <v>nɣ</v>
+      </c>
+      <c r="S102" s="86" t="str">
+        <f t="shared" si="4"/>
+        <v>nʙ</v>
+      </c>
+      <c r="T102" s="85" t="str">
+        <f t="shared" si="4"/>
+        <v>nm</v>
+      </c>
+      <c r="U102" s="92" t="str">
+        <f t="shared" si="4"/>
+        <v>nn</v>
+      </c>
+      <c r="V102" s="85" t="str">
+        <f t="shared" si="4"/>
+        <v>nf</v>
+      </c>
+      <c r="W102" s="85" t="str">
+        <f t="shared" si="4"/>
+        <v>nv</v>
+      </c>
+      <c r="X102" s="85" t="str">
+        <f t="shared" si="4"/>
+        <v>nθ</v>
+      </c>
+      <c r="Y102" s="85" t="str">
+        <f t="shared" si="4"/>
+        <v>nð</v>
+      </c>
+      <c r="Z102" s="85" t="str">
+        <f t="shared" si="4"/>
+        <v>nʍ</v>
+      </c>
+      <c r="AA102" s="86" t="str">
+        <f t="shared" si="4"/>
+        <v>nЋ</v>
+      </c>
+      <c r="AB102" s="85" t="str">
+        <f t="shared" si="4"/>
+        <v>np</v>
+      </c>
+      <c r="AC102" s="85" t="str">
+        <f t="shared" si="4"/>
+        <v>nt</v>
+      </c>
+      <c r="AD102" s="85" t="str">
+        <f t="shared" si="4"/>
+        <v>nb</v>
+      </c>
+      <c r="AE102" s="86" t="str">
+        <f t="shared" si="4"/>
+        <v>nd</v>
+      </c>
+      <c r="AF102" s="86" t="str">
+        <f t="shared" si="4"/>
+        <v>nʔ</v>
+      </c>
+    </row>
+    <row r="103" spans="6:32" x14ac:dyDescent="0.25">
+      <c r="F103" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="G103" s="41"/>
+      <c r="H103" s="41"/>
+      <c r="I103" s="64" t="s">
+        <v>29</v>
+      </c>
+      <c r="J103" s="82" t="str">
+        <f t="shared" si="5"/>
+        <v>fਨ</v>
+      </c>
+      <c r="K103" s="82" t="str">
+        <f t="shared" si="5"/>
+        <v>fw</v>
+      </c>
+      <c r="L103" s="80" t="str">
+        <f t="shared" si="5"/>
+        <v>fl</v>
+      </c>
+      <c r="M103" s="80" t="str">
+        <f t="shared" si="5"/>
+        <v>fr</v>
+      </c>
+      <c r="N103" s="80" t="str">
+        <f t="shared" si="5"/>
+        <v>fɾ</v>
+      </c>
+      <c r="O103" s="80" t="str">
+        <f t="shared" si="4"/>
+        <v>fɹ</v>
+      </c>
+      <c r="P103" s="80" t="str">
+        <f t="shared" si="4"/>
+        <v>fʀ</v>
+      </c>
+      <c r="Q103" s="80" t="str">
+        <f t="shared" si="4"/>
+        <v>fʁ</v>
+      </c>
+      <c r="R103" s="80" t="str">
+        <f t="shared" si="4"/>
+        <v>fɣ</v>
+      </c>
+      <c r="S103" s="83" t="str">
+        <f t="shared" si="4"/>
+        <v>fʙ</v>
+      </c>
+      <c r="T103" s="80" t="str">
+        <f t="shared" si="4"/>
+        <v>fm</v>
+      </c>
+      <c r="U103" s="83" t="str">
+        <f t="shared" si="4"/>
+        <v>fn</v>
+      </c>
+      <c r="V103" s="90" t="str">
+        <f t="shared" si="4"/>
+        <v>ff</v>
+      </c>
+      <c r="W103" s="80" t="str">
+        <f t="shared" si="4"/>
+        <v>fv</v>
+      </c>
+      <c r="X103" s="80" t="str">
+        <f t="shared" si="4"/>
+        <v>fθ</v>
+      </c>
+      <c r="Y103" s="80" t="str">
+        <f t="shared" si="4"/>
+        <v>fð</v>
+      </c>
+      <c r="Z103" s="80" t="str">
+        <f t="shared" si="4"/>
+        <v>fʍ</v>
+      </c>
+      <c r="AA103" s="83" t="str">
+        <f t="shared" si="4"/>
+        <v>fЋ</v>
+      </c>
+      <c r="AB103" s="80" t="str">
+        <f t="shared" si="4"/>
+        <v>fp</v>
+      </c>
+      <c r="AC103" s="80" t="str">
+        <f t="shared" si="4"/>
+        <v>ft</v>
+      </c>
+      <c r="AD103" s="80" t="str">
+        <f t="shared" si="4"/>
+        <v>fb</v>
+      </c>
+      <c r="AE103" s="83" t="str">
+        <f t="shared" si="4"/>
+        <v>fd</v>
+      </c>
+      <c r="AF103" s="83" t="str">
+        <f t="shared" si="4"/>
+        <v>fʔ</v>
+      </c>
+    </row>
+    <row r="104" spans="6:32" x14ac:dyDescent="0.25">
+      <c r="F104" s="57"/>
+      <c r="G104" s="58"/>
+      <c r="H104" s="58"/>
+      <c r="I104" s="65" t="s">
+        <v>26</v>
+      </c>
+      <c r="J104" s="82" t="str">
+        <f t="shared" si="5"/>
+        <v>vਨ</v>
+      </c>
+      <c r="K104" s="82" t="str">
+        <f t="shared" si="5"/>
+        <v>vw</v>
+      </c>
+      <c r="L104" s="80" t="str">
+        <f t="shared" si="5"/>
+        <v>vl</v>
+      </c>
+      <c r="M104" s="80" t="str">
+        <f t="shared" si="5"/>
+        <v>vr</v>
+      </c>
+      <c r="N104" s="80" t="str">
+        <f t="shared" si="5"/>
+        <v>vɾ</v>
+      </c>
+      <c r="O104" s="80" t="str">
+        <f t="shared" si="4"/>
+        <v>vɹ</v>
+      </c>
+      <c r="P104" s="80" t="str">
+        <f t="shared" si="4"/>
+        <v>vʀ</v>
+      </c>
+      <c r="Q104" s="80" t="str">
+        <f t="shared" si="4"/>
+        <v>vʁ</v>
+      </c>
+      <c r="R104" s="80" t="str">
+        <f t="shared" si="4"/>
+        <v>vɣ</v>
+      </c>
+      <c r="S104" s="83" t="str">
+        <f t="shared" si="4"/>
+        <v>vʙ</v>
+      </c>
+      <c r="T104" s="80" t="str">
+        <f t="shared" si="4"/>
+        <v>vm</v>
+      </c>
+      <c r="U104" s="83" t="str">
+        <f t="shared" si="4"/>
+        <v>vn</v>
+      </c>
+      <c r="V104" s="80" t="str">
+        <f t="shared" si="4"/>
+        <v>vf</v>
+      </c>
+      <c r="W104" s="91" t="str">
+        <f t="shared" si="4"/>
+        <v>vv</v>
+      </c>
+      <c r="X104" s="80" t="str">
+        <f t="shared" si="4"/>
+        <v>vθ</v>
+      </c>
+      <c r="Y104" s="80" t="str">
+        <f t="shared" si="4"/>
+        <v>vð</v>
+      </c>
+      <c r="Z104" s="80" t="str">
+        <f t="shared" si="4"/>
+        <v>vʍ</v>
+      </c>
+      <c r="AA104" s="83" t="str">
+        <f t="shared" si="4"/>
+        <v>vЋ</v>
+      </c>
+      <c r="AB104" s="80" t="str">
+        <f t="shared" si="4"/>
+        <v>vp</v>
+      </c>
+      <c r="AC104" s="80" t="str">
+        <f t="shared" si="4"/>
+        <v>vt</v>
+      </c>
+      <c r="AD104" s="80" t="str">
+        <f t="shared" si="4"/>
+        <v>vb</v>
+      </c>
+      <c r="AE104" s="83" t="str">
+        <f t="shared" si="4"/>
+        <v>vd</v>
+      </c>
+      <c r="AF104" s="83" t="str">
+        <f t="shared" si="4"/>
+        <v>vʔ</v>
+      </c>
+    </row>
+    <row r="105" spans="6:32" x14ac:dyDescent="0.25">
+      <c r="F105" s="57"/>
+      <c r="G105" s="58"/>
+      <c r="H105" s="58"/>
+      <c r="I105" s="65" t="s">
+        <v>65</v>
+      </c>
+      <c r="J105" s="82" t="str">
+        <f t="shared" si="5"/>
+        <v>θਨ</v>
+      </c>
+      <c r="K105" s="82" t="str">
+        <f t="shared" si="5"/>
+        <v>θw</v>
+      </c>
+      <c r="L105" s="80" t="str">
+        <f t="shared" si="5"/>
+        <v>θl</v>
+      </c>
+      <c r="M105" s="80" t="str">
+        <f t="shared" si="5"/>
+        <v>θr</v>
+      </c>
+      <c r="N105" s="80" t="str">
+        <f t="shared" si="5"/>
+        <v>θɾ</v>
+      </c>
+      <c r="O105" s="80" t="str">
+        <f t="shared" si="4"/>
+        <v>θɹ</v>
+      </c>
+      <c r="P105" s="80" t="str">
+        <f t="shared" si="4"/>
+        <v>θʀ</v>
+      </c>
+      <c r="Q105" s="80" t="str">
+        <f t="shared" si="4"/>
+        <v>θʁ</v>
+      </c>
+      <c r="R105" s="80" t="str">
+        <f t="shared" si="4"/>
+        <v>θɣ</v>
+      </c>
+      <c r="S105" s="83" t="str">
+        <f t="shared" si="4"/>
+        <v>θʙ</v>
+      </c>
+      <c r="T105" s="80" t="str">
+        <f t="shared" si="4"/>
+        <v>θm</v>
+      </c>
+      <c r="U105" s="83" t="str">
+        <f t="shared" si="4"/>
+        <v>θn</v>
+      </c>
+      <c r="V105" s="80" t="str">
+        <f t="shared" si="4"/>
+        <v>θf</v>
+      </c>
+      <c r="W105" s="80" t="str">
+        <f t="shared" si="4"/>
+        <v>θv</v>
+      </c>
+      <c r="X105" s="91" t="str">
+        <f t="shared" si="4"/>
+        <v>θθ</v>
+      </c>
+      <c r="Y105" s="80" t="str">
+        <f t="shared" ref="Y105:AF113" si="6">$I105&amp;Y$59</f>
+        <v>θð</v>
+      </c>
+      <c r="Z105" s="80" t="str">
+        <f t="shared" si="6"/>
+        <v>θʍ</v>
+      </c>
+      <c r="AA105" s="83" t="str">
+        <f t="shared" si="6"/>
+        <v>θЋ</v>
+      </c>
+      <c r="AB105" s="80" t="str">
+        <f t="shared" si="6"/>
+        <v>θp</v>
+      </c>
+      <c r="AC105" s="80" t="str">
+        <f t="shared" si="6"/>
+        <v>θt</v>
+      </c>
+      <c r="AD105" s="80" t="str">
+        <f t="shared" si="6"/>
+        <v>θb</v>
+      </c>
+      <c r="AE105" s="83" t="str">
+        <f t="shared" si="6"/>
+        <v>θd</v>
+      </c>
+      <c r="AF105" s="83" t="str">
+        <f t="shared" si="6"/>
+        <v>θʔ</v>
+      </c>
+    </row>
+    <row r="106" spans="6:32" x14ac:dyDescent="0.25">
+      <c r="F106" s="57"/>
+      <c r="G106" s="58"/>
+      <c r="H106" s="58"/>
+      <c r="I106" s="65" t="s">
+        <v>66</v>
+      </c>
+      <c r="J106" s="82" t="str">
+        <f t="shared" si="5"/>
+        <v>ðਨ</v>
+      </c>
+      <c r="K106" s="82" t="str">
+        <f t="shared" si="5"/>
+        <v>ðw</v>
+      </c>
+      <c r="L106" s="80" t="str">
+        <f t="shared" si="5"/>
+        <v>ðl</v>
+      </c>
+      <c r="M106" s="80" t="str">
+        <f t="shared" si="5"/>
+        <v>ðr</v>
+      </c>
+      <c r="N106" s="80" t="str">
+        <f t="shared" si="5"/>
+        <v>ðɾ</v>
+      </c>
+      <c r="O106" s="80" t="str">
+        <f t="shared" si="5"/>
+        <v>ðɹ</v>
+      </c>
+      <c r="P106" s="80" t="str">
+        <f t="shared" si="5"/>
+        <v>ðʀ</v>
+      </c>
+      <c r="Q106" s="80" t="str">
+        <f t="shared" si="5"/>
+        <v>ðʁ</v>
+      </c>
+      <c r="R106" s="80" t="str">
+        <f t="shared" si="5"/>
+        <v>ðɣ</v>
+      </c>
+      <c r="S106" s="83" t="str">
+        <f t="shared" si="5"/>
+        <v>ðʙ</v>
+      </c>
+      <c r="T106" s="80" t="str">
+        <f t="shared" si="5"/>
+        <v>ðm</v>
+      </c>
+      <c r="U106" s="83" t="str">
+        <f t="shared" si="5"/>
+        <v>ðn</v>
+      </c>
+      <c r="V106" s="80" t="str">
+        <f t="shared" si="5"/>
+        <v>ðf</v>
+      </c>
+      <c r="W106" s="80" t="str">
+        <f t="shared" si="5"/>
+        <v>ðv</v>
+      </c>
+      <c r="X106" s="80" t="str">
+        <f t="shared" si="5"/>
+        <v>ðθ</v>
+      </c>
+      <c r="Y106" s="91" t="str">
+        <f t="shared" si="5"/>
+        <v>ðð</v>
+      </c>
+      <c r="Z106" s="80" t="str">
+        <f t="shared" si="6"/>
+        <v>ðʍ</v>
+      </c>
+      <c r="AA106" s="83" t="str">
+        <f t="shared" si="6"/>
+        <v>ðЋ</v>
+      </c>
+      <c r="AB106" s="80" t="str">
+        <f t="shared" si="6"/>
+        <v>ðp</v>
+      </c>
+      <c r="AC106" s="80" t="str">
+        <f t="shared" si="6"/>
+        <v>ðt</v>
+      </c>
+      <c r="AD106" s="80" t="str">
+        <f t="shared" si="6"/>
+        <v>ðb</v>
+      </c>
+      <c r="AE106" s="83" t="str">
+        <f t="shared" si="6"/>
+        <v>ðd</v>
+      </c>
+      <c r="AF106" s="83" t="str">
+        <f t="shared" si="6"/>
+        <v>ðʔ</v>
+      </c>
+    </row>
+    <row r="107" spans="6:32" x14ac:dyDescent="0.25">
+      <c r="F107" s="57"/>
+      <c r="G107" s="58"/>
+      <c r="H107" s="58"/>
+      <c r="I107" s="65" t="s">
+        <v>115</v>
+      </c>
+      <c r="J107" s="82" t="str">
+        <f t="shared" si="5"/>
+        <v>ʍਨ</v>
+      </c>
+      <c r="K107" s="82" t="str">
+        <f t="shared" si="5"/>
+        <v>ʍw</v>
+      </c>
+      <c r="L107" s="80" t="str">
+        <f t="shared" si="5"/>
+        <v>ʍl</v>
+      </c>
+      <c r="M107" s="80" t="str">
+        <f t="shared" si="5"/>
+        <v>ʍr</v>
+      </c>
+      <c r="N107" s="80" t="str">
+        <f t="shared" si="5"/>
+        <v>ʍɾ</v>
+      </c>
+      <c r="O107" s="80" t="str">
+        <f t="shared" si="5"/>
+        <v>ʍɹ</v>
+      </c>
+      <c r="P107" s="80" t="str">
+        <f t="shared" si="5"/>
+        <v>ʍʀ</v>
+      </c>
+      <c r="Q107" s="80" t="str">
+        <f t="shared" si="5"/>
+        <v>ʍʁ</v>
+      </c>
+      <c r="R107" s="80" t="str">
+        <f t="shared" si="5"/>
+        <v>ʍɣ</v>
+      </c>
+      <c r="S107" s="83" t="str">
+        <f t="shared" si="5"/>
+        <v>ʍʙ</v>
+      </c>
+      <c r="T107" s="80" t="str">
+        <f t="shared" si="5"/>
+        <v>ʍm</v>
+      </c>
+      <c r="U107" s="83" t="str">
+        <f t="shared" si="5"/>
+        <v>ʍn</v>
+      </c>
+      <c r="V107" s="80" t="str">
+        <f t="shared" si="5"/>
+        <v>ʍf</v>
+      </c>
+      <c r="W107" s="80" t="str">
+        <f t="shared" si="5"/>
+        <v>ʍv</v>
+      </c>
+      <c r="X107" s="80" t="str">
+        <f t="shared" si="5"/>
+        <v>ʍθ</v>
+      </c>
+      <c r="Y107" s="80" t="str">
+        <f t="shared" si="5"/>
+        <v>ʍð</v>
+      </c>
+      <c r="Z107" s="91" t="str">
+        <f t="shared" si="6"/>
+        <v>ʍʍ</v>
+      </c>
+      <c r="AA107" s="83" t="str">
+        <f t="shared" si="6"/>
+        <v>ʍЋ</v>
+      </c>
+      <c r="AB107" s="80" t="str">
+        <f t="shared" si="6"/>
+        <v>ʍp</v>
+      </c>
+      <c r="AC107" s="80" t="str">
+        <f t="shared" si="6"/>
+        <v>ʍt</v>
+      </c>
+      <c r="AD107" s="80" t="str">
+        <f t="shared" si="6"/>
+        <v>ʍb</v>
+      </c>
+      <c r="AE107" s="83" t="str">
+        <f t="shared" si="6"/>
+        <v>ʍd</v>
+      </c>
+      <c r="AF107" s="83" t="str">
+        <f t="shared" si="6"/>
+        <v>ʍʔ</v>
+      </c>
+    </row>
+    <row r="108" spans="6:32" x14ac:dyDescent="0.25">
+      <c r="F108" s="59"/>
+      <c r="G108" s="54"/>
+      <c r="H108" s="54"/>
+      <c r="I108" s="66" t="s">
+        <v>119</v>
+      </c>
+      <c r="J108" s="84" t="str">
+        <f t="shared" ref="J108:Y113" si="7">$I108&amp;J$59</f>
+        <v>Ћਨ</v>
+      </c>
+      <c r="K108" s="84" t="str">
+        <f t="shared" si="7"/>
+        <v>Ћw</v>
+      </c>
+      <c r="L108" s="85" t="str">
+        <f t="shared" si="7"/>
+        <v>Ћl</v>
+      </c>
+      <c r="M108" s="85" t="str">
+        <f t="shared" si="7"/>
+        <v>Ћr</v>
+      </c>
+      <c r="N108" s="85" t="str">
+        <f t="shared" si="7"/>
+        <v>Ћɾ</v>
+      </c>
+      <c r="O108" s="85" t="str">
+        <f t="shared" si="7"/>
+        <v>Ћɹ</v>
+      </c>
+      <c r="P108" s="85" t="str">
+        <f t="shared" si="7"/>
+        <v>Ћʀ</v>
+      </c>
+      <c r="Q108" s="85" t="str">
+        <f t="shared" si="7"/>
+        <v>Ћʁ</v>
+      </c>
+      <c r="R108" s="85" t="str">
+        <f t="shared" si="7"/>
+        <v>Ћɣ</v>
+      </c>
+      <c r="S108" s="86" t="str">
+        <f t="shared" si="7"/>
+        <v>Ћʙ</v>
+      </c>
+      <c r="T108" s="85" t="str">
+        <f t="shared" si="7"/>
+        <v>Ћm</v>
+      </c>
+      <c r="U108" s="86" t="str">
+        <f t="shared" si="7"/>
+        <v>Ћn</v>
+      </c>
+      <c r="V108" s="85" t="str">
+        <f t="shared" si="7"/>
+        <v>Ћf</v>
+      </c>
+      <c r="W108" s="85" t="str">
+        <f t="shared" si="7"/>
+        <v>Ћv</v>
+      </c>
+      <c r="X108" s="85" t="str">
+        <f t="shared" si="7"/>
+        <v>Ћθ</v>
+      </c>
+      <c r="Y108" s="85" t="str">
+        <f t="shared" si="7"/>
+        <v>Ћð</v>
+      </c>
+      <c r="Z108" s="85" t="str">
+        <f t="shared" si="6"/>
+        <v>Ћʍ</v>
+      </c>
+      <c r="AA108" s="92" t="str">
+        <f t="shared" si="6"/>
+        <v>ЋЋ</v>
+      </c>
+      <c r="AB108" s="85" t="str">
+        <f t="shared" si="6"/>
+        <v>Ћp</v>
+      </c>
+      <c r="AC108" s="85" t="str">
+        <f t="shared" si="6"/>
+        <v>Ћt</v>
+      </c>
+      <c r="AD108" s="85" t="str">
+        <f t="shared" si="6"/>
+        <v>Ћb</v>
+      </c>
+      <c r="AE108" s="86" t="str">
+        <f t="shared" si="6"/>
+        <v>Ћd</v>
+      </c>
+      <c r="AF108" s="86" t="str">
+        <f t="shared" si="6"/>
+        <v>Ћʔ</v>
+      </c>
+    </row>
+    <row r="109" spans="6:32" x14ac:dyDescent="0.25">
+      <c r="F109" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="G109" s="41"/>
+      <c r="H109" s="41"/>
+      <c r="I109" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="J109" s="82" t="str">
+        <f t="shared" si="7"/>
+        <v>pਨ</v>
+      </c>
+      <c r="K109" s="82" t="str">
+        <f t="shared" si="7"/>
+        <v>pw</v>
+      </c>
+      <c r="L109" s="80" t="str">
+        <f t="shared" si="7"/>
+        <v>pl</v>
+      </c>
+      <c r="M109" s="80" t="str">
+        <f t="shared" si="7"/>
+        <v>pr</v>
+      </c>
+      <c r="N109" s="80" t="str">
+        <f t="shared" si="7"/>
+        <v>pɾ</v>
+      </c>
+      <c r="O109" s="80" t="str">
+        <f t="shared" si="7"/>
+        <v>pɹ</v>
+      </c>
+      <c r="P109" s="80" t="str">
+        <f t="shared" si="7"/>
+        <v>pʀ</v>
+      </c>
+      <c r="Q109" s="80" t="str">
+        <f t="shared" si="7"/>
+        <v>pʁ</v>
+      </c>
+      <c r="R109" s="80" t="str">
+        <f t="shared" si="7"/>
+        <v>pɣ</v>
+      </c>
+      <c r="S109" s="83" t="str">
+        <f t="shared" si="7"/>
+        <v>pʙ</v>
+      </c>
+      <c r="T109" s="80" t="str">
+        <f t="shared" si="7"/>
+        <v>pm</v>
+      </c>
+      <c r="U109" s="83" t="str">
+        <f t="shared" si="7"/>
+        <v>pn</v>
+      </c>
+      <c r="V109" s="80" t="str">
+        <f t="shared" si="7"/>
+        <v>pf</v>
+      </c>
+      <c r="W109" s="80" t="str">
+        <f t="shared" si="7"/>
+        <v>pv</v>
+      </c>
+      <c r="X109" s="80" t="str">
+        <f t="shared" si="7"/>
+        <v>pθ</v>
+      </c>
+      <c r="Y109" s="80" t="str">
+        <f t="shared" si="7"/>
+        <v>pð</v>
+      </c>
+      <c r="Z109" s="80" t="str">
+        <f t="shared" si="6"/>
+        <v>pʍ</v>
+      </c>
+      <c r="AA109" s="83" t="str">
+        <f t="shared" si="6"/>
+        <v>pЋ</v>
+      </c>
+      <c r="AB109" s="90" t="str">
+        <f t="shared" si="6"/>
+        <v>pp</v>
+      </c>
+      <c r="AC109" s="80" t="str">
+        <f t="shared" si="6"/>
+        <v>pt</v>
+      </c>
+      <c r="AD109" s="80" t="str">
+        <f t="shared" si="6"/>
+        <v>pb</v>
+      </c>
+      <c r="AE109" s="83" t="str">
+        <f t="shared" si="6"/>
+        <v>pd</v>
+      </c>
+      <c r="AF109" s="83" t="str">
+        <f t="shared" si="6"/>
+        <v>pʔ</v>
+      </c>
+    </row>
+    <row r="110" spans="6:32" x14ac:dyDescent="0.25">
+      <c r="F110" s="57"/>
+      <c r="G110" s="58"/>
+      <c r="H110" s="58"/>
+      <c r="I110" s="69" t="s">
+        <v>21</v>
+      </c>
+      <c r="J110" s="82" t="str">
+        <f t="shared" si="7"/>
+        <v>tਨ</v>
+      </c>
+      <c r="K110" s="82" t="str">
+        <f t="shared" si="7"/>
+        <v>tw</v>
+      </c>
+      <c r="L110" s="80" t="str">
+        <f t="shared" si="7"/>
+        <v>tl</v>
+      </c>
+      <c r="M110" s="80" t="str">
+        <f t="shared" si="7"/>
+        <v>tr</v>
+      </c>
+      <c r="N110" s="80" t="str">
+        <f t="shared" si="7"/>
+        <v>tɾ</v>
+      </c>
+      <c r="O110" s="80" t="str">
+        <f t="shared" si="7"/>
+        <v>tɹ</v>
+      </c>
+      <c r="P110" s="80" t="str">
+        <f t="shared" si="7"/>
+        <v>tʀ</v>
+      </c>
+      <c r="Q110" s="80" t="str">
+        <f t="shared" si="7"/>
+        <v>tʁ</v>
+      </c>
+      <c r="R110" s="80" t="str">
+        <f t="shared" si="7"/>
+        <v>tɣ</v>
+      </c>
+      <c r="S110" s="83" t="str">
+        <f t="shared" si="7"/>
+        <v>tʙ</v>
+      </c>
+      <c r="T110" s="80" t="str">
+        <f t="shared" si="7"/>
+        <v>tm</v>
+      </c>
+      <c r="U110" s="83" t="str">
+        <f t="shared" si="7"/>
+        <v>tn</v>
+      </c>
+      <c r="V110" s="80" t="str">
+        <f t="shared" si="7"/>
+        <v>tf</v>
+      </c>
+      <c r="W110" s="80" t="str">
+        <f t="shared" si="7"/>
+        <v>tv</v>
+      </c>
+      <c r="X110" s="80" t="str">
+        <f t="shared" si="7"/>
+        <v>tθ</v>
+      </c>
+      <c r="Y110" s="80" t="str">
+        <f t="shared" si="7"/>
+        <v>tð</v>
+      </c>
+      <c r="Z110" s="80" t="str">
+        <f t="shared" si="6"/>
+        <v>tʍ</v>
+      </c>
+      <c r="AA110" s="83" t="str">
+        <f t="shared" si="6"/>
+        <v>tЋ</v>
+      </c>
+      <c r="AB110" s="80" t="str">
+        <f t="shared" si="6"/>
+        <v>tp</v>
+      </c>
+      <c r="AC110" s="91" t="str">
+        <f t="shared" si="6"/>
+        <v>tt</v>
+      </c>
+      <c r="AD110" s="80" t="str">
+        <f t="shared" si="6"/>
+        <v>tb</v>
+      </c>
+      <c r="AE110" s="83" t="str">
+        <f t="shared" si="6"/>
+        <v>td</v>
+      </c>
+      <c r="AF110" s="83" t="str">
+        <f t="shared" si="6"/>
+        <v>tʔ</v>
+      </c>
+    </row>
+    <row r="111" spans="6:32" x14ac:dyDescent="0.25">
+      <c r="F111" s="57"/>
+      <c r="G111" s="58"/>
+      <c r="H111" s="58"/>
+      <c r="I111" s="69" t="s">
+        <v>23</v>
+      </c>
+      <c r="J111" s="82" t="str">
+        <f t="shared" si="7"/>
+        <v>bਨ</v>
+      </c>
+      <c r="K111" s="82" t="str">
+        <f t="shared" si="7"/>
+        <v>bw</v>
+      </c>
+      <c r="L111" s="80" t="str">
+        <f t="shared" si="7"/>
+        <v>bl</v>
+      </c>
+      <c r="M111" s="80" t="str">
+        <f t="shared" si="7"/>
+        <v>br</v>
+      </c>
+      <c r="N111" s="80" t="str">
+        <f t="shared" si="7"/>
+        <v>bɾ</v>
+      </c>
+      <c r="O111" s="80" t="str">
+        <f t="shared" si="7"/>
+        <v>bɹ</v>
+      </c>
+      <c r="P111" s="80" t="str">
+        <f t="shared" si="7"/>
+        <v>bʀ</v>
+      </c>
+      <c r="Q111" s="80" t="str">
+        <f t="shared" si="7"/>
+        <v>bʁ</v>
+      </c>
+      <c r="R111" s="80" t="str">
+        <f t="shared" si="7"/>
+        <v>bɣ</v>
+      </c>
+      <c r="S111" s="83" t="str">
+        <f t="shared" si="7"/>
+        <v>bʙ</v>
+      </c>
+      <c r="T111" s="80" t="str">
+        <f t="shared" si="7"/>
+        <v>bm</v>
+      </c>
+      <c r="U111" s="83" t="str">
+        <f t="shared" si="7"/>
+        <v>bn</v>
+      </c>
+      <c r="V111" s="80" t="str">
+        <f t="shared" si="7"/>
+        <v>bf</v>
+      </c>
+      <c r="W111" s="80" t="str">
+        <f t="shared" si="7"/>
+        <v>bv</v>
+      </c>
+      <c r="X111" s="80" t="str">
+        <f t="shared" si="7"/>
+        <v>bθ</v>
+      </c>
+      <c r="Y111" s="80" t="str">
+        <f t="shared" si="7"/>
+        <v>bð</v>
+      </c>
+      <c r="Z111" s="80" t="str">
+        <f t="shared" si="6"/>
+        <v>bʍ</v>
+      </c>
+      <c r="AA111" s="83" t="str">
+        <f t="shared" si="6"/>
+        <v>bЋ</v>
+      </c>
+      <c r="AB111" s="80" t="str">
+        <f t="shared" si="6"/>
+        <v>bp</v>
+      </c>
+      <c r="AC111" s="80" t="str">
+        <f t="shared" si="6"/>
+        <v>bt</v>
+      </c>
+      <c r="AD111" s="91" t="str">
+        <f t="shared" si="6"/>
+        <v>bb</v>
+      </c>
+      <c r="AE111" s="83" t="str">
+        <f t="shared" si="6"/>
+        <v>bd</v>
+      </c>
+      <c r="AF111" s="83" t="str">
+        <f t="shared" si="6"/>
+        <v>bʔ</v>
+      </c>
+    </row>
+    <row r="112" spans="6:32" x14ac:dyDescent="0.25">
+      <c r="F112" s="59"/>
+      <c r="G112" s="54"/>
+      <c r="H112" s="54"/>
+      <c r="I112" s="68" t="s">
+        <v>24</v>
+      </c>
+      <c r="J112" s="82" t="str">
+        <f t="shared" si="7"/>
+        <v>dਨ</v>
+      </c>
+      <c r="K112" s="82" t="str">
+        <f t="shared" si="7"/>
+        <v>dw</v>
+      </c>
+      <c r="L112" s="80" t="str">
+        <f t="shared" si="7"/>
+        <v>dl</v>
+      </c>
+      <c r="M112" s="80" t="str">
+        <f t="shared" si="7"/>
+        <v>dr</v>
+      </c>
+      <c r="N112" s="80" t="str">
+        <f t="shared" si="7"/>
+        <v>dɾ</v>
+      </c>
+      <c r="O112" s="80" t="str">
+        <f t="shared" si="7"/>
+        <v>dɹ</v>
+      </c>
+      <c r="P112" s="80" t="str">
+        <f t="shared" si="7"/>
+        <v>dʀ</v>
+      </c>
+      <c r="Q112" s="80" t="str">
+        <f t="shared" si="7"/>
+        <v>dʁ</v>
+      </c>
+      <c r="R112" s="80" t="str">
+        <f t="shared" si="7"/>
+        <v>dɣ</v>
+      </c>
+      <c r="S112" s="83" t="str">
+        <f t="shared" si="7"/>
+        <v>dʙ</v>
+      </c>
+      <c r="T112" s="80" t="str">
+        <f t="shared" si="7"/>
+        <v>dm</v>
+      </c>
+      <c r="U112" s="83" t="str">
+        <f t="shared" si="7"/>
+        <v>dn</v>
+      </c>
+      <c r="V112" s="80" t="str">
+        <f t="shared" si="7"/>
+        <v>df</v>
+      </c>
+      <c r="W112" s="80" t="str">
+        <f t="shared" si="7"/>
+        <v>dv</v>
+      </c>
+      <c r="X112" s="80" t="str">
+        <f t="shared" si="7"/>
+        <v>dθ</v>
+      </c>
+      <c r="Y112" s="80" t="str">
+        <f t="shared" si="7"/>
+        <v>dð</v>
+      </c>
+      <c r="Z112" s="80" t="str">
+        <f t="shared" si="6"/>
+        <v>dʍ</v>
+      </c>
+      <c r="AA112" s="83" t="str">
+        <f t="shared" si="6"/>
+        <v>dЋ</v>
+      </c>
+      <c r="AB112" s="80" t="str">
+        <f t="shared" si="6"/>
+        <v>dp</v>
+      </c>
+      <c r="AC112" s="80" t="str">
+        <f t="shared" si="6"/>
+        <v>dt</v>
+      </c>
+      <c r="AD112" s="80" t="str">
+        <f t="shared" si="6"/>
+        <v>db</v>
+      </c>
+      <c r="AE112" s="92" t="str">
+        <f t="shared" si="6"/>
+        <v>dd</v>
+      </c>
+      <c r="AF112" s="83" t="str">
+        <f t="shared" si="6"/>
+        <v>dʔ</v>
+      </c>
+    </row>
+    <row r="113" spans="6:32" x14ac:dyDescent="0.25">
+      <c r="F113" s="32" t="s">
+        <v>285</v>
+      </c>
+      <c r="G113" s="40"/>
+      <c r="H113" s="40"/>
+      <c r="I113" s="62" t="s">
+        <v>73</v>
+      </c>
+      <c r="J113" s="75" t="str">
+        <f t="shared" si="7"/>
+        <v>ʔਨ</v>
+      </c>
+      <c r="K113" s="75" t="str">
+        <f t="shared" si="7"/>
+        <v>ʔw</v>
+      </c>
+      <c r="L113" s="77" t="str">
+        <f t="shared" si="7"/>
+        <v>ʔl</v>
+      </c>
+      <c r="M113" s="77" t="str">
+        <f t="shared" si="7"/>
+        <v>ʔr</v>
+      </c>
+      <c r="N113" s="77" t="str">
+        <f t="shared" si="7"/>
+        <v>ʔɾ</v>
+      </c>
+      <c r="O113" s="77" t="str">
+        <f t="shared" si="7"/>
+        <v>ʔɹ</v>
+      </c>
+      <c r="P113" s="77" t="str">
+        <f t="shared" si="7"/>
+        <v>ʔʀ</v>
+      </c>
+      <c r="Q113" s="77" t="str">
+        <f t="shared" si="7"/>
+        <v>ʔʁ</v>
+      </c>
+      <c r="R113" s="77" t="str">
+        <f t="shared" si="7"/>
+        <v>ʔɣ</v>
+      </c>
+      <c r="S113" s="78" t="str">
+        <f t="shared" si="7"/>
+        <v>ʔʙ</v>
+      </c>
+      <c r="T113" s="77" t="str">
+        <f t="shared" si="7"/>
+        <v>ʔm</v>
+      </c>
+      <c r="U113" s="78" t="str">
+        <f t="shared" si="7"/>
+        <v>ʔn</v>
+      </c>
+      <c r="V113" s="77" t="str">
+        <f t="shared" si="7"/>
+        <v>ʔf</v>
+      </c>
+      <c r="W113" s="77" t="str">
+        <f t="shared" si="7"/>
+        <v>ʔv</v>
+      </c>
+      <c r="X113" s="77" t="str">
+        <f t="shared" si="7"/>
+        <v>ʔθ</v>
+      </c>
+      <c r="Y113" s="77" t="str">
+        <f t="shared" si="7"/>
+        <v>ʔð</v>
+      </c>
+      <c r="Z113" s="77" t="str">
+        <f t="shared" si="6"/>
+        <v>ʔʍ</v>
+      </c>
+      <c r="AA113" s="78" t="str">
+        <f t="shared" si="6"/>
+        <v>ʔЋ</v>
+      </c>
+      <c r="AB113" s="77" t="str">
+        <f t="shared" si="6"/>
+        <v>ʔp</v>
+      </c>
+      <c r="AC113" s="77" t="str">
+        <f t="shared" si="6"/>
+        <v>ʔt</v>
+      </c>
+      <c r="AD113" s="77" t="str">
+        <f t="shared" si="6"/>
+        <v>ʔb</v>
+      </c>
+      <c r="AE113" s="78" t="str">
+        <f t="shared" si="6"/>
+        <v>ʔd</v>
+      </c>
+      <c r="AF113" s="89" t="str">
+        <f t="shared" si="6"/>
+        <v>ʔʔ</v>
+      </c>
+    </row>
+    <row r="126" spans="6:32" x14ac:dyDescent="0.25">
+      <c r="K126" s="70" t="s">
+        <v>197</v>
+      </c>
+      <c r="L126" s="56" t="s">
+        <v>198</v>
+      </c>
+      <c r="M126" s="71" t="s">
+        <v>200</v>
+      </c>
+      <c r="N126" s="60" t="s">
+        <v>194</v>
+      </c>
+      <c r="O126" s="73" t="s">
+        <v>199</v>
+      </c>
+      <c r="P126" s="73" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q126" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="R126" s="71" t="s">
+        <v>57</v>
+      </c>
+      <c r="S126" s="71" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="59" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="G59" s="32"/>
-    </row>
-    <row r="60" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D60" t="s">
-        <v>135</v>
-      </c>
-      <c r="H60" t="s">
-        <v>6</v>
-      </c>
-      <c r="I60" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="61" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="H61" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="62" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="H62" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="63" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D63" t="s">
-        <v>136</v>
-      </c>
-      <c r="H63" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="64" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="H64" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="65" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="H65" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="66" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D66" t="s">
-        <v>137</v>
-      </c>
-      <c r="H66" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="67" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="H67" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="68" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="H68" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="69" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D69" t="s">
-        <v>138</v>
-      </c>
-      <c r="H69" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="70" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="H70" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="72" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D72" t="s">
-        <v>139</v>
-      </c>
-      <c r="H72" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="74" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="H74" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="75" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="H75" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="76" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="H76" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="77" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="H77" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="78" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="H78" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="79" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="H79" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="80" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="H80" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="81" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H81" t="s">
-        <v>108</v>
-      </c>
-      <c r="I81" t="s">
-        <v>73</v>
+      <c r="T126" s="60" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="127" spans="6:32" x14ac:dyDescent="0.25">
+      <c r="J127" s="118" t="s">
+        <v>197</v>
+      </c>
+      <c r="K127" s="34" t="str">
+        <f>$J127&amp;K$126</f>
+        <v>ii</v>
+      </c>
+      <c r="L127" s="41" t="str">
+        <f t="shared" ref="L127:T127" si="8">$J127&amp;L$126</f>
+        <v>ie</v>
+      </c>
+      <c r="M127" s="34" t="str">
+        <f t="shared" si="8"/>
+        <v>iy</v>
+      </c>
+      <c r="N127" s="35" t="str">
+        <f t="shared" si="8"/>
+        <v>iø</v>
+      </c>
+      <c r="O127" s="41" t="str">
+        <f t="shared" si="8"/>
+        <v>iɑ</v>
+      </c>
+      <c r="P127" s="41" t="str">
+        <f t="shared" si="8"/>
+        <v>iɛ</v>
+      </c>
+      <c r="Q127" s="35" t="str">
+        <f t="shared" si="8"/>
+        <v>ia</v>
+      </c>
+      <c r="R127" s="41" t="str">
+        <f t="shared" si="8"/>
+        <v>iɔ</v>
+      </c>
+      <c r="S127" s="41" t="str">
+        <f t="shared" si="8"/>
+        <v>iʉ</v>
+      </c>
+      <c r="T127" s="35" t="str">
+        <f t="shared" si="8"/>
+        <v>iu</v>
+      </c>
+    </row>
+    <row r="128" spans="6:32" x14ac:dyDescent="0.25">
+      <c r="J128" s="66" t="s">
+        <v>198</v>
+      </c>
+      <c r="K128" s="57" t="str">
+        <f t="shared" ref="K128:T136" si="9">$J128&amp;K$126</f>
+        <v>ei</v>
+      </c>
+      <c r="L128" s="58" t="str">
+        <f t="shared" si="9"/>
+        <v>ee</v>
+      </c>
+      <c r="M128" s="57" t="str">
+        <f t="shared" si="9"/>
+        <v>ey</v>
+      </c>
+      <c r="N128" s="117" t="str">
+        <f t="shared" si="9"/>
+        <v>eø</v>
+      </c>
+      <c r="O128" s="58" t="str">
+        <f t="shared" si="9"/>
+        <v>eɑ</v>
+      </c>
+      <c r="P128" s="58" t="str">
+        <f t="shared" si="9"/>
+        <v>eɛ</v>
+      </c>
+      <c r="Q128" s="117" t="str">
+        <f t="shared" si="9"/>
+        <v>ea</v>
+      </c>
+      <c r="R128" s="58" t="str">
+        <f t="shared" si="9"/>
+        <v>eɔ</v>
+      </c>
+      <c r="S128" s="58" t="str">
+        <f t="shared" si="9"/>
+        <v>eʉ</v>
+      </c>
+      <c r="T128" s="117" t="str">
+        <f t="shared" si="9"/>
+        <v>eu</v>
+      </c>
+    </row>
+    <row r="129" spans="10:20" x14ac:dyDescent="0.25">
+      <c r="J129" s="69" t="s">
+        <v>200</v>
+      </c>
+      <c r="K129" s="34" t="str">
+        <f t="shared" si="9"/>
+        <v>yi</v>
+      </c>
+      <c r="L129" s="41" t="str">
+        <f t="shared" si="9"/>
+        <v>ye</v>
+      </c>
+      <c r="M129" s="34" t="str">
+        <f t="shared" si="9"/>
+        <v>yy</v>
+      </c>
+      <c r="N129" s="35" t="str">
+        <f t="shared" si="9"/>
+        <v>yø</v>
+      </c>
+      <c r="O129" s="41" t="str">
+        <f t="shared" si="9"/>
+        <v>yɑ</v>
+      </c>
+      <c r="P129" s="41" t="str">
+        <f t="shared" si="9"/>
+        <v>yɛ</v>
+      </c>
+      <c r="Q129" s="35" t="str">
+        <f t="shared" si="9"/>
+        <v>ya</v>
+      </c>
+      <c r="R129" s="41" t="str">
+        <f t="shared" si="9"/>
+        <v>yɔ</v>
+      </c>
+      <c r="S129" s="41" t="str">
+        <f t="shared" si="9"/>
+        <v>yʉ</v>
+      </c>
+      <c r="T129" s="35" t="str">
+        <f t="shared" si="9"/>
+        <v>yu</v>
+      </c>
+    </row>
+    <row r="130" spans="10:20" x14ac:dyDescent="0.25">
+      <c r="J130" s="68" t="s">
+        <v>194</v>
+      </c>
+      <c r="K130" s="59" t="str">
+        <f t="shared" si="9"/>
+        <v>øi</v>
+      </c>
+      <c r="L130" s="54" t="str">
+        <f t="shared" si="9"/>
+        <v>øe</v>
+      </c>
+      <c r="M130" s="59" t="str">
+        <f t="shared" si="9"/>
+        <v>øy</v>
+      </c>
+      <c r="N130" s="74" t="str">
+        <f t="shared" si="9"/>
+        <v>øø</v>
+      </c>
+      <c r="O130" s="54" t="str">
+        <f t="shared" si="9"/>
+        <v>øɑ</v>
+      </c>
+      <c r="P130" s="54" t="str">
+        <f t="shared" si="9"/>
+        <v>øɛ</v>
+      </c>
+      <c r="Q130" s="74" t="str">
+        <f t="shared" si="9"/>
+        <v>øa</v>
+      </c>
+      <c r="R130" s="54" t="str">
+        <f t="shared" si="9"/>
+        <v>øɔ</v>
+      </c>
+      <c r="S130" s="54" t="str">
+        <f t="shared" si="9"/>
+        <v>øʉ</v>
+      </c>
+      <c r="T130" s="74" t="str">
+        <f t="shared" si="9"/>
+        <v>øu</v>
+      </c>
+    </row>
+    <row r="131" spans="10:20" x14ac:dyDescent="0.25">
+      <c r="J131" s="64" t="s">
+        <v>199</v>
+      </c>
+      <c r="K131" s="57" t="str">
+        <f t="shared" si="9"/>
+        <v>ɑi</v>
+      </c>
+      <c r="L131" s="58" t="str">
+        <f t="shared" si="9"/>
+        <v>ɑe</v>
+      </c>
+      <c r="M131" s="57" t="str">
+        <f t="shared" si="9"/>
+        <v>ɑy</v>
+      </c>
+      <c r="N131" s="117" t="str">
+        <f t="shared" si="9"/>
+        <v>ɑø</v>
+      </c>
+      <c r="O131" s="58" t="str">
+        <f t="shared" si="9"/>
+        <v>ɑɑ</v>
+      </c>
+      <c r="P131" s="58" t="str">
+        <f t="shared" si="9"/>
+        <v>ɑɛ</v>
+      </c>
+      <c r="Q131" s="117" t="str">
+        <f t="shared" si="9"/>
+        <v>ɑa</v>
+      </c>
+      <c r="R131" s="58" t="str">
+        <f t="shared" si="9"/>
+        <v>ɑɔ</v>
+      </c>
+      <c r="S131" s="58" t="str">
+        <f t="shared" si="9"/>
+        <v>ɑʉ</v>
+      </c>
+      <c r="T131" s="117" t="str">
+        <f t="shared" si="9"/>
+        <v>ɑu</v>
+      </c>
+    </row>
+    <row r="132" spans="10:20" x14ac:dyDescent="0.25">
+      <c r="J132" s="65" t="s">
+        <v>50</v>
+      </c>
+      <c r="K132" s="57" t="str">
+        <f t="shared" si="9"/>
+        <v>ɛi</v>
+      </c>
+      <c r="L132" s="58" t="str">
+        <f t="shared" si="9"/>
+        <v>ɛe</v>
+      </c>
+      <c r="M132" s="57" t="str">
+        <f t="shared" si="9"/>
+        <v>ɛy</v>
+      </c>
+      <c r="N132" s="117" t="str">
+        <f t="shared" si="9"/>
+        <v>ɛø</v>
+      </c>
+      <c r="O132" s="58" t="str">
+        <f t="shared" si="9"/>
+        <v>ɛɑ</v>
+      </c>
+      <c r="P132" s="58" t="str">
+        <f t="shared" si="9"/>
+        <v>ɛɛ</v>
+      </c>
+      <c r="Q132" s="117" t="str">
+        <f t="shared" si="9"/>
+        <v>ɛa</v>
+      </c>
+      <c r="R132" s="58" t="str">
+        <f t="shared" si="9"/>
+        <v>ɛɔ</v>
+      </c>
+      <c r="S132" s="58" t="str">
+        <f t="shared" si="9"/>
+        <v>ɛʉ</v>
+      </c>
+      <c r="T132" s="117" t="str">
+        <f t="shared" si="9"/>
+        <v>ɛu</v>
+      </c>
+    </row>
+    <row r="133" spans="10:20" x14ac:dyDescent="0.25">
+      <c r="J133" s="66" t="s">
+        <v>59</v>
+      </c>
+      <c r="K133" s="59" t="str">
+        <f t="shared" si="9"/>
+        <v>ai</v>
+      </c>
+      <c r="L133" s="54" t="str">
+        <f t="shared" si="9"/>
+        <v>ae</v>
+      </c>
+      <c r="M133" s="59" t="str">
+        <f t="shared" si="9"/>
+        <v>ay</v>
+      </c>
+      <c r="N133" s="74" t="str">
+        <f t="shared" si="9"/>
+        <v>aø</v>
+      </c>
+      <c r="O133" s="54" t="str">
+        <f t="shared" si="9"/>
+        <v>aɑ</v>
+      </c>
+      <c r="P133" s="54" t="str">
+        <f t="shared" si="9"/>
+        <v>aɛ</v>
+      </c>
+      <c r="Q133" s="74" t="str">
+        <f t="shared" si="9"/>
+        <v>aa</v>
+      </c>
+      <c r="R133" s="54" t="str">
+        <f t="shared" si="9"/>
+        <v>aɔ</v>
+      </c>
+      <c r="S133" s="54" t="str">
+        <f t="shared" si="9"/>
+        <v>aʉ</v>
+      </c>
+      <c r="T133" s="74" t="str">
+        <f t="shared" si="9"/>
+        <v>au</v>
+      </c>
+    </row>
+    <row r="134" spans="10:20" x14ac:dyDescent="0.25">
+      <c r="J134" s="69" t="s">
+        <v>57</v>
+      </c>
+      <c r="K134" s="57" t="str">
+        <f t="shared" si="9"/>
+        <v>ɔi</v>
+      </c>
+      <c r="L134" s="58" t="str">
+        <f t="shared" si="9"/>
+        <v>ɔe</v>
+      </c>
+      <c r="M134" s="57" t="str">
+        <f t="shared" si="9"/>
+        <v>ɔy</v>
+      </c>
+      <c r="N134" s="117" t="str">
+        <f t="shared" si="9"/>
+        <v>ɔø</v>
+      </c>
+      <c r="O134" s="58" t="str">
+        <f t="shared" si="9"/>
+        <v>ɔɑ</v>
+      </c>
+      <c r="P134" s="58" t="str">
+        <f t="shared" si="9"/>
+        <v>ɔɛ</v>
+      </c>
+      <c r="Q134" s="117" t="str">
+        <f t="shared" si="9"/>
+        <v>ɔa</v>
+      </c>
+      <c r="R134" s="58" t="str">
+        <f t="shared" si="9"/>
+        <v>ɔɔ</v>
+      </c>
+      <c r="S134" s="58" t="str">
+        <f t="shared" si="9"/>
+        <v>ɔʉ</v>
+      </c>
+      <c r="T134" s="117" t="str">
+        <f t="shared" si="9"/>
+        <v>ɔu</v>
+      </c>
+    </row>
+    <row r="135" spans="10:20" x14ac:dyDescent="0.25">
+      <c r="J135" s="69" t="s">
+        <v>196</v>
+      </c>
+      <c r="K135" s="57" t="str">
+        <f t="shared" si="9"/>
+        <v>ʉi</v>
+      </c>
+      <c r="L135" s="58" t="str">
+        <f t="shared" si="9"/>
+        <v>ʉe</v>
+      </c>
+      <c r="M135" s="57" t="str">
+        <f t="shared" si="9"/>
+        <v>ʉy</v>
+      </c>
+      <c r="N135" s="117" t="str">
+        <f t="shared" si="9"/>
+        <v>ʉø</v>
+      </c>
+      <c r="O135" s="58" t="str">
+        <f t="shared" si="9"/>
+        <v>ʉɑ</v>
+      </c>
+      <c r="P135" s="58" t="str">
+        <f t="shared" si="9"/>
+        <v>ʉɛ</v>
+      </c>
+      <c r="Q135" s="117" t="str">
+        <f t="shared" si="9"/>
+        <v>ʉa</v>
+      </c>
+      <c r="R135" s="58" t="str">
+        <f t="shared" si="9"/>
+        <v>ʉɔ</v>
+      </c>
+      <c r="S135" s="58" t="str">
+        <f t="shared" si="9"/>
+        <v>ʉʉ</v>
+      </c>
+      <c r="T135" s="117" t="str">
+        <f t="shared" si="9"/>
+        <v>ʉu</v>
+      </c>
+    </row>
+    <row r="136" spans="10:20" x14ac:dyDescent="0.25">
+      <c r="J136" s="68" t="s">
+        <v>195</v>
+      </c>
+      <c r="K136" s="59" t="str">
+        <f t="shared" si="9"/>
+        <v>ui</v>
+      </c>
+      <c r="L136" s="54" t="str">
+        <f t="shared" si="9"/>
+        <v>ue</v>
+      </c>
+      <c r="M136" s="59" t="str">
+        <f t="shared" si="9"/>
+        <v>uy</v>
+      </c>
+      <c r="N136" s="74" t="str">
+        <f t="shared" si="9"/>
+        <v>uø</v>
+      </c>
+      <c r="O136" s="54" t="str">
+        <f t="shared" si="9"/>
+        <v>uɑ</v>
+      </c>
+      <c r="P136" s="54" t="str">
+        <f t="shared" si="9"/>
+        <v>uɛ</v>
+      </c>
+      <c r="Q136" s="74" t="str">
+        <f t="shared" si="9"/>
+        <v>ua</v>
+      </c>
+      <c r="R136" s="54" t="str">
+        <f t="shared" si="9"/>
+        <v>uɔ</v>
+      </c>
+      <c r="S136" s="54" t="str">
+        <f t="shared" si="9"/>
+        <v>uʉ</v>
+      </c>
+      <c r="T136" s="74" t="str">
+        <f t="shared" si="9"/>
+        <v>uu</v>
       </c>
     </row>
   </sheetData>
@@ -3520,11 +9178,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93AFD39E-1D72-4EF6-96D0-BBB97B9890EC}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="D5:Q84"/>
+  <dimension ref="D5:Q116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="G63" sqref="G63"/>
+    <sheetView topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="J113" sqref="J113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3534,438 +9204,534 @@
   <sheetData>
     <row r="5" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F5" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F6" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F8" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F9" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F10" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>303</v>
+      </c>
+      <c r="F17" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="18" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>305</v>
+      </c>
+      <c r="F19" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="32" spans="4:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D32" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="36" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="K36" s="26" t="s">
+        <v>221</v>
+      </c>
+      <c r="M36" s="26" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q36" s="26" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="37" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>147</v>
+      </c>
+      <c r="G37" s="30" t="s">
+        <v>237</v>
+      </c>
+      <c r="K37" t="s">
+        <v>147</v>
+      </c>
+      <c r="M37" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="38" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>149</v>
+      </c>
+      <c r="G38" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="K38" t="s">
+        <v>149</v>
+      </c>
+      <c r="M38" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="39" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>150</v>
+      </c>
+      <c r="G39" s="30" t="s">
+        <v>236</v>
+      </c>
+      <c r="K39" t="s">
+        <v>150</v>
+      </c>
+      <c r="M39" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="40" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="19" spans="4:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D19" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="23" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="K23" s="26" t="s">
+      <c r="G40" s="30" t="s">
+        <v>238</v>
+      </c>
+      <c r="K40" t="s">
+        <v>176</v>
+      </c>
+      <c r="M40" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="41" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>148</v>
+      </c>
+      <c r="G41" s="30" t="s">
+        <v>239</v>
+      </c>
+      <c r="K41" t="s">
+        <v>148</v>
+      </c>
+      <c r="M41" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="42" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>177</v>
+      </c>
+      <c r="G42" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="K42" t="s">
+        <v>177</v>
+      </c>
+      <c r="M42" t="s">
         <v>228</v>
       </c>
-      <c r="M23" s="26" t="s">
+      <c r="Q42" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="43" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>178</v>
+      </c>
+      <c r="K43" t="s">
+        <v>178</v>
+      </c>
+      <c r="M43" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="44" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>179</v>
+      </c>
+      <c r="K44" t="s">
+        <v>179</v>
+      </c>
+      <c r="M44" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="45" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>151</v>
+      </c>
+      <c r="K45" t="s">
+        <v>151</v>
+      </c>
+      <c r="M45" t="s">
         <v>229</v>
       </c>
-      <c r="Q23" s="26" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="24" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D24" t="s">
-        <v>147</v>
-      </c>
-      <c r="G24" s="30" t="s">
-        <v>244</v>
-      </c>
-      <c r="K24" t="s">
-        <v>147</v>
-      </c>
-      <c r="M24" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="25" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D25" t="s">
-        <v>149</v>
-      </c>
-      <c r="G25" s="30" t="s">
-        <v>242</v>
-      </c>
-      <c r="K25" t="s">
-        <v>149</v>
-      </c>
-      <c r="M25" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="26" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D26" t="s">
-        <v>150</v>
-      </c>
-      <c r="G26" s="30" t="s">
-        <v>243</v>
-      </c>
-      <c r="K26" t="s">
-        <v>150</v>
-      </c>
-      <c r="M26" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q26" t="s">
+      <c r="Q45" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="50" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="27" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D27" t="s">
-        <v>181</v>
-      </c>
-      <c r="G27" s="30" t="s">
-        <v>245</v>
-      </c>
-      <c r="K27" t="s">
-        <v>181</v>
-      </c>
-      <c r="M27" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q27" t="s">
+      <c r="E50" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="51" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="28" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D28" t="s">
-        <v>148</v>
-      </c>
-      <c r="G28" s="30" t="s">
-        <v>246</v>
-      </c>
-      <c r="K28" t="s">
-        <v>148</v>
-      </c>
-      <c r="M28" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="29" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D29" t="s">
-        <v>182</v>
-      </c>
-      <c r="G29" s="30" t="s">
-        <v>255</v>
-      </c>
-      <c r="K29" t="s">
-        <v>182</v>
-      </c>
-      <c r="M29" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q29" t="s">
+      <c r="E51" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="52" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="30" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D30" t="s">
-        <v>183</v>
-      </c>
-      <c r="K30" t="s">
-        <v>183</v>
-      </c>
-      <c r="M30" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="31" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D31" t="s">
-        <v>184</v>
-      </c>
-      <c r="K31" t="s">
-        <v>184</v>
-      </c>
-      <c r="M31" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="32" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D32" t="s">
-        <v>151</v>
-      </c>
-      <c r="K32" t="s">
-        <v>151</v>
-      </c>
-      <c r="M32" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="37" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D37" t="s">
-        <v>256</v>
-      </c>
-      <c r="E37" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="38" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D38" t="s">
-        <v>257</v>
-      </c>
-      <c r="E38" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="39" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D39" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="51" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D51" s="27"/>
-      <c r="F51" s="26" t="s">
+      <c r="E52" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="64" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D64" s="27"/>
+      <c r="F64" s="26" t="s">
         <v>146</v>
-      </c>
-    </row>
-    <row r="52" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D52" t="s">
-        <v>147</v>
-      </c>
-      <c r="F52" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="53" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D53" t="s">
-        <v>149</v>
-      </c>
-      <c r="F53" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="54" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D54" t="s">
-        <v>150</v>
-      </c>
-      <c r="F54" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="55" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D55" t="s">
-        <v>181</v>
-      </c>
-      <c r="F55" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="56" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D56" t="s">
-        <v>148</v>
-      </c>
-      <c r="F56" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="57" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D57" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="58" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D58" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="59" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D59" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="60" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D60" t="s">
-        <v>151</v>
-      </c>
-      <c r="F60" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="63" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="F63" s="26" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="64" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D64" t="s">
-        <v>147</v>
-      </c>
-      <c r="F64" t="s">
-        <v>160</v>
-      </c>
-      <c r="H64" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="65" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D65" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F65" t="s">
-        <v>161</v>
-      </c>
-      <c r="H65" t="s">
-        <v>185</v>
+        <v>155</v>
+      </c>
+      <c r="G65" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="66" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D66" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F66" t="s">
-        <v>179</v>
+        <v>294</v>
+      </c>
+      <c r="G66" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="67" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D67" t="s">
-        <v>181</v>
+        <v>150</v>
+      </c>
+      <c r="F67" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="68" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D68" t="s">
-        <v>148</v>
+        <v>176</v>
       </c>
       <c r="F68" t="s">
-        <v>178</v>
-      </c>
-      <c r="H68" t="s">
-        <v>186</v>
+        <v>296</v>
       </c>
     </row>
     <row r="69" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D69" t="s">
-        <v>182</v>
+        <v>148</v>
+      </c>
+      <c r="F69" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="70" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D70" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="71" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D71" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="72" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D72" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="73" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D73" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="75" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="F75" s="26" t="s">
-        <v>226</v>
+      <c r="F73" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="76" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D76" t="s">
-        <v>147</v>
-      </c>
-      <c r="F76" t="s">
-        <v>227</v>
+      <c r="F76" s="26" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="77" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D77" t="s">
-        <v>149</v>
+        <v>147</v>
+      </c>
+      <c r="F77" t="s">
+        <v>157</v>
+      </c>
+      <c r="H77" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="78" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D78" t="s">
-        <v>150</v>
+        <v>149</v>
+      </c>
+      <c r="F78" t="s">
+        <v>158</v>
+      </c>
+      <c r="H78" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="79" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D79" t="s">
-        <v>181</v>
+        <v>150</v>
+      </c>
+      <c r="F79" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="80" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D80" t="s">
+        <v>176</v>
+      </c>
+      <c r="F80" t="s">
+        <v>332</v>
+      </c>
+      <c r="H80" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="81" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D81" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="81" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D81" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="82" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="F81" t="s">
+        <v>333</v>
+      </c>
+      <c r="H81" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="82" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D82" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="83" spans="4:4" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="83" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D83" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="84" spans="4:4" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="84" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D84" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="85" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D85" t="s">
         <v>151</v>
+      </c>
+    </row>
+    <row r="88" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="F88" s="26" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="89" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D89" t="s">
+        <v>147</v>
+      </c>
+      <c r="F89" t="s">
+        <v>220</v>
+      </c>
+      <c r="G89" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="90" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D90" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="91" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D91" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="92" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D92" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="93" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D93" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="94" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D94" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="95" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D95" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="96" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D96" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="97" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D97" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="104" spans="4:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D104" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="E104" s="28"/>
+    </row>
+    <row r="108" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D108" s="26" t="s">
+        <v>298</v>
+      </c>
+      <c r="E108" s="26"/>
+      <c r="G108" s="26" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="111" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D111" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="112" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D112" t="s">
+        <v>316</v>
+      </c>
+      <c r="G112" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="113" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D113" t="s">
+        <v>317</v>
+      </c>
+      <c r="G113" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="114" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D114" t="s">
+        <v>319</v>
+      </c>
+      <c r="G114" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="115" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D115" t="s">
+        <v>320</v>
+      </c>
+      <c r="G115" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="116" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D116" t="s">
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -3974,265 +9740,397 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="D6:E7"/>
+  <dimension ref="D6:R30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="D9" workbookViewId="0">
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="6" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="7" spans="4:5" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="7" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D7">
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>252</v>
-      </c>
+        <v>243</v>
+      </c>
+    </row>
+    <row r="14" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="G14" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="15" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="G15" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="16" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="G16" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="17" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="G17" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="27" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="G27" s="99" t="s">
+        <v>325</v>
+      </c>
+      <c r="H27" s="100"/>
+      <c r="I27" s="99" t="s">
+        <v>326</v>
+      </c>
+      <c r="J27" s="100"/>
+      <c r="K27" s="99" t="s">
+        <v>327</v>
+      </c>
+      <c r="L27" s="100"/>
+      <c r="M27" s="99" t="s">
+        <v>328</v>
+      </c>
+      <c r="N27" s="100"/>
+      <c r="O27" s="99" t="s">
+        <v>329</v>
+      </c>
+      <c r="P27" s="100"/>
+      <c r="Q27" s="99" t="s">
+        <v>330</v>
+      </c>
+      <c r="R27" s="100"/>
+    </row>
+    <row r="28" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F28" s="98" t="s">
+        <v>307</v>
+      </c>
+      <c r="G28" t="s">
+        <v>308</v>
+      </c>
+      <c r="H28" s="33"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="33"/>
+      <c r="M28" s="32" t="s">
+        <v>331</v>
+      </c>
+      <c r="N28" s="33"/>
+      <c r="O28" s="32"/>
+      <c r="P28" s="33"/>
+      <c r="Q28" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="R28" s="33"/>
+    </row>
+    <row r="29" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F29" s="98" t="s">
+        <v>324</v>
+      </c>
+      <c r="G29" s="32" t="s">
+        <v>313</v>
+      </c>
+      <c r="H29" s="33"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="33"/>
+      <c r="K29" s="32"/>
+      <c r="L29" s="33"/>
+      <c r="M29" s="32" t="s">
+        <v>331</v>
+      </c>
+      <c r="N29" s="33"/>
+      <c r="O29" s="40"/>
+      <c r="P29" s="33"/>
+      <c r="Q29" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="R29" s="33"/>
+    </row>
+    <row r="30" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F30" s="98" t="s">
+        <v>310</v>
+      </c>
+      <c r="G30" s="32" t="s">
+        <v>314</v>
+      </c>
+      <c r="H30" s="33"/>
+      <c r="I30" s="32"/>
+      <c r="J30" s="33"/>
+      <c r="K30" s="59"/>
+      <c r="L30" s="33"/>
+      <c r="M30" s="32" t="s">
+        <v>331</v>
+      </c>
+      <c r="N30" s="33"/>
+      <c r="O30" s="40"/>
+      <c r="P30" s="33"/>
+      <c r="Q30" s="40" t="s">
+        <v>312</v>
+      </c>
+      <c r="R30" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{932B0660-2246-4D4C-9BE4-CA313175CC43}">
-  <dimension ref="B5:O27"/>
+  <dimension ref="B5:P27"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="5" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="6" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D6" s="97" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="16" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="G16" t="s">
+        <v>271</v>
+      </c>
+      <c r="I16" t="s">
+        <v>272</v>
+      </c>
+      <c r="K16" t="s">
+        <v>274</v>
+      </c>
+      <c r="M16" t="s">
+        <v>275</v>
+      </c>
+      <c r="O16" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="G17" s="38" t="s">
+        <v>257</v>
+      </c>
+      <c r="H17" s="39"/>
+      <c r="I17" s="38" t="s">
+        <v>259</v>
+      </c>
+      <c r="J17" s="39"/>
+      <c r="K17" s="38" t="s">
+        <v>258</v>
+      </c>
+      <c r="L17" s="39"/>
+      <c r="M17" s="38" t="s">
+        <v>260</v>
+      </c>
+      <c r="N17" s="39"/>
+      <c r="O17" s="38" t="s">
+        <v>261</v>
+      </c>
+      <c r="P17" s="39"/>
+    </row>
+    <row r="18" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F18" s="74"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="41" t="s">
+        <v>300</v>
+      </c>
+      <c r="N18" s="35"/>
+      <c r="O18" s="41" t="s">
+        <v>301</v>
+      </c>
+      <c r="P18" s="35"/>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>277</v>
+      </c>
+      <c r="D19" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="E19" s="95"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="44"/>
+      <c r="L19" s="43"/>
+      <c r="M19" s="44"/>
+      <c r="N19" s="44"/>
+      <c r="O19" s="45"/>
+      <c r="P19" s="46"/>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>278</v>
+      </c>
+      <c r="D20" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="E20" s="95"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="33"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="40"/>
+      <c r="O20" s="32"/>
+      <c r="P20" s="48"/>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D21" s="36" t="s">
+        <v>264</v>
+      </c>
+      <c r="E21" s="95"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="40"/>
+      <c r="N21" s="40"/>
+      <c r="O21" s="32"/>
+      <c r="P21" s="48"/>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D22" s="36" t="s">
+        <v>265</v>
+      </c>
+      <c r="E22" s="95"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="40"/>
+      <c r="O22" s="32"/>
+      <c r="P22" s="48"/>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D23" s="36" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="6" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D6" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="16" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="F16" t="s">
-        <v>281</v>
-      </c>
-      <c r="H16" t="s">
-        <v>282</v>
-      </c>
-      <c r="J16" t="s">
-        <v>284</v>
-      </c>
-      <c r="L16" t="s">
-        <v>285</v>
-      </c>
-      <c r="N16" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="F17" s="55" t="s">
+      <c r="E23" s="95"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="33"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="40"/>
+      <c r="O23" s="32"/>
+      <c r="P23" s="48"/>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D24" s="36" t="s">
         <v>267</v>
       </c>
-      <c r="G17" s="56"/>
-      <c r="H17" s="55" t="s">
+      <c r="E24" s="95"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="40"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="40"/>
+      <c r="O24" s="32"/>
+      <c r="P24" s="48"/>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D25" s="36" t="s">
+        <v>268</v>
+      </c>
+      <c r="E25" s="95"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="40"/>
+      <c r="N25" s="40"/>
+      <c r="O25" s="32"/>
+      <c r="P25" s="48"/>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D26" s="36" t="s">
         <v>269</v>
       </c>
-      <c r="I17" s="56"/>
-      <c r="J17" s="55" t="s">
-        <v>268</v>
-      </c>
-      <c r="K17" s="56"/>
-      <c r="L17" s="55" t="s">
+      <c r="E26" s="95"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="40"/>
+      <c r="L26" s="33"/>
+      <c r="M26" s="40"/>
+      <c r="N26" s="40"/>
+      <c r="O26" s="32"/>
+      <c r="P26" s="48"/>
+    </row>
+    <row r="27" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D27" s="37" t="s">
         <v>270</v>
       </c>
-      <c r="M17" s="56"/>
-      <c r="N17" s="55" t="s">
-        <v>271</v>
-      </c>
-      <c r="O17" s="56"/>
-    </row>
-    <row r="18" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F18" s="51"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="52"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="60"/>
-      <c r="M18" s="52"/>
-      <c r="N18" s="60"/>
-      <c r="O18" s="52"/>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>287</v>
-      </c>
-      <c r="D19" s="53" t="s">
-        <v>272</v>
-      </c>
-      <c r="E19" s="58"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="62"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="62"/>
-      <c r="L19" s="63"/>
-      <c r="M19" s="63"/>
-      <c r="N19" s="64"/>
-      <c r="O19" s="65"/>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>288</v>
-      </c>
-      <c r="D20" s="53" t="s">
-        <v>273</v>
-      </c>
-      <c r="E20" s="58"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="50"/>
-      <c r="J20" s="57"/>
-      <c r="K20" s="50"/>
-      <c r="L20" s="57"/>
-      <c r="M20" s="57"/>
-      <c r="N20" s="49"/>
-      <c r="O20" s="67"/>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D21" s="53" t="s">
-        <v>274</v>
-      </c>
-      <c r="E21" s="58"/>
-      <c r="F21" s="66"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="57"/>
-      <c r="I21" s="50"/>
-      <c r="J21" s="57"/>
-      <c r="K21" s="50"/>
-      <c r="L21" s="57"/>
-      <c r="M21" s="57"/>
-      <c r="N21" s="49"/>
-      <c r="O21" s="67"/>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D22" s="53" t="s">
-        <v>275</v>
-      </c>
-      <c r="E22" s="58"/>
-      <c r="F22" s="66"/>
-      <c r="G22" s="50"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="50"/>
-      <c r="J22" s="57"/>
-      <c r="K22" s="50"/>
-      <c r="L22" s="57"/>
-      <c r="M22" s="57"/>
-      <c r="N22" s="49"/>
-      <c r="O22" s="67"/>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D23" s="53" t="s">
-        <v>276</v>
-      </c>
-      <c r="E23" s="58"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="50"/>
-      <c r="H23" s="57"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="57"/>
-      <c r="K23" s="50"/>
-      <c r="L23" s="57"/>
-      <c r="M23" s="57"/>
-      <c r="N23" s="49"/>
-      <c r="O23" s="67"/>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D24" s="53" t="s">
-        <v>277</v>
-      </c>
-      <c r="E24" s="58"/>
-      <c r="F24" s="66"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="50"/>
-      <c r="J24" s="57"/>
-      <c r="K24" s="50"/>
-      <c r="L24" s="57"/>
-      <c r="M24" s="57"/>
-      <c r="N24" s="49"/>
-      <c r="O24" s="67"/>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D25" s="53" t="s">
-        <v>278</v>
-      </c>
-      <c r="E25" s="58"/>
-      <c r="F25" s="66"/>
-      <c r="G25" s="50"/>
-      <c r="H25" s="57"/>
-      <c r="I25" s="50"/>
-      <c r="J25" s="57"/>
-      <c r="K25" s="50"/>
-      <c r="L25" s="57"/>
-      <c r="M25" s="57"/>
-      <c r="N25" s="49"/>
-      <c r="O25" s="67"/>
-    </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D26" s="53" t="s">
-        <v>279</v>
-      </c>
-      <c r="E26" s="58"/>
-      <c r="F26" s="66"/>
-      <c r="G26" s="50"/>
-      <c r="H26" s="57"/>
-      <c r="I26" s="50"/>
-      <c r="J26" s="57"/>
-      <c r="K26" s="50"/>
-      <c r="L26" s="57"/>
-      <c r="M26" s="57"/>
-      <c r="N26" s="49"/>
-      <c r="O26" s="67"/>
-    </row>
-    <row r="27" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D27" s="54" t="s">
-        <v>280</v>
-      </c>
-      <c r="E27" s="59"/>
-      <c r="F27" s="68"/>
-      <c r="G27" s="69"/>
-      <c r="H27" s="70"/>
-      <c r="I27" s="69"/>
-      <c r="J27" s="70"/>
-      <c r="K27" s="69"/>
-      <c r="L27" s="70"/>
-      <c r="M27" s="70"/>
-      <c r="N27" s="71"/>
-      <c r="O27" s="72"/>
+      <c r="E27" s="96"/>
+      <c r="F27" s="94"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="50"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="50"/>
+      <c r="K27" s="51"/>
+      <c r="L27" s="50"/>
+      <c r="M27" s="51"/>
+      <c r="N27" s="51"/>
+      <c r="O27" s="52"/>
+      <c r="P27" s="53"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D6" r:id="rId1" xr:uid="{BC599D7C-79A1-48AB-985D-2FA9030A85D8}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -4244,7 +10142,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -4256,35 +10154,4 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="D7:E8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="7" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D7" t="s">
-        <v>153</v>
-      </c>
-      <c r="E7" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="8" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D8" t="s">
-        <v>155</v>
-      </c>
-      <c r="E8" t="s">
-        <v>154</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Aia/Lang/Derotic/Derotic.xlsx
+++ b/Aia/Lang/Derotic/Derotic.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FAD059D-317A-477F-9325-A7151CE77CAA}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="4" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="META" sheetId="8" r:id="rId1"/>
@@ -20,7 +19,7 @@
     <sheet name="Pronouns" sheetId="5" r:id="rId10"/>
     <sheet name="Prepositions" sheetId="6" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="391">
   <si>
     <t>1.Sounds</t>
   </si>
@@ -1129,15 +1128,9 @@
     <t>ugt</t>
   </si>
   <si>
-    <t>presens</t>
-  </si>
-  <si>
     <t>future</t>
   </si>
   <si>
-    <t>should have</t>
-  </si>
-  <si>
     <t>agt</t>
   </si>
   <si>
@@ -1195,9 +1188,6 @@
     <t>Conditional</t>
   </si>
   <si>
-    <t>aθ</t>
-  </si>
-  <si>
     <t>aw rRr</t>
   </si>
   <si>
@@ -1262,12 +1252,132 @@
   </si>
   <si>
     <t>˧</t>
+  </si>
+  <si>
+    <t>θreir</t>
+  </si>
+  <si>
+    <t>short vowel</t>
+  </si>
+  <si>
+    <t>creaky</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>_</t>
+  </si>
+  <si>
+    <t>i:ɾɛ</t>
+  </si>
+  <si>
+    <t>θɾat</t>
+  </si>
+  <si>
+    <t>1st s.</t>
+  </si>
+  <si>
+    <t>2nd s.</t>
+  </si>
+  <si>
+    <t>3rd s.</t>
+  </si>
+  <si>
+    <t>1st pl.</t>
+  </si>
+  <si>
+    <t>2nd pl.</t>
+  </si>
+  <si>
+    <t>3rd pl.</t>
+  </si>
+  <si>
+    <t>a_d</t>
+  </si>
+  <si>
+    <t>ɾi:rRr</t>
+  </si>
+  <si>
+    <t>Lexicon</t>
+  </si>
+  <si>
+    <t>presermo in indicative</t>
+  </si>
+  <si>
+    <t>eat</t>
+  </si>
+  <si>
+    <t>ɾnt</t>
+  </si>
+  <si>
+    <t>is</t>
+  </si>
+  <si>
+    <t>have</t>
+  </si>
+  <si>
+    <t>θi_ð</t>
+  </si>
+  <si>
+    <t>sleep</t>
+  </si>
+  <si>
+    <t>run</t>
+  </si>
+  <si>
+    <t>rest</t>
+  </si>
+  <si>
+    <t>think</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>print/tell</t>
+  </si>
+  <si>
+    <t>remember</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>see/love</t>
+  </si>
+  <si>
+    <t>gabiR</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>yat</t>
+  </si>
+  <si>
+    <t>they</t>
+  </si>
+  <si>
+    <t>we</t>
+  </si>
+  <si>
+    <t>y'all</t>
+  </si>
+  <si>
+    <t>rn</t>
+  </si>
+  <si>
+    <t>ynt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2024,7 +2134,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2162,10 +2272,34 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2186,33 +2320,10 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlänk" xfId="1" builtinId="8"/>
@@ -2499,7 +2610,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2539,11 +2650,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="D7:F8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D7:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2553,14 +2664,46 @@
         <v>152</v>
       </c>
       <c r="F7" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="8" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
+        <v>384</v>
+      </c>
+      <c r="F8" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="9" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
         <v>153</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F9" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>387</v>
+      </c>
+      <c r="F10" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="11" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>388</v>
+      </c>
+      <c r="F11" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="12" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>386</v>
+      </c>
+      <c r="F12" t="s">
         <v>154</v>
       </c>
     </row>
@@ -2570,7 +2713,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2582,11 +2725,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E1:V78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K60" sqref="K60"/>
+    <sheetView topLeftCell="B51" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U71" sqref="U71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2604,66 +2747,66 @@
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
       <c r="L3" s="9"/>
-      <c r="N3" s="101" t="s">
+      <c r="N3" s="108" t="s">
         <v>34</v>
       </c>
-      <c r="O3" s="116"/>
-      <c r="P3" s="116"/>
-      <c r="Q3" s="102"/>
-      <c r="R3" s="112" t="s">
+      <c r="O3" s="112"/>
+      <c r="P3" s="112"/>
+      <c r="Q3" s="109"/>
+      <c r="R3" s="104" t="s">
         <v>35</v>
       </c>
-      <c r="S3" s="113"/>
-      <c r="T3" s="112" t="s">
+      <c r="S3" s="105"/>
+      <c r="T3" s="104" t="s">
         <v>36</v>
       </c>
-      <c r="U3" s="113"/>
+      <c r="U3" s="105"/>
       <c r="V3" s="9"/>
     </row>
     <row r="4" spans="7:22" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G4" s="105" t="s">
+      <c r="G4" s="115" t="s">
         <v>9</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="105" t="s">
+      <c r="I4" s="115" t="s">
         <v>12</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="105" t="s">
+      <c r="K4" s="115" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="105" t="s">
+      <c r="L4" s="115" t="s">
         <v>16</v>
       </c>
-      <c r="N4" s="101" t="s">
+      <c r="N4" s="108" t="s">
         <v>37</v>
       </c>
-      <c r="O4" s="102"/>
-      <c r="P4" s="101" t="s">
+      <c r="O4" s="109"/>
+      <c r="P4" s="108" t="s">
         <v>38</v>
       </c>
-      <c r="Q4" s="102"/>
-      <c r="R4" s="114"/>
-      <c r="S4" s="115"/>
-      <c r="T4" s="114"/>
-      <c r="U4" s="115"/>
+      <c r="Q4" s="109"/>
+      <c r="R4" s="106"/>
+      <c r="S4" s="107"/>
+      <c r="T4" s="106"/>
+      <c r="U4" s="107"/>
       <c r="V4" s="11"/>
     </row>
     <row r="5" spans="7:22" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G5" s="106"/>
+      <c r="G5" s="116"/>
       <c r="H5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="106"/>
+      <c r="I5" s="116"/>
       <c r="J5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="106"/>
-      <c r="L5" s="106"/>
+      <c r="K5" s="116"/>
+      <c r="L5" s="116"/>
       <c r="N5" s="6" t="s">
         <v>39</v>
       </c>
@@ -2691,10 +2834,10 @@
       <c r="V5" s="11"/>
     </row>
     <row r="6" spans="7:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G6" s="101" t="s">
+      <c r="G6" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="102"/>
+      <c r="H6" s="109"/>
       <c r="I6" s="2" t="s">
         <v>6</v>
       </c>
@@ -2730,7 +2873,7 @@
       </c>
     </row>
     <row r="7" spans="7:22" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G7" s="105" t="s">
+      <c r="G7" s="115" t="s">
         <v>18</v>
       </c>
       <c r="H7" s="6" t="s">
@@ -2747,19 +2890,19 @@
       <c r="N7" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="O7" s="109" t="s">
+      <c r="O7" s="110" t="s">
         <v>50</v>
       </c>
       <c r="P7" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="Q7" s="109" t="s">
+      <c r="Q7" s="110" t="s">
         <v>52</v>
       </c>
       <c r="R7" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="S7" s="109" t="s">
+      <c r="S7" s="110" t="s">
         <v>54</v>
       </c>
       <c r="T7" s="3"/>
@@ -2769,15 +2912,15 @@
       </c>
     </row>
     <row r="8" spans="7:22" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G8" s="106"/>
+      <c r="G8" s="116"/>
       <c r="H8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I8" s="107" t="s">
+      <c r="I8" s="117" t="s">
         <v>23</v>
       </c>
       <c r="J8" s="3"/>
-      <c r="K8" s="107" t="s">
+      <c r="K8" s="117" t="s">
         <v>24</v>
       </c>
       <c r="L8" s="3"/>
@@ -2798,25 +2941,25 @@
       <c r="V8" s="3"/>
     </row>
     <row r="9" spans="7:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G9" s="101" t="s">
+      <c r="G9" s="108" t="s">
         <v>25</v>
       </c>
-      <c r="H9" s="102"/>
-      <c r="I9" s="108"/>
-      <c r="J9" s="107" t="s">
+      <c r="H9" s="109"/>
+      <c r="I9" s="118"/>
+      <c r="J9" s="117" t="s">
         <v>26</v>
       </c>
-      <c r="K9" s="108"/>
-      <c r="L9" s="109" t="s">
+      <c r="K9" s="118"/>
+      <c r="L9" s="110" t="s">
         <v>27</v>
       </c>
       <c r="N9" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="O9" s="103"/>
-      <c r="P9" s="104"/>
-      <c r="Q9" s="103"/>
-      <c r="R9" s="104"/>
+      <c r="O9" s="113"/>
+      <c r="P9" s="114"/>
+      <c r="Q9" s="113"/>
+      <c r="R9" s="114"/>
       <c r="S9" s="3" t="s">
         <v>59</v>
       </c>
@@ -2827,19 +2970,19 @@
       </c>
     </row>
     <row r="10" spans="7:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G10" s="105" t="s">
+      <c r="G10" s="115" t="s">
         <v>28</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>22</v>
       </c>
       <c r="I10" s="3"/>
-      <c r="J10" s="108"/>
+      <c r="J10" s="118"/>
       <c r="K10" s="3"/>
-      <c r="L10" s="110"/>
+      <c r="L10" s="119"/>
     </row>
     <row r="11" spans="7:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G11" s="106"/>
+      <c r="G11" s="116"/>
       <c r="H11" s="6" t="s">
         <v>19</v>
       </c>
@@ -2850,13 +2993,13 @@
       <c r="K11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L11" s="110"/>
+      <c r="L11" s="119"/>
     </row>
     <row r="12" spans="7:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G12" s="101" t="s">
+      <c r="G12" s="108" t="s">
         <v>31</v>
       </c>
-      <c r="H12" s="102"/>
+      <c r="H12" s="109"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
@@ -2866,10 +3009,10 @@
       </c>
     </row>
     <row r="13" spans="7:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G13" s="101" t="s">
+      <c r="G13" s="108" t="s">
         <v>32</v>
       </c>
-      <c r="H13" s="102"/>
+      <c r="H13" s="109"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="2" t="s">
@@ -3521,7 +3664,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="65" spans="5:19" x14ac:dyDescent="0.25">
+    <row r="65" spans="5:21" x14ac:dyDescent="0.25">
       <c r="G65" t="s">
         <v>118</v>
       </c>
@@ -3529,7 +3672,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="66" spans="5:19" x14ac:dyDescent="0.25">
+    <row r="66" spans="5:21" x14ac:dyDescent="0.25">
       <c r="G66" t="s">
         <v>119</v>
       </c>
@@ -3540,7 +3683,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="67" spans="5:19" x14ac:dyDescent="0.25">
+    <row r="67" spans="5:21" x14ac:dyDescent="0.25">
       <c r="G67" t="s">
         <v>279</v>
       </c>
@@ -3548,70 +3691,84 @@
         <v>284</v>
       </c>
     </row>
-    <row r="68" spans="5:19" x14ac:dyDescent="0.25">
+    <row r="68" spans="5:21" x14ac:dyDescent="0.25">
       <c r="G68" t="s">
+        <v>332</v>
+      </c>
+      <c r="H68" t="s">
+        <v>333</v>
+      </c>
+      <c r="S68" t="s">
+        <v>352</v>
+      </c>
+      <c r="U68" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="69" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="S69" t="s">
+        <v>40</v>
+      </c>
+      <c r="U69" s="120" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="70" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="S70" t="s">
+        <v>353</v>
+      </c>
+      <c r="U70" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="74" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E74" t="s">
+        <v>349</v>
+      </c>
+      <c r="G74" t="s">
+        <v>339</v>
+      </c>
+      <c r="J74" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="75" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E75" t="s">
+        <v>350</v>
+      </c>
+      <c r="G75" t="s">
+        <v>334</v>
+      </c>
+      <c r="J75" t="s">
         <v>335</v>
       </c>
-      <c r="H68" t="s">
+    </row>
+    <row r="76" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="G76" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="74" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="E74" t="s">
-        <v>352</v>
-      </c>
-      <c r="G74" t="s">
+      <c r="J76" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="77" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="G77" t="s">
+        <v>337</v>
+      </c>
+      <c r="J77" t="s">
+        <v>341</v>
+      </c>
+      <c r="K77" t="s">
         <v>342</v>
       </c>
-      <c r="J74" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="75" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="E75" t="s">
-        <v>353</v>
-      </c>
-      <c r="G75" t="s">
-        <v>337</v>
-      </c>
-      <c r="J75" t="s">
+    </row>
+    <row r="78" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="G78" t="s">
         <v>338</v>
-      </c>
-    </row>
-    <row r="76" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="G76" t="s">
-        <v>339</v>
-      </c>
-      <c r="J76" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="77" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="G77" t="s">
-        <v>340</v>
-      </c>
-      <c r="J77" t="s">
-        <v>344</v>
-      </c>
-      <c r="K77" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="78" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="G78" t="s">
-        <v>341</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="T3:U4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="S7:S8"/>
-    <mergeCell ref="R3:S4"/>
-    <mergeCell ref="N3:Q3"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="O9:P9"/>
     <mergeCell ref="Q9:R9"/>
@@ -3628,47 +3785,55 @@
     <mergeCell ref="L9:L12"/>
     <mergeCell ref="G10:G11"/>
     <mergeCell ref="G12:H12"/>
+    <mergeCell ref="T3:U4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="S7:S8"/>
+    <mergeCell ref="R3:S4"/>
+    <mergeCell ref="N3:Q3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="G4" r:id="rId1" tooltip="Bilabial consonant" display="https://en.wikipedia.org/wiki/Bilabial_consonant" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="H4" r:id="rId2" tooltip="Labiodental consonant" display="https://en.wikipedia.org/wiki/Labiodental_consonant" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="H5" r:id="rId3" tooltip="Labiodental consonant" display="https://en.wikipedia.org/wiki/Labiodental_consonant" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="I4" r:id="rId4" tooltip="Dental consonant" display="https://en.wikipedia.org/wiki/Dental_consonant" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="J4" r:id="rId5" tooltip="Retroflex consonant" display="https://en.wikipedia.org/wiki/Retroflex_consonant" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="J5" r:id="rId6" tooltip="Alveolar consonant" display="https://en.wikipedia.org/wiki/Alveolar_consonant" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="K4" r:id="rId7" tooltip="Palatal consonant" display="https://en.wikipedia.org/wiki/Palatal_consonant" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="L4" r:id="rId8" tooltip="Velar consonant" display="https://en.wikipedia.org/wiki/Velar_consonant" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="G6" r:id="rId9" tooltip="Nasal consonant" display="https://en.wikipedia.org/wiki/Nasal_consonant" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="I6" r:id="rId10" tooltip="Bilabial nasal" display="https://en.wikipedia.org/wiki/Bilabial_nasal" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
-    <hyperlink ref="K6" r:id="rId11" location="Dental_or_denti-alveolar" tooltip="Dental, alveolar and postalveolar nasals" display="Dental_or_denti-alveolar" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
-    <hyperlink ref="G7" r:id="rId12" tooltip="Stop consonant" display="https://en.wikipedia.org/wiki/Stop_consonant" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
-    <hyperlink ref="H7" r:id="rId13" tooltip="Voicelessness" display="https://en.wikipedia.org/wiki/Voicelessness" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
-    <hyperlink ref="I7" r:id="rId14" tooltip="Voiceless bilabial stop" display="https://en.wikipedia.org/wiki/Voiceless_bilabial_stop" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
-    <hyperlink ref="K7" r:id="rId15" location="Dental_or_denti-alveolar" tooltip="Voiceless dental and alveolar stops" display="https://en.wikipedia.org/wiki/Voiceless_dental_and_alveolar_stops - Dental_or_denti-alveolar" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
-    <hyperlink ref="H8" r:id="rId16" tooltip="Voice (phonetics)" display="https://en.wikipedia.org/wiki/Voice_(phonetics)" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
-    <hyperlink ref="I8" r:id="rId17" tooltip="Voiced bilabial stop" display="https://en.wikipedia.org/wiki/Voiced_bilabial_stop" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
-    <hyperlink ref="K8" r:id="rId18" location="Dental_or_denti-alveolar" tooltip="Voiced dental and alveolar stops" display="https://en.wikipedia.org/wiki/Voiced_dental_and_alveolar_stops - Dental_or_denti-alveolar" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
-    <hyperlink ref="G9" r:id="rId19" tooltip="Approximant consonant" display="https://en.wikipedia.org/wiki/Approximant_consonant" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
-    <hyperlink ref="J9" r:id="rId20" tooltip="Voiced labiodental fricative" display="https://en.wikipedia.org/wiki/Voiced_labiodental_fricative" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
-    <hyperlink ref="G10" r:id="rId21" tooltip="Fricative consonant" display="https://en.wikipedia.org/wiki/Fricative_consonant" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
-    <hyperlink ref="H10" r:id="rId22" tooltip="Voice (phonetics)" display="https://en.wikipedia.org/wiki/Voice_(phonetics)" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
-    <hyperlink ref="H11" r:id="rId23" tooltip="Voicelessness" display="https://en.wikipedia.org/wiki/Voicelessness" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
-    <hyperlink ref="J11" r:id="rId24" tooltip="Voiceless labiodental fricative" display="https://en.wikipedia.org/wiki/Voiceless_labiodental_fricative" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
-    <hyperlink ref="K11" r:id="rId25" location="Voiceless_dental_sibilant" tooltip="Voiceless alveolar fricative" display="https://en.wikipedia.org/wiki/Voiceless_alveolar_fricative - Voiceless_dental_sibilant" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
-    <hyperlink ref="G12" r:id="rId26" tooltip="Trill consonant" display="https://en.wikipedia.org/wiki/Trill_consonant" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
-    <hyperlink ref="G13" r:id="rId27" tooltip="Lateral consonant" display="https://en.wikipedia.org/wiki/Lateral_consonant" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
-    <hyperlink ref="K13" r:id="rId28" location="Dental_or_denti-alveolar" tooltip="Dental, alveolar and postalveolar lateral approximants" display="https://en.wikipedia.org/wiki/Dental,_alveolar_and_postalveolar_lateral_approximants - Dental_or_denti-alveolar" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
-    <hyperlink ref="N3" r:id="rId29" tooltip="Front vowel" display="https://en.wikipedia.org/wiki/Front_vowel" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
-    <hyperlink ref="R3" r:id="rId30" tooltip="Central vowel" display="https://en.wikipedia.org/wiki/Central_vowel" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
-    <hyperlink ref="T3" r:id="rId31" tooltip="Back vowel" display="https://en.wikipedia.org/wiki/Back_vowel" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
-    <hyperlink ref="N4" r:id="rId32" tooltip="Roundedness" display="https://en.wikipedia.org/wiki/Roundedness" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
-    <hyperlink ref="P4" r:id="rId33" tooltip="Roundedness" display="https://en.wikipedia.org/wiki/Roundedness" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
-    <hyperlink ref="N5" r:id="rId34" tooltip="Short vowel" display="https://en.wikipedia.org/wiki/Short_vowel" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
-    <hyperlink ref="O5" r:id="rId35" tooltip="Long vowel" display="https://en.wikipedia.org/wiki/Long_vowel" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
-    <hyperlink ref="N6" r:id="rId36" tooltip="Close vowel" display="https://en.wikipedia.org/wiki/Close_vowel" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
-    <hyperlink ref="N7" r:id="rId37" tooltip="Close-mid vowel" display="https://en.wikipedia.org/wiki/Close-mid_vowel" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
-    <hyperlink ref="N8" r:id="rId38" tooltip="Open-mid vowel" display="https://en.wikipedia.org/wiki/Open-mid_vowel" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
-    <hyperlink ref="N9" r:id="rId39" tooltip="Open vowel" display="https://en.wikipedia.org/wiki/Open_vowel" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
+    <hyperlink ref="G4" r:id="rId1" tooltip="Bilabial consonant" display="https://en.wikipedia.org/wiki/Bilabial_consonant"/>
+    <hyperlink ref="H4" r:id="rId2" tooltip="Labiodental consonant" display="https://en.wikipedia.org/wiki/Labiodental_consonant"/>
+    <hyperlink ref="H5" r:id="rId3" tooltip="Labiodental consonant" display="https://en.wikipedia.org/wiki/Labiodental_consonant"/>
+    <hyperlink ref="I4" r:id="rId4" tooltip="Dental consonant" display="https://en.wikipedia.org/wiki/Dental_consonant"/>
+    <hyperlink ref="J4" r:id="rId5" tooltip="Retroflex consonant" display="https://en.wikipedia.org/wiki/Retroflex_consonant"/>
+    <hyperlink ref="J5" r:id="rId6" tooltip="Alveolar consonant" display="https://en.wikipedia.org/wiki/Alveolar_consonant"/>
+    <hyperlink ref="K4" r:id="rId7" tooltip="Palatal consonant" display="https://en.wikipedia.org/wiki/Palatal_consonant"/>
+    <hyperlink ref="L4" r:id="rId8" tooltip="Velar consonant" display="https://en.wikipedia.org/wiki/Velar_consonant"/>
+    <hyperlink ref="G6" r:id="rId9" tooltip="Nasal consonant" display="https://en.wikipedia.org/wiki/Nasal_consonant"/>
+    <hyperlink ref="I6" r:id="rId10" tooltip="Bilabial nasal" display="https://en.wikipedia.org/wiki/Bilabial_nasal"/>
+    <hyperlink ref="K6" r:id="rId11" location="Dental_or_denti-alveolar" tooltip="Dental, alveolar and postalveolar nasals" display="Dental_or_denti-alveolar"/>
+    <hyperlink ref="G7" r:id="rId12" tooltip="Stop consonant" display="https://en.wikipedia.org/wiki/Stop_consonant"/>
+    <hyperlink ref="H7" r:id="rId13" tooltip="Voicelessness" display="https://en.wikipedia.org/wiki/Voicelessness"/>
+    <hyperlink ref="I7" r:id="rId14" tooltip="Voiceless bilabial stop" display="https://en.wikipedia.org/wiki/Voiceless_bilabial_stop"/>
+    <hyperlink ref="K7" r:id="rId15" location="Dental_or_denti-alveolar" tooltip="Voiceless dental and alveolar stops" display="https://en.wikipedia.org/wiki/Voiceless_dental_and_alveolar_stops - Dental_or_denti-alveolar"/>
+    <hyperlink ref="H8" r:id="rId16" tooltip="Voice (phonetics)" display="https://en.wikipedia.org/wiki/Voice_(phonetics)"/>
+    <hyperlink ref="I8" r:id="rId17" tooltip="Voiced bilabial stop" display="https://en.wikipedia.org/wiki/Voiced_bilabial_stop"/>
+    <hyperlink ref="K8" r:id="rId18" location="Dental_or_denti-alveolar" tooltip="Voiced dental and alveolar stops" display="https://en.wikipedia.org/wiki/Voiced_dental_and_alveolar_stops - Dental_or_denti-alveolar"/>
+    <hyperlink ref="G9" r:id="rId19" tooltip="Approximant consonant" display="https://en.wikipedia.org/wiki/Approximant_consonant"/>
+    <hyperlink ref="J9" r:id="rId20" tooltip="Voiced labiodental fricative" display="https://en.wikipedia.org/wiki/Voiced_labiodental_fricative"/>
+    <hyperlink ref="G10" r:id="rId21" tooltip="Fricative consonant" display="https://en.wikipedia.org/wiki/Fricative_consonant"/>
+    <hyperlink ref="H10" r:id="rId22" tooltip="Voice (phonetics)" display="https://en.wikipedia.org/wiki/Voice_(phonetics)"/>
+    <hyperlink ref="H11" r:id="rId23" tooltip="Voicelessness" display="https://en.wikipedia.org/wiki/Voicelessness"/>
+    <hyperlink ref="J11" r:id="rId24" tooltip="Voiceless labiodental fricative" display="https://en.wikipedia.org/wiki/Voiceless_labiodental_fricative"/>
+    <hyperlink ref="K11" r:id="rId25" location="Voiceless_dental_sibilant" tooltip="Voiceless alveolar fricative" display="https://en.wikipedia.org/wiki/Voiceless_alveolar_fricative - Voiceless_dental_sibilant"/>
+    <hyperlink ref="G12" r:id="rId26" tooltip="Trill consonant" display="https://en.wikipedia.org/wiki/Trill_consonant"/>
+    <hyperlink ref="G13" r:id="rId27" tooltip="Lateral consonant" display="https://en.wikipedia.org/wiki/Lateral_consonant"/>
+    <hyperlink ref="K13" r:id="rId28" location="Dental_or_denti-alveolar" tooltip="Dental, alveolar and postalveolar lateral approximants" display="https://en.wikipedia.org/wiki/Dental,_alveolar_and_postalveolar_lateral_approximants - Dental_or_denti-alveolar"/>
+    <hyperlink ref="N3" r:id="rId29" tooltip="Front vowel" display="https://en.wikipedia.org/wiki/Front_vowel"/>
+    <hyperlink ref="R3" r:id="rId30" tooltip="Central vowel" display="https://en.wikipedia.org/wiki/Central_vowel"/>
+    <hyperlink ref="T3" r:id="rId31" tooltip="Back vowel" display="https://en.wikipedia.org/wiki/Back_vowel"/>
+    <hyperlink ref="N4" r:id="rId32" tooltip="Roundedness" display="https://en.wikipedia.org/wiki/Roundedness"/>
+    <hyperlink ref="P4" r:id="rId33" tooltip="Roundedness" display="https://en.wikipedia.org/wiki/Roundedness"/>
+    <hyperlink ref="N5" r:id="rId34" tooltip="Short vowel" display="https://en.wikipedia.org/wiki/Short_vowel"/>
+    <hyperlink ref="O5" r:id="rId35" tooltip="Long vowel" display="https://en.wikipedia.org/wiki/Long_vowel"/>
+    <hyperlink ref="N6" r:id="rId36" tooltip="Close vowel" display="https://en.wikipedia.org/wiki/Close_vowel"/>
+    <hyperlink ref="N7" r:id="rId37" tooltip="Close-mid vowel" display="https://en.wikipedia.org/wiki/Close-mid_vowel"/>
+    <hyperlink ref="N8" r:id="rId38" tooltip="Open-mid vowel" display="https://en.wikipedia.org/wiki/Open-mid_vowel"/>
+    <hyperlink ref="N9" r:id="rId39" tooltip="Open vowel" display="https://en.wikipedia.org/wiki/Open_vowel"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId40"/>
@@ -3676,10 +3841,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AF136"/>
   <sheetViews>
-    <sheetView topLeftCell="C53" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="C121" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K79" sqref="K79"/>
     </sheetView>
   </sheetViews>
@@ -5701,7 +5866,7 @@
       <c r="F77" s="59"/>
       <c r="G77" s="54"/>
       <c r="H77" s="74"/>
-      <c r="I77" s="119" t="s">
+      <c r="I77" s="103" t="s">
         <v>119</v>
       </c>
       <c r="J77" s="84" t="str">
@@ -8722,7 +8887,7 @@
       </c>
     </row>
     <row r="127" spans="6:32" x14ac:dyDescent="0.25">
-      <c r="J127" s="118" t="s">
+      <c r="J127" s="102" t="s">
         <v>197</v>
       </c>
       <c r="K127" s="34" t="str">
@@ -8782,7 +8947,7 @@
         <f t="shared" si="9"/>
         <v>ey</v>
       </c>
-      <c r="N128" s="117" t="str">
+      <c r="N128" s="101" t="str">
         <f t="shared" si="9"/>
         <v>eø</v>
       </c>
@@ -8794,7 +8959,7 @@
         <f t="shared" si="9"/>
         <v>eɛ</v>
       </c>
-      <c r="Q128" s="117" t="str">
+      <c r="Q128" s="101" t="str">
         <f t="shared" si="9"/>
         <v>ea</v>
       </c>
@@ -8806,7 +8971,7 @@
         <f t="shared" si="9"/>
         <v>eʉ</v>
       </c>
-      <c r="T128" s="117" t="str">
+      <c r="T128" s="101" t="str">
         <f t="shared" si="9"/>
         <v>eu</v>
       </c>
@@ -8917,7 +9082,7 @@
         <f t="shared" si="9"/>
         <v>ɑy</v>
       </c>
-      <c r="N131" s="117" t="str">
+      <c r="N131" s="101" t="str">
         <f t="shared" si="9"/>
         <v>ɑø</v>
       </c>
@@ -8929,7 +9094,7 @@
         <f t="shared" si="9"/>
         <v>ɑɛ</v>
       </c>
-      <c r="Q131" s="117" t="str">
+      <c r="Q131" s="101" t="str">
         <f t="shared" si="9"/>
         <v>ɑa</v>
       </c>
@@ -8941,7 +9106,7 @@
         <f t="shared" si="9"/>
         <v>ɑʉ</v>
       </c>
-      <c r="T131" s="117" t="str">
+      <c r="T131" s="101" t="str">
         <f t="shared" si="9"/>
         <v>ɑu</v>
       </c>
@@ -8962,7 +9127,7 @@
         <f t="shared" si="9"/>
         <v>ɛy</v>
       </c>
-      <c r="N132" s="117" t="str">
+      <c r="N132" s="101" t="str">
         <f t="shared" si="9"/>
         <v>ɛø</v>
       </c>
@@ -8974,7 +9139,7 @@
         <f t="shared" si="9"/>
         <v>ɛɛ</v>
       </c>
-      <c r="Q132" s="117" t="str">
+      <c r="Q132" s="101" t="str">
         <f t="shared" si="9"/>
         <v>ɛa</v>
       </c>
@@ -8986,7 +9151,7 @@
         <f t="shared" si="9"/>
         <v>ɛʉ</v>
       </c>
-      <c r="T132" s="117" t="str">
+      <c r="T132" s="101" t="str">
         <f t="shared" si="9"/>
         <v>ɛu</v>
       </c>
@@ -9052,7 +9217,7 @@
         <f t="shared" si="9"/>
         <v>ɔy</v>
       </c>
-      <c r="N134" s="117" t="str">
+      <c r="N134" s="101" t="str">
         <f t="shared" si="9"/>
         <v>ɔø</v>
       </c>
@@ -9064,7 +9229,7 @@
         <f t="shared" si="9"/>
         <v>ɔɛ</v>
       </c>
-      <c r="Q134" s="117" t="str">
+      <c r="Q134" s="101" t="str">
         <f t="shared" si="9"/>
         <v>ɔa</v>
       </c>
@@ -9076,7 +9241,7 @@
         <f t="shared" si="9"/>
         <v>ɔʉ</v>
       </c>
-      <c r="T134" s="117" t="str">
+      <c r="T134" s="101" t="str">
         <f t="shared" si="9"/>
         <v>ɔu</v>
       </c>
@@ -9097,7 +9262,7 @@
         <f t="shared" si="9"/>
         <v>ʉy</v>
       </c>
-      <c r="N135" s="117" t="str">
+      <c r="N135" s="101" t="str">
         <f t="shared" si="9"/>
         <v>ʉø</v>
       </c>
@@ -9109,7 +9274,7 @@
         <f t="shared" si="9"/>
         <v>ʉɛ</v>
       </c>
-      <c r="Q135" s="117" t="str">
+      <c r="Q135" s="101" t="str">
         <f t="shared" si="9"/>
         <v>ʉa</v>
       </c>
@@ -9121,7 +9286,7 @@
         <f t="shared" si="9"/>
         <v>ʉʉ</v>
       </c>
-      <c r="T135" s="117" t="str">
+      <c r="T135" s="101" t="str">
         <f t="shared" si="9"/>
         <v>ʉu</v>
       </c>
@@ -9178,7 +9343,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93AFD39E-1D72-4EF6-96D0-BBB97B9890EC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -9190,11 +9355,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D5:Q116"/>
   <sheetViews>
-    <sheetView topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="J113" sqref="J113"/>
+    <sheetView topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="D117" sqref="D117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9450,7 +9615,7 @@
         <v>247</v>
       </c>
       <c r="E50" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="51" spans="4:6" x14ac:dyDescent="0.25">
@@ -9458,7 +9623,7 @@
         <v>248</v>
       </c>
       <c r="E51" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="52" spans="4:6" x14ac:dyDescent="0.25">
@@ -9466,7 +9631,7 @@
         <v>249</v>
       </c>
       <c r="E52" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="64" spans="4:6" x14ac:dyDescent="0.25">
@@ -9482,7 +9647,7 @@
       <c r="F65" t="s">
         <v>155</v>
       </c>
-      <c r="G65" t="s">
+      <c r="H65" t="s">
         <v>291</v>
       </c>
     </row>
@@ -9493,7 +9658,7 @@
       <c r="F66" t="s">
         <v>294</v>
       </c>
-      <c r="G66" t="s">
+      <c r="H66" t="s">
         <v>292</v>
       </c>
     </row>
@@ -9584,10 +9749,10 @@
         <v>176</v>
       </c>
       <c r="F80" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="H80" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="81" spans="4:8" x14ac:dyDescent="0.25">
@@ -9595,7 +9760,7 @@
         <v>148</v>
       </c>
       <c r="F81" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="H81" t="s">
         <v>181</v>
@@ -9620,6 +9785,9 @@
       <c r="D85" t="s">
         <v>151</v>
       </c>
+      <c r="F85" t="s">
+        <v>365</v>
+      </c>
     </row>
     <row r="88" spans="4:8" x14ac:dyDescent="0.25">
       <c r="F88" s="26" t="s">
@@ -9694,44 +9862,53 @@
     </row>
     <row r="111" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D111" t="s">
-        <v>315</v>
+        <v>313</v>
+      </c>
+      <c r="G111" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="112" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D112" t="s">
+        <v>314</v>
+      </c>
+      <c r="G112" t="s">
         <v>316</v>
       </c>
-      <c r="G112" t="s">
+    </row>
+    <row r="113" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D113" t="s">
+        <v>315</v>
+      </c>
+      <c r="G113" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="114" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D114" t="s">
+        <v>317</v>
+      </c>
+      <c r="G114" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="115" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D115" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="113" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D113" t="s">
-        <v>317</v>
-      </c>
-      <c r="G113" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="114" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D114" t="s">
+      <c r="G115" t="s">
+        <v>351</v>
+      </c>
+      <c r="H115" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="116" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D116" t="s">
         <v>319</v>
       </c>
-      <c r="G114" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="115" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D115" t="s">
-        <v>320</v>
-      </c>
-      <c r="G115" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="116" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D116" t="s">
-        <v>321</v>
+      <c r="G116" t="s">
+        <v>357</v>
       </c>
     </row>
   </sheetData>
@@ -9741,16 +9918,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="D6:R30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D6:R46"/>
   <sheetViews>
-    <sheetView topLeftCell="D9" workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
+    <sheetView topLeftCell="C26" workbookViewId="0">
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="6" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D6">
         <v>1</v>
       </c>
@@ -9758,7 +9935,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="7" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D7">
         <v>2</v>
       </c>
@@ -9766,128 +9943,238 @@
         <v>243</v>
       </c>
     </row>
-    <row r="14" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="G13" s="99" t="s">
+        <v>323</v>
+      </c>
+      <c r="H13" s="100"/>
+      <c r="I13" s="99" t="s">
+        <v>324</v>
+      </c>
+      <c r="J13" s="100"/>
+      <c r="K13" s="99" t="s">
+        <v>325</v>
+      </c>
+      <c r="L13" s="100"/>
+      <c r="M13" s="99" t="s">
+        <v>326</v>
+      </c>
+      <c r="N13" s="100"/>
+      <c r="O13" s="99" t="s">
+        <v>327</v>
+      </c>
+      <c r="P13" s="100"/>
+      <c r="Q13" s="99" t="s">
+        <v>328</v>
+      </c>
+      <c r="R13" s="100"/>
+    </row>
+    <row r="14" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="F14" s="98" t="s">
+        <v>307</v>
+      </c>
       <c r="G14" t="s">
+        <v>308</v>
+      </c>
+      <c r="H14" s="33"/>
+      <c r="I14" s="32" t="s">
+        <v>372</v>
+      </c>
+      <c r="J14" s="33"/>
+      <c r="K14" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="L14" s="33"/>
+      <c r="M14" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="N14" s="33"/>
+      <c r="O14" s="32"/>
+      <c r="P14" s="33"/>
+      <c r="Q14" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="R14" s="33"/>
+    </row>
+    <row r="15" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="F15" s="98" t="s">
+        <v>322</v>
+      </c>
+      <c r="G15" s="32" t="s">
+        <v>311</v>
+      </c>
+      <c r="H15" s="33"/>
+      <c r="I15" s="32" t="s">
+        <v>372</v>
+      </c>
+      <c r="J15" s="33"/>
+      <c r="K15" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="L15" s="33"/>
+      <c r="M15" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="N15" s="33"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="33"/>
+      <c r="Q15" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="R15" s="33"/>
+    </row>
+    <row r="16" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="F16" s="98" t="s">
+        <v>309</v>
+      </c>
+      <c r="G16" s="32" t="s">
+        <v>312</v>
+      </c>
+      <c r="H16" s="33"/>
+      <c r="I16" s="32" t="s">
+        <v>372</v>
+      </c>
+      <c r="J16" s="33"/>
+      <c r="K16" s="59" t="s">
+        <v>154</v>
+      </c>
+      <c r="L16" s="33"/>
+      <c r="M16" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="N16" s="33"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="33"/>
+      <c r="Q16" s="40" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="15" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="G15" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="16" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="G16" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="17" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="G17" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="27" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="G27" s="99" t="s">
-        <v>325</v>
-      </c>
-      <c r="H27" s="100"/>
-      <c r="I27" s="99" t="s">
-        <v>326</v>
-      </c>
-      <c r="J27" s="100"/>
-      <c r="K27" s="99" t="s">
-        <v>327</v>
-      </c>
-      <c r="L27" s="100"/>
-      <c r="M27" s="99" t="s">
-        <v>328</v>
-      </c>
-      <c r="N27" s="100"/>
-      <c r="O27" s="99" t="s">
-        <v>329</v>
-      </c>
-      <c r="P27" s="100"/>
-      <c r="Q27" s="99" t="s">
-        <v>330</v>
-      </c>
-      <c r="R27" s="100"/>
-    </row>
-    <row r="28" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F28" s="98" t="s">
-        <v>307</v>
-      </c>
-      <c r="G28" t="s">
-        <v>308</v>
-      </c>
-      <c r="H28" s="33"/>
-      <c r="I28" s="32"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="32"/>
-      <c r="L28" s="33"/>
-      <c r="M28" s="32" t="s">
-        <v>331</v>
-      </c>
-      <c r="N28" s="33"/>
-      <c r="O28" s="32"/>
-      <c r="P28" s="33"/>
-      <c r="Q28" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="R28" s="33"/>
-    </row>
-    <row r="29" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F29" s="98" t="s">
-        <v>324</v>
-      </c>
-      <c r="G29" s="32" t="s">
-        <v>313</v>
-      </c>
-      <c r="H29" s="33"/>
-      <c r="I29" s="32"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="32"/>
-      <c r="L29" s="33"/>
-      <c r="M29" s="32" t="s">
-        <v>331</v>
-      </c>
-      <c r="N29" s="33"/>
-      <c r="O29" s="40"/>
-      <c r="P29" s="33"/>
-      <c r="Q29" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="R29" s="33"/>
-    </row>
-    <row r="30" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F30" s="98" t="s">
-        <v>310</v>
-      </c>
-      <c r="G30" s="32" t="s">
-        <v>314</v>
-      </c>
-      <c r="H30" s="33"/>
-      <c r="I30" s="32"/>
-      <c r="J30" s="33"/>
-      <c r="K30" s="59"/>
-      <c r="L30" s="33"/>
-      <c r="M30" s="32" t="s">
-        <v>331</v>
-      </c>
-      <c r="N30" s="33"/>
-      <c r="O30" s="40"/>
-      <c r="P30" s="33"/>
-      <c r="Q30" s="40" t="s">
-        <v>312</v>
-      </c>
-      <c r="R30" s="33"/>
+      <c r="R16" s="33"/>
+    </row>
+    <row r="18" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="H18" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="19" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G19" t="s">
+        <v>358</v>
+      </c>
+      <c r="H19" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="20" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G20" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="21" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G21" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="22" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G22" t="s">
+        <v>361</v>
+      </c>
+      <c r="H22" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="23" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G23" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="24" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G24" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="30" spans="6:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F30" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="33" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F33" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="34" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F34" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="36" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F36" t="s">
+        <v>368</v>
+      </c>
+      <c r="H36" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="37" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F37" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="38" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F38" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="39" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F39" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="40" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F40" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="41" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F41" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="42" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F42" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="43" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F43" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="44" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F44" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="45" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F45" t="s">
+        <v>382</v>
+      </c>
+      <c r="H45" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="46" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F46" t="s">
+        <v>381</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{932B0660-2246-4D4C-9BE4-CA313175CC43}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:P27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10123,7 +10410,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D6" r:id="rId1" xr:uid="{BC599D7C-79A1-48AB-985D-2FA9030A85D8}"/>
+    <hyperlink ref="D6" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId2"/>
@@ -10131,7 +10418,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -10143,10 +10430,10 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
